--- a/cob_surface_classification/common/files/experiments.xlsx
+++ b/cob_surface_classification/common/files/experiments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="162" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="111" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -191,13 +191,44 @@
     <t>a. quality (angular error, #good normals, coverage) w.r.t. ideal sensor and noisy sensor</t>
   </si>
   <si>
-    <t>-&gt; table: best performers with angular error, #good normals, coverage</t>
+    <r>
+      <t xml:space="preserve">-&gt; table: best performers with angular error, #good normals, coverage </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">no noise and typical noise</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>i. noise level - neighborhood size - angular error, #good normals, coverage</t>
   </si>
   <si>
-    <t>-&gt; 3d plots: noise-level -- neighborhood size -- angular error --&gt; only for a few/2 methods</t>
+    <t>-&gt; 2d plot: noise-level -- neighborhood size -- angular error --&gt; only for a few/2 methods with shaded color for each method</t>
   </si>
   <si>
     <t>ii. neighborhood size - angular error, #good normals, coverage</t>
@@ -358,7 +389,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -408,11 +439,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -456,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -485,11 +511,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,8 +594,8 @@
   </sheetPr>
   <dimension ref="A4:L44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1260,9 +1282,11 @@
         <f aca="false">2*I35*J35/(I35+J35)</f>
         <v>91.5477716999207</v>
       </c>
-      <c r="L35" s="0" t="str">
+      <c r="L35" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K35), 5)=4,AVERAGE(K35:K39),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O35" s="0" t="n">
         <v>1</v>
@@ -1364,9 +1388,11 @@
         <f aca="false">2*I36*J36/(I36+J36)</f>
         <v>90.7540766242581</v>
       </c>
-      <c r="L36" s="0" t="str">
+      <c r="L36" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K36), 5)=4,AVERAGE(K36:K40),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -1414,9 +1440,11 @@
         <f aca="false">2*I37*J37/(I37+J37)</f>
         <v>88.1651045900536</v>
       </c>
-      <c r="L37" s="0" t="str">
+      <c r="L37" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K37), 5)=4,AVERAGE(K37:K41),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -1464,11 +1492,13 @@
         <f aca="false">2*I38*J38/(I38+J38)</f>
         <v>45.2958568676525</v>
       </c>
-      <c r="L38" s="0" t="str">
+      <c r="L38" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K38), 5)=4,AVERAGE(K38:K42),"")</f>
-        <v/>
-      </c>
-      <c r="O38" s="8" t="s">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O38" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P38" s="6"/>
@@ -1618,9 +1648,11 @@
         <f aca="false">2*I40*J40/(I40+J40)</f>
         <v>91.8308994931237</v>
       </c>
-      <c r="L40" s="0" t="str">
+      <c r="L40" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K40), 5)=4,AVERAGE(K40:K44),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O40" s="0" t="n">
         <v>15</v>
@@ -1722,9 +1754,11 @@
         <f aca="false">2*I41*J41/(I41+J41)</f>
         <v>91.1481006314424</v>
       </c>
-      <c r="L41" s="0" t="str">
+      <c r="L41" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K41), 5)=4,AVERAGE(K41:K45),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O41" s="0" t="n">
         <v>20</v>
@@ -1823,9 +1857,11 @@
         <f aca="false">2*I42*J42/(I42+J42)</f>
         <v>89.4712254641353</v>
       </c>
-      <c r="L42" s="0" t="str">
+      <c r="L42" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K42), 5)=4,AVERAGE(K42:K46),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -1873,9 +1909,11 @@
         <f aca="false">2*I43*J43/(I43+J43)</f>
         <v>62.1311574887105</v>
       </c>
-      <c r="L43" s="0" t="str">
+      <c r="L43" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K43), 5)=4,AVERAGE(K43:K47),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -1976,9 +2014,11 @@
         <f aca="false">2*I45*J45/(I45+J45)</f>
         <v>91.8820682208489</v>
       </c>
-      <c r="L45" s="0" t="str">
+      <c r="L45" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K45), 5)=4,AVERAGE(K45:K49),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O45" s="0" t="n">
         <v>35</v>
@@ -2077,9 +2117,11 @@
         <f aca="false">2*I46*J46/(I46+J46)</f>
         <v>91.2269494437926</v>
       </c>
-      <c r="L46" s="0" t="str">
+      <c r="L46" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K46), 5)=4,AVERAGE(K46:K50),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O46" s="0" t="n">
         <v>45</v>
@@ -2181,9 +2223,11 @@
         <f aca="false">2*I47*J47/(I47+J47)</f>
         <v>89.7092021920609</v>
       </c>
-      <c r="L47" s="0" t="str">
+      <c r="L47" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K47), 5)=4,AVERAGE(K47:K51),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O47" s="0" t="n">
         <v>60</v>
@@ -2282,9 +2326,11 @@
         <f aca="false">2*I48*J48/(I48+J48)</f>
         <v>76.0426009810492</v>
       </c>
-      <c r="L48" s="0" t="str">
+      <c r="L48" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K48), 5)=4,AVERAGE(K48:K52),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,9 +2396,11 @@
         <f aca="false">2*I50*J50/(I50+J50)</f>
         <v>90.45375363805</v>
       </c>
-      <c r="L50" s="0" t="str">
+      <c r="L50" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K50), 5)=4,AVERAGE(K50:K54),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O50" s="5" t="s">
         <v>81</v>
@@ -2390,9 +2438,11 @@
         <f aca="false">2*I51*J51/(I51+J51)</f>
         <v>89.7123284689343</v>
       </c>
-      <c r="L51" s="0" t="str">
+      <c r="L51" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K51), 5)=4,AVERAGE(K51:K55),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O51" s="0" t="s">
         <v>77</v>
@@ -2430,9 +2480,11 @@
         <f aca="false">2*I52*J52/(I52+J52)</f>
         <v>87.5464512419697</v>
       </c>
-      <c r="L52" s="0" t="str">
+      <c r="L52" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K52), 5)=4,AVERAGE(K52:K56),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O52" s="0" t="n">
         <v>0</v>
@@ -2531,9 +2583,11 @@
         <f aca="false">2*I53*J53/(I53+J53)</f>
         <v>62.6591074985395</v>
       </c>
-      <c r="L53" s="0" t="str">
+      <c r="L53" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K53), 5)=4,AVERAGE(K53:K57),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O53" s="0" t="n">
         <v>1</v>
@@ -2685,9 +2739,11 @@
         <f aca="false">2*I55*J55/(I55+J55)</f>
         <v>90.868358905989</v>
       </c>
-      <c r="L55" s="0" t="str">
+      <c r="L55" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K55), 5)=4,AVERAGE(K55:K59),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
@@ -2735,11 +2791,13 @@
         <f aca="false">2*I56*J56/(I56+J56)</f>
         <v>90.2538043627585</v>
       </c>
-      <c r="L56" s="0" t="str">
+      <c r="L56" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K56), 5)=4,AVERAGE(K56:K60),"")</f>
-        <v/>
-      </c>
-      <c r="O56" s="8" t="s">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O56" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P56" s="6"/>
@@ -2788,9 +2846,11 @@
         <f aca="false">2*I57*J57/(I57+J57)</f>
         <v>88.5291855965581</v>
       </c>
-      <c r="L57" s="0" t="str">
+      <c r="L57" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K57), 5)=4,AVERAGE(K57:K61),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O57" s="0" t="n">
         <v>10</v>
@@ -2889,9 +2949,11 @@
         <f aca="false">2*I58*J58/(I58+J58)</f>
         <v>72.7357841045033</v>
       </c>
-      <c r="L58" s="0" t="str">
+      <c r="L58" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K58), 5)=4,AVERAGE(K58:K62),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O58" s="0" t="n">
         <v>15</v>
@@ -3094,9 +3156,11 @@
         <f aca="false">2*I60*J60/(I60+J60)</f>
         <v>91.0388714329313</v>
       </c>
-      <c r="L60" s="0" t="str">
+      <c r="L60" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K60), 5)=4,AVERAGE(K60:K64),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -3144,9 +3208,11 @@
         <f aca="false">2*I61*J61/(I61+J61)</f>
         <v>90.4634410095216</v>
       </c>
-      <c r="L61" s="0" t="str">
+      <c r="L61" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K61), 5)=4,AVERAGE(K61:K65),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
@@ -3194,9 +3260,11 @@
         <f aca="false">2*I62*J62/(I62+J62)</f>
         <v>88.9067257930543</v>
       </c>
-      <c r="L62" s="0" t="str">
+      <c r="L62" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K62), 5)=4,AVERAGE(K62:K66),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O62" s="0" t="s">
         <v>59</v>
@@ -3247,9 +3315,11 @@
         <f aca="false">2*I63*J63/(I63+J63)</f>
         <v>78.5963011669178</v>
       </c>
-      <c r="L63" s="0" t="str">
+      <c r="L63" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K63), 5)=4,AVERAGE(K63:K67),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O63" s="0" t="n">
         <v>35</v>
@@ -3452,9 +3522,11 @@
         <f aca="false">2*I65*J65/(I65+J65)</f>
         <v>89.8802344542344</v>
       </c>
-      <c r="L65" s="0" t="str">
+      <c r="L65" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K65), 5)=4,AVERAGE(K65:K69),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O65" s="0" t="n">
         <v>60</v>
@@ -3553,9 +3625,11 @@
         <f aca="false">2*I66*J66/(I66+J66)</f>
         <v>89.1370681709746</v>
       </c>
-      <c r="L66" s="0" t="str">
+      <c r="L66" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K66), 5)=4,AVERAGE(K66:K70),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,9 +3661,11 @@
         <f aca="false">2*I67*J67/(I67+J67)</f>
         <v>87.008117532209</v>
       </c>
-      <c r="L67" s="0" t="str">
+      <c r="L67" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K67), 5)=4,AVERAGE(K67:K71),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,9 +3697,11 @@
         <f aca="false">2*I68*J68/(I68+J68)</f>
         <v>69.6165361892643</v>
       </c>
-      <c r="L68" s="0" t="str">
+      <c r="L68" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K68), 5)=4,AVERAGE(K68:K72),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O68" s="5" t="s">
         <v>82</v>
@@ -3701,9 +3779,11 @@
         <f aca="false">2*I70*J70/(I70+J70)</f>
         <v>90.2650546905878</v>
       </c>
-      <c r="L70" s="0" t="str">
+      <c r="L70" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K70), 5)=4,AVERAGE(K70:K74),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O70" s="0" t="n">
         <v>0</v>
@@ -3802,9 +3882,11 @@
         <f aca="false">2*I71*J71/(I71+J71)</f>
         <v>89.6169686023401</v>
       </c>
-      <c r="L71" s="0" t="str">
+      <c r="L71" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K71), 5)=4,AVERAGE(K71:K75),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O71" s="0" t="n">
         <v>1</v>
@@ -3906,9 +3988,11 @@
         <f aca="false">2*I72*J72/(I72+J72)</f>
         <v>87.8395676417501</v>
       </c>
-      <c r="L72" s="0" t="str">
+      <c r="L72" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K72), 5)=4,AVERAGE(K72:K76),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -3956,9 +4040,11 @@
         <f aca="false">2*I73*J73/(I73+J73)</f>
         <v>76.0380270662755</v>
       </c>
-      <c r="L73" s="0" t="str">
+      <c r="L73" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K73), 5)=4,AVERAGE(K73:K77),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -4010,7 +4096,7 @@
         <f aca="false">IF(MOD(ROW(K74), 5)=4,AVERAGE(K74:K78),"")</f>
         <v>87.6679687952395</v>
       </c>
-      <c r="O74" s="8" t="s">
+      <c r="O74" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P74" s="6"/>
@@ -4059,9 +4145,11 @@
         <f aca="false">2*I75*J75/(I75+J75)</f>
         <v>90.5499982671232</v>
       </c>
-      <c r="L75" s="0" t="str">
+      <c r="L75" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K75), 5)=4,AVERAGE(K75:K79),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O75" s="0" t="n">
         <v>10</v>
@@ -4160,9 +4248,11 @@
         <f aca="false">2*I76*J76/(I76+J76)</f>
         <v>89.9469659544276</v>
       </c>
-      <c r="L76" s="0" t="str">
+      <c r="L76" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K76), 5)=4,AVERAGE(K76:K80),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O76" s="0" t="n">
         <v>15</v>
@@ -4264,9 +4354,11 @@
         <f aca="false">2*I77*J77/(I77+J77)</f>
         <v>88.3095162763259</v>
       </c>
-      <c r="L77" s="0" t="str">
+      <c r="L77" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K77), 5)=4,AVERAGE(K77:K81),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O77" s="0" t="n">
         <v>20</v>
@@ -4365,9 +4457,11 @@
         <f aca="false">2*I78*J78/(I78+J78)</f>
         <v>78.7472087395916</v>
       </c>
-      <c r="L78" s="0" t="str">
+      <c r="L78" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K78), 5)=4,AVERAGE(K78:K82),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
@@ -4465,9 +4559,11 @@
         <f aca="false">2*I80*J80/(I80+J80)</f>
         <v>92.3006601838013</v>
       </c>
-      <c r="L80" s="0" t="str">
+      <c r="L80" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K80), 5)=4,AVERAGE(K80:K84),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O80" s="0" t="s">
         <v>59</v>
@@ -4518,9 +4614,11 @@
         <f aca="false">2*I81*J81/(I81+J81)</f>
         <v>91.5313431331977</v>
       </c>
-      <c r="L81" s="0" t="str">
+      <c r="L81" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K81), 5)=4,AVERAGE(K81:K85),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O81" s="0" t="n">
         <v>35</v>
@@ -4619,9 +4717,11 @@
         <f aca="false">2*I82*J82/(I82+J82)</f>
         <v>88.9884019439951</v>
       </c>
-      <c r="L82" s="0" t="str">
+      <c r="L82" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K82), 5)=4,AVERAGE(K82:K86),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O82" s="0" t="n">
         <v>45</v>
@@ -4723,9 +4823,11 @@
         <f aca="false">2*I83*J83/(I83+J83)</f>
         <v>50.0042403376326</v>
       </c>
-      <c r="L83" s="0" t="str">
+      <c r="L83" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K83), 5)=4,AVERAGE(K83:K87),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O83" s="0" t="n">
         <v>60</v>
@@ -4858,9 +4960,11 @@
         <f aca="false">2*I85*J85/(I85+J85)</f>
         <v>92.5044231326129</v>
       </c>
-      <c r="L85" s="0" t="str">
+      <c r="L85" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K85), 5)=4,AVERAGE(K85:K89),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,9 +4996,11 @@
         <f aca="false">2*I86*J86/(I86+J86)</f>
         <v>91.8319716952214</v>
       </c>
-      <c r="L86" s="0" t="str">
+      <c r="L86" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K86), 5)=4,AVERAGE(K86:K90),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O86" s="0" t="s">
         <v>84</v>
@@ -4902,7 +5008,7 @@
       <c r="R86" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="S86" s="8" t="s">
+      <c r="S86" s="4" t="s">
         <v>77</v>
       </c>
       <c r="T86" s="0" t="s">
@@ -4941,9 +5047,11 @@
         <f aca="false">2*I87*J87/(I87+J87)</f>
         <v>90.177127970494</v>
       </c>
-      <c r="L87" s="0" t="str">
+      <c r="L87" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K87), 5)=4,AVERAGE(K87:K91),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P87" s="0" t="s">
         <v>86</v>
@@ -4990,9 +5098,11 @@
         <f aca="false">2*I88*J88/(I88+J88)</f>
         <v>64.9586160480073</v>
       </c>
-      <c r="L88" s="0" t="str">
+      <c r="L88" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K88), 5)=4,AVERAGE(K88:K92),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="R88" s="0" t="s">
         <v>50</v>
@@ -5073,9 +5183,11 @@
         <f aca="false">2*I90*J90/(I90+J90)</f>
         <v>92.475895919573</v>
       </c>
-      <c r="L90" s="0" t="str">
+      <c r="L90" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K90), 5)=4,AVERAGE(K90:K94),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,9 +5219,11 @@
         <f aca="false">2*I91*J91/(I91+J91)</f>
         <v>91.819639715149</v>
       </c>
-      <c r="L91" s="0" t="str">
+      <c r="L91" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K91), 5)=4,AVERAGE(K91:K95),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,9 +5255,11 @@
         <f aca="false">2*I92*J92/(I92+J92)</f>
         <v>90.3231651702759</v>
       </c>
-      <c r="L92" s="0" t="str">
+      <c r="L92" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K92), 5)=4,AVERAGE(K92:K96),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,9 +5291,11 @@
         <f aca="false">2*I93*J93/(I93+J93)</f>
         <v>77.2840337508593</v>
       </c>
-      <c r="L93" s="0" t="str">
+      <c r="L93" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K93), 5)=4,AVERAGE(K93:K97),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5243,9 +5361,11 @@
         <f aca="false">2*I95*J95/(I95+J95)</f>
         <v>91.4525785409053</v>
       </c>
-      <c r="L95" s="0" t="str">
+      <c r="L95" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K95), 5)=4,AVERAGE(K95:K99),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,9 +5397,11 @@
         <f aca="false">2*I96*J96/(I96+J96)</f>
         <v>90.7445110588417</v>
       </c>
-      <c r="L96" s="0" t="str">
+      <c r="L96" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K96), 5)=4,AVERAGE(K96:K100),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,9 +5433,11 @@
         <f aca="false">2*I97*J97/(I97+J97)</f>
         <v>88.5133943681306</v>
       </c>
-      <c r="L97" s="0" t="str">
+      <c r="L97" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K97), 5)=4,AVERAGE(K97:K101),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,9 +5469,11 @@
         <f aca="false">2*I98*J98/(I98+J98)</f>
         <v>64.2821647208166</v>
       </c>
-      <c r="L98" s="0" t="str">
+      <c r="L98" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K98), 5)=4,AVERAGE(K98:K102),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,9 +5539,11 @@
         <f aca="false">2*I100*J100/(I100+J100)</f>
         <v>91.8341019534272</v>
       </c>
-      <c r="L100" s="0" t="str">
+      <c r="L100" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K100), 5)=4,AVERAGE(K100:K104),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,9 +5575,11 @@
         <f aca="false">2*I101*J101/(I101+J101)</f>
         <v>91.2234041005499</v>
       </c>
-      <c r="L101" s="0" t="str">
+      <c r="L101" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K101), 5)=4,AVERAGE(K101:K105),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,9 +5611,11 @@
         <f aca="false">2*I102*J102/(I102+J102)</f>
         <v>89.4323979129762</v>
       </c>
-      <c r="L102" s="0" t="str">
+      <c r="L102" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K102), 5)=4,AVERAGE(K102:K106),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,9 +5647,11 @@
         <f aca="false">2*I103*J103/(I103+J103)</f>
         <v>73.9108281670003</v>
       </c>
-      <c r="L103" s="0" t="str">
+      <c r="L103" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K103), 5)=4,AVERAGE(K103:K107),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5583,9 +5717,11 @@
         <f aca="false">2*I105*J105/(I105+J105)</f>
         <v>91.9545072704907</v>
       </c>
-      <c r="L105" s="0" t="str">
+      <c r="L105" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K105), 5)=4,AVERAGE(K105:K109),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,9 +5753,11 @@
         <f aca="false">2*I106*J106/(I106+J106)</f>
         <v>91.359680210912</v>
       </c>
-      <c r="L106" s="0" t="str">
+      <c r="L106" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K106), 5)=4,AVERAGE(K106:K110),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,9 +5789,11 @@
         <f aca="false">2*I107*J107/(I107+J107)</f>
         <v>89.7407869484769</v>
       </c>
-      <c r="L107" s="0" t="str">
+      <c r="L107" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K107), 5)=4,AVERAGE(K107:K111),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,9 +5825,11 @@
         <f aca="false">2*I108*J108/(I108+J108)</f>
         <v>79.7066780346968</v>
       </c>
-      <c r="L108" s="0" t="str">
+      <c r="L108" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K108), 5)=4,AVERAGE(K108:K112),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5753,9 +5895,11 @@
         <f aca="false">2*I110*J110/(I110+J110)</f>
         <v>90.9673804551051</v>
       </c>
-      <c r="L110" s="0" t="str">
+      <c r="L110" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K110), 5)=4,AVERAGE(K110:K114),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,9 +5931,11 @@
         <f aca="false">2*I111*J111/(I111+J111)</f>
         <v>90.243991425597</v>
       </c>
-      <c r="L111" s="0" t="str">
+      <c r="L111" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K111), 5)=4,AVERAGE(K111:K115),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,9 +5967,11 @@
         <f aca="false">2*I112*J112/(I112+J112)</f>
         <v>87.9956704329151</v>
       </c>
-      <c r="L112" s="0" t="str">
+      <c r="L112" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K112), 5)=4,AVERAGE(K112:K116),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5855,9 +6003,11 @@
         <f aca="false">2*I113*J113/(I113+J113)</f>
         <v>70.3616378723726</v>
       </c>
-      <c r="L113" s="0" t="str">
+      <c r="L113" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K113), 5)=4,AVERAGE(K113:K117),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,9 +6073,11 @@
         <f aca="false">2*I115*J115/(I115+J115)</f>
         <v>91.163230945275</v>
       </c>
-      <c r="L115" s="0" t="str">
+      <c r="L115" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K115), 5)=4,AVERAGE(K115:K119),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,9 +6109,11 @@
         <f aca="false">2*I116*J116/(I116+J116)</f>
         <v>90.5141686216822</v>
       </c>
-      <c r="L116" s="0" t="str">
+      <c r="L116" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K116), 5)=4,AVERAGE(K116:K120),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,9 +6145,11 @@
         <f aca="false">2*I117*J117/(I117+J117)</f>
         <v>88.6655539129008</v>
       </c>
-      <c r="L117" s="0" t="str">
+      <c r="L117" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K117), 5)=4,AVERAGE(K117:K121),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6025,9 +6181,11 @@
         <f aca="false">2*I118*J118/(I118+J118)</f>
         <v>76.8832089469091</v>
       </c>
-      <c r="L118" s="0" t="str">
+      <c r="L118" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K118), 5)=4,AVERAGE(K118:K122),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,9 +6251,11 @@
         <f aca="false">2*I120*J120/(I120+J120)</f>
         <v>91.4902682257715</v>
       </c>
-      <c r="L120" s="0" t="str">
+      <c r="L120" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K120), 5)=4,AVERAGE(K120:K124),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,9 +6287,11 @@
         <f aca="false">2*I121*J121/(I121+J121)</f>
         <v>90.8521565912331</v>
       </c>
-      <c r="L121" s="0" t="str">
+      <c r="L121" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K121), 5)=4,AVERAGE(K121:K125),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,9 +6323,11 @@
         <f aca="false">2*I122*J122/(I122+J122)</f>
         <v>89.1294089199123</v>
       </c>
-      <c r="L122" s="0" t="str">
+      <c r="L122" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K122), 5)=4,AVERAGE(K122:K126),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,9 +6359,11 @@
         <f aca="false">2*I123*J123/(I123+J123)</f>
         <v>79.8557313537276</v>
       </c>
-      <c r="L123" s="0" t="str">
+      <c r="L123" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K123), 5)=4,AVERAGE(K123:K127),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,9 +6429,11 @@
         <f aca="false">2*I125*J125/(I125+J125)</f>
         <v>88.9838905290437</v>
       </c>
-      <c r="L125" s="0" t="str">
+      <c r="L125" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K125), 5)=4,AVERAGE(K125:K129),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6297,9 +6465,11 @@
         <f aca="false">2*I126*J126/(I126+J126)</f>
         <v>88.6528231062243</v>
       </c>
-      <c r="L126" s="0" t="str">
+      <c r="L126" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K126), 5)=4,AVERAGE(K126:K130),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6331,9 +6501,11 @@
         <f aca="false">2*I127*J127/(I127+J127)</f>
         <v>87.4716149197726</v>
       </c>
-      <c r="L127" s="0" t="str">
+      <c r="L127" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K127), 5)=4,AVERAGE(K127:K131),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,9 +6537,11 @@
         <f aca="false">2*I128*J128/(I128+J128)</f>
         <v>70.1140831629501</v>
       </c>
-      <c r="L128" s="0" t="str">
+      <c r="L128" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K128), 5)=4,AVERAGE(K128:K132),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6433,9 +6607,11 @@
         <f aca="false">2*I130*J130/(I130+J130)</f>
         <v>89.4835267998315</v>
       </c>
-      <c r="L130" s="0" t="str">
+      <c r="L130" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K130), 5)=4,AVERAGE(K130:K134),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,9 +6643,11 @@
         <f aca="false">2*I131*J131/(I131+J131)</f>
         <v>89.1755171424711</v>
       </c>
-      <c r="L131" s="0" t="str">
+      <c r="L131" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K131), 5)=4,AVERAGE(K131:K135),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6501,9 +6679,11 @@
         <f aca="false">2*I132*J132/(I132+J132)</f>
         <v>88.1459046143357</v>
       </c>
-      <c r="L132" s="0" t="str">
+      <c r="L132" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K132), 5)=4,AVERAGE(K132:K136),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,9 +6715,11 @@
         <f aca="false">2*I133*J133/(I133+J133)</f>
         <v>80.253376194345</v>
       </c>
-      <c r="L133" s="0" t="str">
+      <c r="L133" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K133), 5)=4,AVERAGE(K133:K137),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,9 +6785,11 @@
         <f aca="false">2*I135*J135/(I135+J135)</f>
         <v>89.7618110916273</v>
       </c>
-      <c r="L135" s="0" t="str">
+      <c r="L135" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K135), 5)=4,AVERAGE(K135:K139),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,9 +6821,11 @@
         <f aca="false">2*I136*J136/(I136+J136)</f>
         <v>89.4418444773609</v>
       </c>
-      <c r="L136" s="0" t="str">
+      <c r="L136" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K136), 5)=4,AVERAGE(K136:K140),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,9 +6857,11 @@
         <f aca="false">2*I137*J137/(I137+J137)</f>
         <v>88.4369053417173</v>
       </c>
-      <c r="L137" s="0" t="str">
+      <c r="L137" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K137), 5)=4,AVERAGE(K137:K141),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,9 +6893,11 @@
         <f aca="false">2*I138*J138/(I138+J138)</f>
         <v>84.7671158100804</v>
       </c>
-      <c r="L138" s="0" t="str">
+      <c r="L138" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K138), 5)=4,AVERAGE(K138:K142),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,9 +6963,11 @@
         <f aca="false">2*I140*J140/(I140+J140)</f>
         <v>88.11791463249</v>
       </c>
-      <c r="L140" s="0" t="str">
+      <c r="L140" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K140), 5)=4,AVERAGE(K140:K144),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,9 +6999,11 @@
         <f aca="false">2*I141*J141/(I141+J141)</f>
         <v>87.766849064035</v>
       </c>
-      <c r="L141" s="0" t="str">
+      <c r="L141" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K141), 5)=4,AVERAGE(K141:K145),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,9 +7035,11 @@
         <f aca="false">2*I142*J142/(I142+J142)</f>
         <v>86.5248800785665</v>
       </c>
-      <c r="L142" s="0" t="str">
+      <c r="L142" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K142), 5)=4,AVERAGE(K142:K146),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6875,9 +7071,11 @@
         <f aca="false">2*I143*J143/(I143+J143)</f>
         <v>78.0701559431929</v>
       </c>
-      <c r="L143" s="0" t="str">
+      <c r="L143" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K143), 5)=4,AVERAGE(K143:K147),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,9 +7141,11 @@
         <f aca="false">2*I145*J145/(I145+J145)</f>
         <v>88.6428704964565</v>
       </c>
-      <c r="L145" s="0" t="str">
+      <c r="L145" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K145), 5)=4,AVERAGE(K145:K149),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,9 +7177,11 @@
         <f aca="false">2*I146*J146/(I146+J146)</f>
         <v>88.3399783733447</v>
       </c>
-      <c r="L146" s="0" t="str">
+      <c r="L146" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K146), 5)=4,AVERAGE(K146:K150),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,9 +7213,11 @@
         <f aca="false">2*I147*J147/(I147+J147)</f>
         <v>87.2341559551816</v>
       </c>
-      <c r="L147" s="0" t="str">
+      <c r="L147" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K147), 5)=4,AVERAGE(K147:K151),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,9 +7249,11 @@
         <f aca="false">2*I148*J148/(I148+J148)</f>
         <v>82.5538072104136</v>
       </c>
-      <c r="L148" s="0" t="str">
+      <c r="L148" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K148), 5)=4,AVERAGE(K148:K152),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,9 +7319,11 @@
         <f aca="false">2*I150*J150/(I150+J150)</f>
         <v>88.9964279974146</v>
       </c>
-      <c r="L150" s="0" t="str">
+      <c r="L150" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K150), 5)=4,AVERAGE(K150:K154),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,9 +7355,11 @@
         <f aca="false">2*I151*J151/(I151+J151)</f>
         <v>88.6860830047125</v>
       </c>
-      <c r="L151" s="0" t="str">
+      <c r="L151" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K151), 5)=4,AVERAGE(K151:K155),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,9 +7391,11 @@
         <f aca="false">2*I152*J152/(I152+J152)</f>
         <v>87.6253588487415</v>
       </c>
-      <c r="L152" s="0" t="str">
+      <c r="L152" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K152), 5)=4,AVERAGE(K152:K156),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,9 +7427,11 @@
         <f aca="false">2*I153*J153/(I153+J153)</f>
         <v>84.164583478811</v>
       </c>
-      <c r="L153" s="0" t="str">
+      <c r="L153" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K153), 5)=4,AVERAGE(K153:K157),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7283,9 +7497,11 @@
         <f aca="false">2*I155*J155/(I155+J155)</f>
         <v>87.552115945206</v>
       </c>
-      <c r="L155" s="0" t="str">
+      <c r="L155" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K155), 5)=4,AVERAGE(K155:K159),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7317,9 +7533,11 @@
         <f aca="false">2*I156*J156/(I156+J156)</f>
         <v>87.1695681482327</v>
       </c>
-      <c r="L156" s="0" t="str">
+      <c r="L156" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K156), 5)=4,AVERAGE(K156:K160),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,9 +7569,11 @@
         <f aca="false">2*I157*J157/(I157+J157)</f>
         <v>85.942770633137</v>
       </c>
-      <c r="L157" s="0" t="str">
+      <c r="L157" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K157), 5)=4,AVERAGE(K157:K161),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7385,9 +7605,11 @@
         <f aca="false">2*I158*J158/(I158+J158)</f>
         <v>80.336487560374</v>
       </c>
-      <c r="L158" s="0" t="str">
+      <c r="L158" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K158), 5)=4,AVERAGE(K158:K162),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,9 +7675,11 @@
         <f aca="false">2*I160*J160/(I160+J160)</f>
         <v>88.0739083227789</v>
       </c>
-      <c r="L160" s="0" t="str">
+      <c r="L160" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K160), 5)=4,AVERAGE(K160:K164),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,9 +7711,11 @@
         <f aca="false">2*I161*J161/(I161+J161)</f>
         <v>87.7226461749026</v>
       </c>
-      <c r="L161" s="0" t="str">
+      <c r="L161" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K161), 5)=4,AVERAGE(K161:K165),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,9 +7747,11 @@
         <f aca="false">2*I162*J162/(I162+J162)</f>
         <v>86.6151916591839</v>
       </c>
-      <c r="L162" s="0" t="str">
+      <c r="L162" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K162), 5)=4,AVERAGE(K162:K166),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,9 +7783,11 @@
         <f aca="false">2*I163*J163/(I163+J163)</f>
         <v>82.8112322461822</v>
       </c>
-      <c r="L163" s="0" t="str">
+      <c r="L163" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K163), 5)=4,AVERAGE(K163:K167),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7623,9 +7853,11 @@
         <f aca="false">2*I165*J165/(I165+J165)</f>
         <v>88.5023846519796</v>
       </c>
-      <c r="L165" s="0" t="str">
+      <c r="L165" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K165), 5)=4,AVERAGE(K165:K169),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7657,9 +7889,11 @@
         <f aca="false">2*I166*J166/(I166+J166)</f>
         <v>88.1444705673797</v>
       </c>
-      <c r="L166" s="0" t="str">
+      <c r="L166" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K166), 5)=4,AVERAGE(K166:K170),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7691,9 +7925,11 @@
         <f aca="false">2*I167*J167/(I167+J167)</f>
         <v>87.0760053772471</v>
       </c>
-      <c r="L167" s="0" t="str">
+      <c r="L167" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K167), 5)=4,AVERAGE(K167:K171),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7725,9 +7961,11 @@
         <f aca="false">2*I168*J168/(I168+J168)</f>
         <v>83.7570344995968</v>
       </c>
-      <c r="L168" s="0" t="str">
+      <c r="L168" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K168), 5)=4,AVERAGE(K168:K172),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7793,9 +8031,11 @@
         <f aca="false">2*I170*J170/(I170+J170)</f>
         <v>89.6116040782189</v>
       </c>
-      <c r="L170" s="0" t="str">
+      <c r="L170" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K170), 5)=4,AVERAGE(K170:K174),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7827,9 +8067,11 @@
         <f aca="false">2*I171*J171/(I171+J171)</f>
         <v>89.2851752765185</v>
       </c>
-      <c r="L171" s="0" t="str">
+      <c r="L171" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K171), 5)=4,AVERAGE(K171:K175),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,9 +8103,11 @@
         <f aca="false">2*I172*J172/(I172+J172)</f>
         <v>88.0437972838281</v>
       </c>
-      <c r="L172" s="0" t="str">
+      <c r="L172" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K172), 5)=4,AVERAGE(K172:K176),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,9 +8139,11 @@
         <f aca="false">2*I173*J173/(I173+J173)</f>
         <v>71.7119738620947</v>
       </c>
-      <c r="L173" s="0" t="str">
+      <c r="L173" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K173), 5)=4,AVERAGE(K173:K177),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,9 +8209,11 @@
         <f aca="false">2*I175*J175/(I175+J175)</f>
         <v>90.0350383905873</v>
       </c>
-      <c r="L175" s="0" t="str">
+      <c r="L175" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K175), 5)=4,AVERAGE(K175:K179),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,9 +8245,11 @@
         <f aca="false">2*I176*J176/(I176+J176)</f>
         <v>89.7244445067324</v>
       </c>
-      <c r="L176" s="0" t="str">
+      <c r="L176" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K176), 5)=4,AVERAGE(K176:K180),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8031,9 +8281,11 @@
         <f aca="false">2*I177*J177/(I177+J177)</f>
         <v>88.6775362986159</v>
       </c>
-      <c r="L177" s="0" t="str">
+      <c r="L177" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K177), 5)=4,AVERAGE(K177:K181),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8065,9 +8317,11 @@
         <f aca="false">2*I178*J178/(I178+J178)</f>
         <v>81.1944572691037</v>
       </c>
-      <c r="L178" s="0" t="str">
+      <c r="L178" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K178), 5)=4,AVERAGE(K178:K182),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8133,9 +8387,11 @@
         <f aca="false">2*I180*J180/(I180+J180)</f>
         <v>90.3430235378655</v>
       </c>
-      <c r="L180" s="0" t="str">
+      <c r="L180" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K180), 5)=4,AVERAGE(K180:K184),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8167,9 +8423,11 @@
         <f aca="false">2*I181*J181/(I181+J181)</f>
         <v>90.0215158175735</v>
       </c>
-      <c r="L181" s="0" t="str">
+      <c r="L181" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K181), 5)=4,AVERAGE(K181:K185),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8201,9 +8459,11 @@
         <f aca="false">2*I182*J182/(I182+J182)</f>
         <v>88.9912123989427</v>
       </c>
-      <c r="L182" s="0" t="str">
+      <c r="L182" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K182), 5)=4,AVERAGE(K182:K186),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,9 +8495,11 @@
         <f aca="false">2*I183*J183/(I183+J183)</f>
         <v>85.3163606882359</v>
       </c>
-      <c r="L183" s="0" t="str">
+      <c r="L183" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K183), 5)=4,AVERAGE(K183:K187),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8303,9 +8565,11 @@
         <f aca="false">2*I185*J185/(I185+J185)</f>
         <v>88.9345730026334</v>
       </c>
-      <c r="L185" s="0" t="str">
+      <c r="L185" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K185), 5)=4,AVERAGE(K185:K189),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8337,9 +8601,11 @@
         <f aca="false">2*I186*J186/(I186+J186)</f>
         <v>88.5822113198346</v>
       </c>
-      <c r="L186" s="0" t="str">
+      <c r="L186" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K186), 5)=4,AVERAGE(K186:K190),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8371,9 +8637,11 @@
         <f aca="false">2*I187*J187/(I187+J187)</f>
         <v>87.2955635569742</v>
       </c>
-      <c r="L187" s="0" t="str">
+      <c r="L187" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K187), 5)=4,AVERAGE(K187:K191),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,9 +8673,11 @@
         <f aca="false">2*I188*J188/(I188+J188)</f>
         <v>78.5389720531323</v>
       </c>
-      <c r="L188" s="0" t="str">
+      <c r="L188" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K188), 5)=4,AVERAGE(K188:K192),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8473,9 +8743,11 @@
         <f aca="false">2*I190*J190/(I190+J190)</f>
         <v>89.4912333802407</v>
       </c>
-      <c r="L190" s="0" t="str">
+      <c r="L190" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K190), 5)=4,AVERAGE(K190:K194),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8507,9 +8779,11 @@
         <f aca="false">2*I191*J191/(I191+J191)</f>
         <v>89.1656974890072</v>
       </c>
-      <c r="L191" s="0" t="str">
+      <c r="L191" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K191), 5)=4,AVERAGE(K191:K195),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,9 +8815,11 @@
         <f aca="false">2*I192*J192/(I192+J192)</f>
         <v>88.033544339434</v>
       </c>
-      <c r="L192" s="0" t="str">
+      <c r="L192" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K192), 5)=4,AVERAGE(K192:K196),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8575,9 +8851,11 @@
         <f aca="false">2*I193*J193/(I193+J193)</f>
         <v>83.082751652829</v>
       </c>
-      <c r="L193" s="0" t="str">
+      <c r="L193" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K193), 5)=4,AVERAGE(K193:K197),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8643,9 +8921,11 @@
         <f aca="false">2*I195*J195/(I195+J195)</f>
         <v>89.8647112144341</v>
       </c>
-      <c r="L195" s="0" t="str">
+      <c r="L195" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K195), 5)=4,AVERAGE(K195:K199),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8677,9 +8957,11 @@
         <f aca="false">2*I196*J196/(I196+J196)</f>
         <v>89.5376156386047</v>
       </c>
-      <c r="L196" s="0" t="str">
+      <c r="L196" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K196), 5)=4,AVERAGE(K196:K200),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8711,9 +8993,11 @@
         <f aca="false">2*I197*J197/(I197+J197)</f>
         <v>88.4353111128069</v>
       </c>
-      <c r="L197" s="0" t="str">
+      <c r="L197" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K197), 5)=4,AVERAGE(K197:K201),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8745,9 +9029,11 @@
         <f aca="false">2*I198*J198/(I198+J198)</f>
         <v>84.8258485372618</v>
       </c>
-      <c r="L198" s="0" t="str">
+      <c r="L198" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K198), 5)=4,AVERAGE(K198:K202),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8813,9 +9099,11 @@
         <f aca="false">2*I200*J200/(I200+J200)</f>
         <v>88.5017953672809</v>
       </c>
-      <c r="L200" s="0" t="str">
+      <c r="L200" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K200), 5)=4,AVERAGE(K200:K204),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8847,9 +9135,11 @@
         <f aca="false">2*I201*J201/(I201+J201)</f>
         <v>88.1214192560381</v>
       </c>
-      <c r="L201" s="0" t="str">
+      <c r="L201" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K201), 5)=4,AVERAGE(K201:K205),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8881,9 +9171,11 @@
         <f aca="false">2*I202*J202/(I202+J202)</f>
         <v>86.8303876225621</v>
       </c>
-      <c r="L202" s="0" t="str">
+      <c r="L202" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K202), 5)=4,AVERAGE(K202:K206),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8915,9 +9207,11 @@
         <f aca="false">2*I203*J203/(I203+J203)</f>
         <v>80.6604556982111</v>
       </c>
-      <c r="L203" s="0" t="str">
+      <c r="L203" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K203), 5)=4,AVERAGE(K203:K207),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8983,9 +9277,11 @@
         <f aca="false">2*I205*J205/(I205+J205)</f>
         <v>88.8971157411589</v>
       </c>
-      <c r="L205" s="0" t="str">
+      <c r="L205" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K205), 5)=4,AVERAGE(K205:K209),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9017,9 +9313,11 @@
         <f aca="false">2*I206*J206/(I206+J206)</f>
         <v>88.5353204021269</v>
       </c>
-      <c r="L206" s="0" t="str">
+      <c r="L206" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K206), 5)=4,AVERAGE(K206:K210),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9051,9 +9349,11 @@
         <f aca="false">2*I207*J207/(I207+J207)</f>
         <v>87.3706665000206</v>
       </c>
-      <c r="L207" s="0" t="str">
+      <c r="L207" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K207), 5)=4,AVERAGE(K207:K211),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9085,9 +9385,11 @@
         <f aca="false">2*I208*J208/(I208+J208)</f>
         <v>83.1899436028799</v>
       </c>
-      <c r="L208" s="0" t="str">
+      <c r="L208" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K208), 5)=4,AVERAGE(K208:K212),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9153,9 +9455,11 @@
         <f aca="false">2*I210*J210/(I210+J210)</f>
         <v>89.4177105310209</v>
       </c>
-      <c r="L210" s="0" t="str">
+      <c r="L210" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K210), 5)=4,AVERAGE(K210:K214),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9187,9 +9491,11 @@
         <f aca="false">2*I211*J211/(I211+J211)</f>
         <v>89.0444006280619</v>
       </c>
-      <c r="L211" s="0" t="str">
+      <c r="L211" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K211), 5)=4,AVERAGE(K211:K215),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9221,9 +9527,11 @@
         <f aca="false">2*I212*J212/(I212+J212)</f>
         <v>87.9085483102418</v>
       </c>
-      <c r="L212" s="0" t="str">
+      <c r="L212" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K212), 5)=4,AVERAGE(K212:K216),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9255,9 +9563,11 @@
         <f aca="false">2*I213*J213/(I213+J213)</f>
         <v>84.3646850384677</v>
       </c>
-      <c r="L213" s="0" t="str">
+      <c r="L213" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K213), 5)=4,AVERAGE(K213:K217),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9323,9 +9633,11 @@
         <f aca="false">2*I215*J215/(I215+J215)</f>
         <v>86.7388453571665</v>
       </c>
-      <c r="L215" s="0" t="str">
+      <c r="L215" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K215), 5)=4,AVERAGE(K215:K219),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,9 +9669,11 @@
         <f aca="false">2*I216*J216/(I216+J216)</f>
         <v>86.5467116001916</v>
       </c>
-      <c r="L216" s="0" t="str">
+      <c r="L216" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K216), 5)=4,AVERAGE(K216:K220),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,9 +9705,11 @@
         <f aca="false">2*I217*J217/(I217+J217)</f>
         <v>85.7552303184581</v>
       </c>
-      <c r="L217" s="0" t="str">
+      <c r="L217" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K217), 5)=4,AVERAGE(K217:K221),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9425,9 +9741,11 @@
         <f aca="false">2*I218*J218/(I218+J218)</f>
         <v>76.6109903348099</v>
       </c>
-      <c r="L218" s="0" t="str">
+      <c r="L218" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K218), 5)=4,AVERAGE(K218:K222),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9493,9 +9811,11 @@
         <f aca="false">2*I220*J220/(I220+J220)</f>
         <v>87.3115376773925</v>
       </c>
-      <c r="L220" s="0" t="str">
+      <c r="L220" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K220), 5)=4,AVERAGE(K220:K224),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9527,9 +9847,11 @@
         <f aca="false">2*I221*J221/(I221+J221)</f>
         <v>87.1347617080781</v>
       </c>
-      <c r="L221" s="0" t="str">
+      <c r="L221" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K221), 5)=4,AVERAGE(K221:K225),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9561,9 +9883,11 @@
         <f aca="false">2*I222*J222/(I222+J222)</f>
         <v>86.4240456227173</v>
       </c>
-      <c r="L222" s="0" t="str">
+      <c r="L222" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K222), 5)=4,AVERAGE(K222:K226),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9595,9 +9919,11 @@
         <f aca="false">2*I223*J223/(I223+J223)</f>
         <v>82.5708779547585</v>
       </c>
-      <c r="L223" s="0" t="str">
+      <c r="L223" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K223), 5)=4,AVERAGE(K223:K227),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9663,9 +9989,11 @@
         <f aca="false">2*I225*J225/(I225+J225)</f>
         <v>87.8558720061785</v>
       </c>
-      <c r="L225" s="0" t="str">
+      <c r="L225" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K225), 5)=4,AVERAGE(K225:K229),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9697,9 +10025,11 @@
         <f aca="false">2*I226*J226/(I226+J226)</f>
         <v>87.6763513141052</v>
       </c>
-      <c r="L226" s="0" t="str">
+      <c r="L226" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K226), 5)=4,AVERAGE(K226:K230),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9731,9 +10061,11 @@
         <f aca="false">2*I227*J227/(I227+J227)</f>
         <v>86.9639251044914</v>
       </c>
-      <c r="L227" s="0" t="str">
+      <c r="L227" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K227), 5)=4,AVERAGE(K227:K231),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9765,9 +10097,11 @@
         <f aca="false">2*I228*J228/(I228+J228)</f>
         <v>84.5999479959244</v>
       </c>
-      <c r="L228" s="0" t="str">
+      <c r="L228" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K228), 5)=4,AVERAGE(K228:K232),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9833,9 +10167,11 @@
         <f aca="false">2*I230*J230/(I230+J230)</f>
         <v>85.9786245773459</v>
       </c>
-      <c r="L230" s="0" t="str">
+      <c r="L230" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K230), 5)=4,AVERAGE(K230:K234),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9867,9 +10203,11 @@
         <f aca="false">2*I231*J231/(I231+J231)</f>
         <v>85.7600442764949</v>
       </c>
-      <c r="L231" s="0" t="str">
+      <c r="L231" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K231), 5)=4,AVERAGE(K231:K235),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9901,9 +10239,11 @@
         <f aca="false">2*I232*J232/(I232+J232)</f>
         <v>84.9046447090416</v>
       </c>
-      <c r="L232" s="0" t="str">
+      <c r="L232" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K232), 5)=4,AVERAGE(K232:K236),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9935,9 +10275,11 @@
         <f aca="false">2*I233*J233/(I233+J233)</f>
         <v>80.2951099495961</v>
       </c>
-      <c r="L233" s="0" t="str">
+      <c r="L233" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K233), 5)=4,AVERAGE(K233:K237),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10003,9 +10345,11 @@
         <f aca="false">2*I235*J235/(I235+J235)</f>
         <v>86.6110004927149</v>
       </c>
-      <c r="L235" s="0" t="str">
+      <c r="L235" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K235), 5)=4,AVERAGE(K235:K239),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10037,9 +10381,11 @@
         <f aca="false">2*I236*J236/(I236+J236)</f>
         <v>86.4132141533593</v>
       </c>
-      <c r="L236" s="0" t="str">
+      <c r="L236" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K236), 5)=4,AVERAGE(K236:K240),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10071,9 +10417,11 @@
         <f aca="false">2*I237*J237/(I237+J237)</f>
         <v>85.629254068885</v>
       </c>
-      <c r="L237" s="0" t="str">
+      <c r="L237" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K237), 5)=4,AVERAGE(K237:K241),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,9 +10453,11 @@
         <f aca="false">2*I238*J238/(I238+J238)</f>
         <v>82.7785822285438</v>
       </c>
-      <c r="L238" s="0" t="str">
+      <c r="L238" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K238), 5)=4,AVERAGE(K238:K242),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10173,9 +10523,11 @@
         <f aca="false">2*I240*J240/(I240+J240)</f>
         <v>87.0996710553237</v>
       </c>
-      <c r="L240" s="0" t="str">
+      <c r="L240" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K240), 5)=4,AVERAGE(K240:K244),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10207,9 +10559,11 @@
         <f aca="false">2*I241*J241/(I241+J241)</f>
         <v>86.8904880836</v>
       </c>
-      <c r="L241" s="0" t="str">
+      <c r="L241" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K241), 5)=4,AVERAGE(K241:K245),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10241,9 +10595,11 @@
         <f aca="false">2*I242*J242/(I242+J242)</f>
         <v>86.1116205101315</v>
       </c>
-      <c r="L242" s="0" t="str">
+      <c r="L242" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K242), 5)=4,AVERAGE(K242:K246),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10275,9 +10631,11 @@
         <f aca="false">2*I243*J243/(I243+J243)</f>
         <v>83.6541771487819</v>
       </c>
-      <c r="L243" s="0" t="str">
+      <c r="L243" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K243), 5)=4,AVERAGE(K243:K247),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10343,9 +10701,11 @@
         <f aca="false">2*I245*J245/(I245+J245)</f>
         <v>85.4506513789532</v>
       </c>
-      <c r="L245" s="0" t="str">
+      <c r="L245" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K245), 5)=4,AVERAGE(K245:K249),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10377,9 +10737,11 @@
         <f aca="false">2*I246*J246/(I246+J246)</f>
         <v>85.2414757846185</v>
       </c>
-      <c r="L246" s="0" t="str">
+      <c r="L246" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K246), 5)=4,AVERAGE(K246:K250),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10411,9 +10773,11 @@
         <f aca="false">2*I247*J247/(I247+J247)</f>
         <v>84.3849725301236</v>
       </c>
-      <c r="L247" s="0" t="str">
+      <c r="L247" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K247), 5)=4,AVERAGE(K247:K251),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10445,9 +10809,11 @@
         <f aca="false">2*I248*J248/(I248+J248)</f>
         <v>80.9988037224978</v>
       </c>
-      <c r="L248" s="0" t="str">
+      <c r="L248" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K248), 5)=4,AVERAGE(K248:K252),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10513,9 +10879,11 @@
         <f aca="false">2*I250*J250/(I250+J250)</f>
         <v>86.068764513791</v>
       </c>
-      <c r="L250" s="0" t="str">
+      <c r="L250" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K250), 5)=4,AVERAGE(K250:K254),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10547,9 +10915,11 @@
         <f aca="false">2*I251*J251/(I251+J251)</f>
         <v>85.8746574984061</v>
       </c>
-      <c r="L251" s="0" t="str">
+      <c r="L251" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K251), 5)=4,AVERAGE(K251:K255),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10581,9 +10951,11 @@
         <f aca="false">2*I252*J252/(I252+J252)</f>
         <v>85.0758605431968</v>
       </c>
-      <c r="L252" s="0" t="str">
+      <c r="L252" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K252), 5)=4,AVERAGE(K252:K256),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10615,9 +10987,11 @@
         <f aca="false">2*I253*J253/(I253+J253)</f>
         <v>82.4485362174966</v>
       </c>
-      <c r="L253" s="0" t="str">
+      <c r="L253" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K253), 5)=4,AVERAGE(K253:K257),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10683,9 +11057,11 @@
         <f aca="false">2*I255*J255/(I255+J255)</f>
         <v>86.6064424336919</v>
       </c>
-      <c r="L255" s="0" t="str">
+      <c r="L255" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K255), 5)=4,AVERAGE(K255:K259),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10717,9 +11093,11 @@
         <f aca="false">2*I256*J256/(I256+J256)</f>
         <v>86.4128906700371</v>
       </c>
-      <c r="L256" s="0" t="str">
+      <c r="L256" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K256), 5)=4,AVERAGE(K256:K260),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10751,9 +11129,11 @@
         <f aca="false">2*I257*J257/(I257+J257)</f>
         <v>85.6311134672575</v>
       </c>
-      <c r="L257" s="0" t="str">
+      <c r="L257" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K257), 5)=4,AVERAGE(K257:K261),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10785,9 +11165,11 @@
         <f aca="false">2*I258*J258/(I258+J258)</f>
         <v>83.211839052818</v>
       </c>
-      <c r="L258" s="0" t="str">
+      <c r="L258" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K258), 5)=4,AVERAGE(K258:K262),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10853,9 +11235,11 @@
         <f aca="false">2*I260*J260/(I260+J260)</f>
         <v>87.20327562769</v>
       </c>
-      <c r="L260" s="0" t="str">
+      <c r="L260" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K260), 5)=4,AVERAGE(K260:K264),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10887,9 +11271,11 @@
         <f aca="false">2*I261*J261/(I261+J261)</f>
         <v>87.008349257527</v>
       </c>
-      <c r="L261" s="0" t="str">
+      <c r="L261" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K261), 5)=4,AVERAGE(K261:K265),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10921,9 +11307,11 @@
         <f aca="false">2*I262*J262/(I262+J262)</f>
         <v>86.1764525989712</v>
       </c>
-      <c r="L262" s="0" t="str">
+      <c r="L262" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K262), 5)=4,AVERAGE(K262:K266),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10955,9 +11343,11 @@
         <f aca="false">2*I263*J263/(I263+J263)</f>
         <v>77.3418556320337</v>
       </c>
-      <c r="L263" s="0" t="str">
+      <c r="L263" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K263), 5)=4,AVERAGE(K263:K267),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11023,9 +11413,11 @@
         <f aca="false">2*I265*J265/(I265+J265)</f>
         <v>87.7610258383155</v>
       </c>
-      <c r="L265" s="0" t="str">
+      <c r="L265" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K265), 5)=4,AVERAGE(K265:K269),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11057,9 +11449,11 @@
         <f aca="false">2*I266*J266/(I266+J266)</f>
         <v>87.5767253158934</v>
       </c>
-      <c r="L266" s="0" t="str">
+      <c r="L266" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K266), 5)=4,AVERAGE(K266:K270),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,9 +11485,11 @@
         <f aca="false">2*I267*J267/(I267+J267)</f>
         <v>86.8363337638282</v>
       </c>
-      <c r="L267" s="0" t="str">
+      <c r="L267" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K267), 5)=4,AVERAGE(K267:K271),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11125,9 +11521,11 @@
         <f aca="false">2*I268*J268/(I268+J268)</f>
         <v>82.9258632060356</v>
       </c>
-      <c r="L268" s="0" t="str">
+      <c r="L268" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K268), 5)=4,AVERAGE(K268:K272),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11193,9 +11591,11 @@
         <f aca="false">2*I270*J270/(I270+J270)</f>
         <v>88.2466453576416</v>
       </c>
-      <c r="L270" s="0" t="str">
+      <c r="L270" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K270), 5)=4,AVERAGE(K270:K274),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11227,9 +11627,11 @@
         <f aca="false">2*I271*J271/(I271+J271)</f>
         <v>88.0547189709888</v>
       </c>
-      <c r="L271" s="0" t="str">
+      <c r="L271" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K271), 5)=4,AVERAGE(K271:K275),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11261,9 +11663,11 @@
         <f aca="false">2*I272*J272/(I272+J272)</f>
         <v>87.337448670913</v>
       </c>
-      <c r="L272" s="0" t="str">
+      <c r="L272" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K272), 5)=4,AVERAGE(K272:K276),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11295,9 +11699,11 @@
         <f aca="false">2*I273*J273/(I273+J273)</f>
         <v>84.8757218745048</v>
       </c>
-      <c r="L273" s="0" t="str">
+      <c r="L273" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K273), 5)=4,AVERAGE(K273:K277),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11363,9 +11769,11 @@
         <f aca="false">2*I275*J275/(I275+J275)</f>
         <v>86.6178401832388</v>
       </c>
-      <c r="L275" s="0" t="str">
+      <c r="L275" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K275), 5)=4,AVERAGE(K275:K279),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11397,9 +11805,11 @@
         <f aca="false">2*I276*J276/(I276+J276)</f>
         <v>86.4002133992872</v>
       </c>
-      <c r="L276" s="0" t="str">
+      <c r="L276" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K276), 5)=4,AVERAGE(K276:K280),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11431,9 +11841,11 @@
         <f aca="false">2*I277*J277/(I277+J277)</f>
         <v>85.4858004539019</v>
       </c>
-      <c r="L277" s="0" t="str">
+      <c r="L277" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K277), 5)=4,AVERAGE(K277:K281),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11465,9 +11877,11 @@
         <f aca="false">2*I278*J278/(I278+J278)</f>
         <v>80.5225905137029</v>
       </c>
-      <c r="L278" s="0" t="str">
+      <c r="L278" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K278), 5)=4,AVERAGE(K278:K282),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11533,9 +11947,11 @@
         <f aca="false">2*I280*J280/(I280+J280)</f>
         <v>87.2320785301137</v>
       </c>
-      <c r="L280" s="0" t="str">
+      <c r="L280" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K280), 5)=4,AVERAGE(K280:K284),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11567,9 +11983,11 @@
         <f aca="false">2*I281*J281/(I281+J281)</f>
         <v>87.0220333348271</v>
       </c>
-      <c r="L281" s="0" t="str">
+      <c r="L281" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K281), 5)=4,AVERAGE(K281:K285),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11601,9 +12019,11 @@
         <f aca="false">2*I282*J282/(I282+J282)</f>
         <v>86.212099999536</v>
       </c>
-      <c r="L282" s="0" t="str">
+      <c r="L282" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K282), 5)=4,AVERAGE(K282:K286),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11635,9 +12055,11 @@
         <f aca="false">2*I283*J283/(I283+J283)</f>
         <v>83.1053435648279</v>
       </c>
-      <c r="L283" s="0" t="str">
+      <c r="L283" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K283), 5)=4,AVERAGE(K283:K287),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11703,9 +12125,11 @@
         <f aca="false">2*I285*J285/(I285+J285)</f>
         <v>87.7533129540848</v>
       </c>
-      <c r="L285" s="0" t="str">
+      <c r="L285" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K285), 5)=4,AVERAGE(K285:K289),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11737,9 +12161,11 @@
         <f aca="false">2*I286*J286/(I286+J286)</f>
         <v>87.5323581099789</v>
       </c>
-      <c r="L286" s="0" t="str">
+      <c r="L286" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K286), 5)=4,AVERAGE(K286:K290),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11771,9 +12197,11 @@
         <f aca="false">2*I287*J287/(I287+J287)</f>
         <v>86.7237268692795</v>
       </c>
-      <c r="L287" s="0" t="str">
+      <c r="L287" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K287), 5)=4,AVERAGE(K287:K291),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,9 +12233,11 @@
         <f aca="false">2*I288*J288/(I288+J288)</f>
         <v>84.1008700489706</v>
       </c>
-      <c r="L288" s="0" t="str">
+      <c r="L288" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K288), 5)=4,AVERAGE(K288:K292),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11873,9 +12303,11 @@
         <f aca="false">2*I290*J290/(I290+J290)</f>
         <v>86.2445429009551</v>
       </c>
-      <c r="L290" s="0" t="str">
+      <c r="L290" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K290), 5)=4,AVERAGE(K290:K294),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11907,9 +12339,11 @@
         <f aca="false">2*I291*J291/(I291+J291)</f>
         <v>86.0419750182759</v>
       </c>
-      <c r="L291" s="0" t="str">
+      <c r="L291" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K291), 5)=4,AVERAGE(K291:K295),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11941,9 +12375,11 @@
         <f aca="false">2*I292*J292/(I292+J292)</f>
         <v>85.1228172681984</v>
       </c>
-      <c r="L292" s="0" t="str">
+      <c r="L292" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K292), 5)=4,AVERAGE(K292:K296),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11975,9 +12411,11 @@
         <f aca="false">2*I293*J293/(I293+J293)</f>
         <v>81.2914723174469</v>
       </c>
-      <c r="L293" s="0" t="str">
+      <c r="L293" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K293), 5)=4,AVERAGE(K293:K297),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12043,9 +12481,11 @@
         <f aca="false">2*I295*J295/(I295+J295)</f>
         <v>86.7433797031238</v>
       </c>
-      <c r="L295" s="0" t="str">
+      <c r="L295" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K295), 5)=4,AVERAGE(K295:K299),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12077,9 +12517,11 @@
         <f aca="false">2*I296*J296/(I296+J296)</f>
         <v>86.5386496393588</v>
       </c>
-      <c r="L296" s="0" t="str">
+      <c r="L296" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K296), 5)=4,AVERAGE(K296:K300),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12111,9 +12553,11 @@
         <f aca="false">2*I297*J297/(I297+J297)</f>
         <v>85.6888628797794</v>
       </c>
-      <c r="L297" s="0" t="str">
+      <c r="L297" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K297), 5)=4,AVERAGE(K297:K301),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12145,9 +12589,11 @@
         <f aca="false">2*I298*J298/(I298+J298)</f>
         <v>82.7498577328953</v>
       </c>
-      <c r="L298" s="0" t="str">
+      <c r="L298" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K298), 5)=4,AVERAGE(K298:K302),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12213,9 +12659,11 @@
         <f aca="false">2*I300*J300/(I300+J300)</f>
         <v>87.293716784565</v>
       </c>
-      <c r="L300" s="0" t="str">
+      <c r="L300" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K300), 5)=4,AVERAGE(K300:K304),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12247,9 +12695,11 @@
         <f aca="false">2*I301*J301/(I301+J301)</f>
         <v>87.0904310342948</v>
       </c>
-      <c r="L301" s="0" t="str">
+      <c r="L301" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K301), 5)=4,AVERAGE(K301:K305),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12281,9 +12731,11 @@
         <f aca="false">2*I302*J302/(I302+J302)</f>
         <v>86.2669763738288</v>
       </c>
-      <c r="L302" s="0" t="str">
+      <c r="L302" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K302), 5)=4,AVERAGE(K302:K306),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12315,9 +12767,11 @@
         <f aca="false">2*I303*J303/(I303+J303)</f>
         <v>83.6389847041635</v>
       </c>
-      <c r="L303" s="0" t="str">
+      <c r="L303" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K303), 5)=4,AVERAGE(K303:K307),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12383,9 +12837,11 @@
         <f aca="false">2*I305*J305/(I305+J305)</f>
         <v>82.0616901407078</v>
       </c>
-      <c r="L305" s="0" t="str">
+      <c r="L305" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K305), 5)=4,AVERAGE(K305:K309),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12417,9 +12873,11 @@
         <f aca="false">2*I306*J306/(I306+J306)</f>
         <v>82.0307365311545</v>
       </c>
-      <c r="L306" s="0" t="str">
+      <c r="L306" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K306), 5)=4,AVERAGE(K306:K310),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12451,9 +12909,11 @@
         <f aca="false">2*I307*J307/(I307+J307)</f>
         <v>81.6800541771783</v>
       </c>
-      <c r="L307" s="0" t="str">
+      <c r="L307" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K307), 5)=4,AVERAGE(K307:K311),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12485,9 +12945,11 @@
         <f aca="false">2*I308*J308/(I308+J308)</f>
         <v>78.1751862246236</v>
       </c>
-      <c r="L308" s="0" t="str">
+      <c r="L308" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K308), 5)=4,AVERAGE(K308:K312),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12553,9 +13015,11 @@
         <f aca="false">2*I310*J310/(I310+J310)</f>
         <v>83.0498017012264</v>
       </c>
-      <c r="L310" s="0" t="str">
+      <c r="L310" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K310), 5)=4,AVERAGE(K310:K314),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12587,9 +13051,11 @@
         <f aca="false">2*I311*J311/(I311+J311)</f>
         <v>83.0202720714742</v>
       </c>
-      <c r="L311" s="0" t="str">
+      <c r="L311" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K311), 5)=4,AVERAGE(K311:K315),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12621,9 +13087,11 @@
         <f aca="false">2*I312*J312/(I312+J312)</f>
         <v>82.7013439561642</v>
       </c>
-      <c r="L312" s="0" t="str">
+      <c r="L312" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K312), 5)=4,AVERAGE(K312:K316),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12655,9 +13123,11 @@
         <f aca="false">2*I313*J313/(I313+J313)</f>
         <v>80.9470198498734</v>
       </c>
-      <c r="L313" s="0" t="str">
+      <c r="L313" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K313), 5)=4,AVERAGE(K313:K317),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12723,9 +13193,11 @@
         <f aca="false">2*I315*J315/(I315+J315)</f>
         <v>83.9247953338769</v>
       </c>
-      <c r="L315" s="0" t="str">
+      <c r="L315" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K315), 5)=4,AVERAGE(K315:K319),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12757,9 +13229,11 @@
         <f aca="false">2*I316*J316/(I316+J316)</f>
         <v>83.900328172174</v>
       </c>
-      <c r="L316" s="0" t="str">
+      <c r="L316" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K316), 5)=4,AVERAGE(K316:K320),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12791,9 +13265,11 @@
         <f aca="false">2*I317*J317/(I317+J317)</f>
         <v>83.5780196793828</v>
       </c>
-      <c r="L317" s="0" t="str">
+      <c r="L317" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K317), 5)=4,AVERAGE(K317:K321),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12825,9 +13301,11 @@
         <f aca="false">2*I318*J318/(I318+J318)</f>
         <v>82.112866177178</v>
       </c>
-      <c r="L318" s="0" t="str">
+      <c r="L318" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K318), 5)=4,AVERAGE(K318:K322),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12893,9 +13371,11 @@
         <f aca="false">2*I320*J320/(I320+J320)</f>
         <v>81.7202481400582</v>
       </c>
-      <c r="L320" s="0" t="str">
+      <c r="L320" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K320), 5)=4,AVERAGE(K320:K324),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12927,9 +13407,11 @@
         <f aca="false">2*I321*J321/(I321+J321)</f>
         <v>81.6765060710667</v>
       </c>
-      <c r="L321" s="0" t="str">
+      <c r="L321" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K321), 5)=4,AVERAGE(K321:K325),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12961,9 +13443,11 @@
         <f aca="false">2*I322*J322/(I322+J322)</f>
         <v>81.3096674523983</v>
       </c>
-      <c r="L322" s="0" t="str">
+      <c r="L322" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K322), 5)=4,AVERAGE(K322:K326),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12995,9 +13479,11 @@
         <f aca="false">2*I323*J323/(I323+J323)</f>
         <v>79.2273968301691</v>
       </c>
-      <c r="L323" s="0" t="str">
+      <c r="L323" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K323), 5)=4,AVERAGE(K323:K327),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13063,9 +13549,11 @@
         <f aca="false">2*I325*J325/(I325+J325)</f>
         <v>82.5276490534038</v>
       </c>
-      <c r="L325" s="0" t="str">
+      <c r="L325" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K325), 5)=4,AVERAGE(K325:K329),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13097,9 +13585,11 @@
         <f aca="false">2*I326*J326/(I326+J326)</f>
         <v>82.5017774213289</v>
       </c>
-      <c r="L326" s="0" t="str">
+      <c r="L326" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K326), 5)=4,AVERAGE(K326:K330),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13131,9 +13621,11 @@
         <f aca="false">2*I327*J327/(I327+J327)</f>
         <v>82.165393399752</v>
       </c>
-      <c r="L327" s="0" t="str">
+      <c r="L327" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K327), 5)=4,AVERAGE(K327:K331),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13165,9 +13657,11 @@
         <f aca="false">2*I328*J328/(I328+J328)</f>
         <v>80.592437977151</v>
       </c>
-      <c r="L328" s="0" t="str">
+      <c r="L328" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K328), 5)=4,AVERAGE(K328:K332),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13233,9 +13727,11 @@
         <f aca="false">2*I330*J330/(I330+J330)</f>
         <v>83.307728824776</v>
       </c>
-      <c r="L330" s="0" t="str">
+      <c r="L330" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K330), 5)=4,AVERAGE(K330:K334),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13267,9 +13763,11 @@
         <f aca="false">2*I331*J331/(I331+J331)</f>
         <v>83.2701490041088</v>
       </c>
-      <c r="L331" s="0" t="str">
+      <c r="L331" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K331), 5)=4,AVERAGE(K331:K335),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13301,9 +13799,11 @@
         <f aca="false">2*I332*J332/(I332+J332)</f>
         <v>82.9283663116178</v>
       </c>
-      <c r="L332" s="0" t="str">
+      <c r="L332" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K332), 5)=4,AVERAGE(K332:K336),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13335,9 +13835,11 @@
         <f aca="false">2*I333*J333/(I333+J333)</f>
         <v>81.4497426047831</v>
       </c>
-      <c r="L333" s="0" t="str">
+      <c r="L333" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K333), 5)=4,AVERAGE(K333:K337),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13403,9 +13905,11 @@
         <f aca="false">2*I335*J335/(I335+J335)</f>
         <v>81.3890214833351</v>
       </c>
-      <c r="L335" s="0" t="str">
+      <c r="L335" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K335), 5)=4,AVERAGE(K335:K339),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13437,9 +13941,11 @@
         <f aca="false">2*I336*J336/(I336+J336)</f>
         <v>81.3453307502024</v>
       </c>
-      <c r="L336" s="0" t="str">
+      <c r="L336" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K336), 5)=4,AVERAGE(K336:K340),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13471,9 +13977,11 @@
         <f aca="false">2*I337*J337/(I337+J337)</f>
         <v>81.0024443874944</v>
       </c>
-      <c r="L337" s="0" t="str">
+      <c r="L337" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K337), 5)=4,AVERAGE(K337:K341),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13505,9 +14013,11 @@
         <f aca="false">2*I338*J338/(I338+J338)</f>
         <v>79.215763786886</v>
       </c>
-      <c r="L338" s="0" t="str">
+      <c r="L338" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K338), 5)=4,AVERAGE(K338:K342),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13573,9 +14083,11 @@
         <f aca="false">2*I340*J340/(I340+J340)</f>
         <v>82.1166250991124</v>
       </c>
-      <c r="L340" s="0" t="str">
+      <c r="L340" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K340), 5)=4,AVERAGE(K340:K344),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13607,9 +14119,11 @@
         <f aca="false">2*I341*J341/(I341+J341)</f>
         <v>82.0803871724603</v>
       </c>
-      <c r="L341" s="0" t="str">
+      <c r="L341" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K341), 5)=4,AVERAGE(K341:K345),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13641,9 +14155,11 @@
         <f aca="false">2*I342*J342/(I342+J342)</f>
         <v>81.7691283284573</v>
       </c>
-      <c r="L342" s="0" t="str">
+      <c r="L342" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K342), 5)=4,AVERAGE(K342:K346),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13675,9 +14191,11 @@
         <f aca="false">2*I343*J343/(I343+J343)</f>
         <v>80.2487793296587</v>
       </c>
-      <c r="L343" s="0" t="str">
+      <c r="L343" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K343), 5)=4,AVERAGE(K343:K347),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13743,9 +14261,11 @@
         <f aca="false">2*I345*J345/(I345+J345)</f>
         <v>82.8536600654776</v>
       </c>
-      <c r="L345" s="0" t="str">
+      <c r="L345" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K345), 5)=4,AVERAGE(K345:K349),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13777,9 +14297,11 @@
         <f aca="false">2*I346*J346/(I346+J346)</f>
         <v>82.811015750063</v>
       </c>
-      <c r="L346" s="0" t="str">
+      <c r="L346" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K346), 5)=4,AVERAGE(K346:K350),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13811,9 +14333,11 @@
         <f aca="false">2*I347*J347/(I347+J347)</f>
         <v>82.4974527970272</v>
       </c>
-      <c r="L347" s="0" t="str">
+      <c r="L347" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K347), 5)=4,AVERAGE(K347:K351),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13845,9 +14369,11 @@
         <f aca="false">2*I348*J348/(I348+J348)</f>
         <v>81.0557217819665</v>
       </c>
-      <c r="L348" s="0" t="str">
+      <c r="L348" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K348), 5)=4,AVERAGE(K348:K352),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13913,9 +14439,11 @@
         <f aca="false">2*I350*J350/(I350+J350)</f>
         <v>81.4430500201657</v>
       </c>
-      <c r="L350" s="0" t="str">
+      <c r="L350" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K350), 5)=4,AVERAGE(K350:K354),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13947,9 +14475,11 @@
         <f aca="false">2*I351*J351/(I351+J351)</f>
         <v>81.4021780915209</v>
       </c>
-      <c r="L351" s="0" t="str">
+      <c r="L351" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K351), 5)=4,AVERAGE(K351:K355),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13981,9 +14511,11 @@
         <f aca="false">2*I352*J352/(I352+J352)</f>
         <v>81.0172791937323</v>
       </c>
-      <c r="L352" s="0" t="str">
+      <c r="L352" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K352), 5)=4,AVERAGE(K352:K356),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14015,9 +14547,11 @@
         <f aca="false">2*I353*J353/(I353+J353)</f>
         <v>77.5579776267537</v>
       </c>
-      <c r="L353" s="0" t="str">
+      <c r="L353" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K353), 5)=4,AVERAGE(K353:K357),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14083,9 +14617,11 @@
         <f aca="false">2*I355*J355/(I355+J355)</f>
         <v>82.7307682519888</v>
       </c>
-      <c r="L355" s="0" t="str">
+      <c r="L355" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K355), 5)=4,AVERAGE(K355:K359),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14117,9 +14653,11 @@
         <f aca="false">2*I356*J356/(I356+J356)</f>
         <v>82.6925080668325</v>
       </c>
-      <c r="L356" s="0" t="str">
+      <c r="L356" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K356), 5)=4,AVERAGE(K356:K360),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14151,9 +14689,11 @@
         <f aca="false">2*I357*J357/(I357+J357)</f>
         <v>82.3384278477156</v>
       </c>
-      <c r="L357" s="0" t="str">
+      <c r="L357" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K357), 5)=4,AVERAGE(K357:K361),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14185,9 +14725,11 @@
         <f aca="false">2*I358*J358/(I358+J358)</f>
         <v>80.4250640694731</v>
       </c>
-      <c r="L358" s="0" t="str">
+      <c r="L358" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K358), 5)=4,AVERAGE(K358:K362),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14253,9 +14795,11 @@
         <f aca="false">2*I360*J360/(I360+J360)</f>
         <v>83.8061828541635</v>
       </c>
-      <c r="L360" s="0" t="str">
+      <c r="L360" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K360), 5)=4,AVERAGE(K360:K364),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14287,9 +14831,11 @@
         <f aca="false">2*I361*J361/(I361+J361)</f>
         <v>83.7734371649389</v>
       </c>
-      <c r="L361" s="0" t="str">
+      <c r="L361" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K361), 5)=4,AVERAGE(K361:K365),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14321,9 +14867,11 @@
         <f aca="false">2*I362*J362/(I362+J362)</f>
         <v>83.4257001180066</v>
       </c>
-      <c r="L362" s="0" t="str">
+      <c r="L362" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K362), 5)=4,AVERAGE(K362:K366),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14355,9 +14903,11 @@
         <f aca="false">2*I363*J363/(I363+J363)</f>
         <v>81.8595832693893</v>
       </c>
-      <c r="L363" s="0" t="str">
+      <c r="L363" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K363), 5)=4,AVERAGE(K363:K367),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14423,9 +14973,11 @@
         <f aca="false">2*I365*J365/(I365+J365)</f>
         <v>81.1860374154976</v>
       </c>
-      <c r="L365" s="0" t="str">
+      <c r="L365" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K365), 5)=4,AVERAGE(K365:K369),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14457,9 +15009,11 @@
         <f aca="false">2*I366*J366/(I366+J366)</f>
         <v>81.1246787731301</v>
       </c>
-      <c r="L366" s="0" t="str">
+      <c r="L366" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K366), 5)=4,AVERAGE(K366:K370),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14491,9 +15045,11 @@
         <f aca="false">2*I367*J367/(I367+J367)</f>
         <v>80.7207682772915</v>
       </c>
-      <c r="L367" s="0" t="str">
+      <c r="L367" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K367), 5)=4,AVERAGE(K367:K371),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14525,9 +15081,11 @@
         <f aca="false">2*I368*J368/(I368+J368)</f>
         <v>78.444308632648</v>
       </c>
-      <c r="L368" s="0" t="str">
+      <c r="L368" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K368), 5)=4,AVERAGE(K368:K372),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14593,9 +15151,11 @@
         <f aca="false">2*I370*J370/(I370+J370)</f>
         <v>82.2310456955148</v>
       </c>
-      <c r="L370" s="0" t="str">
+      <c r="L370" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K370), 5)=4,AVERAGE(K370:K374),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14627,9 +15187,11 @@
         <f aca="false">2*I371*J371/(I371+J371)</f>
         <v>82.1823731255939</v>
       </c>
-      <c r="L371" s="0" t="str">
+      <c r="L371" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K371), 5)=4,AVERAGE(K371:K375),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14661,9 +15223,11 @@
         <f aca="false">2*I372*J372/(I372+J372)</f>
         <v>81.8069043234107</v>
       </c>
-      <c r="L372" s="0" t="str">
+      <c r="L372" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K372), 5)=4,AVERAGE(K372:K376),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14695,9 +15259,11 @@
         <f aca="false">2*I373*J373/(I373+J373)</f>
         <v>80.049247979325</v>
       </c>
-      <c r="L373" s="0" t="str">
+      <c r="L373" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K373), 5)=4,AVERAGE(K373:K377),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14763,9 +15329,11 @@
         <f aca="false">2*I375*J375/(I375+J375)</f>
         <v>83.3161519331289</v>
       </c>
-      <c r="L375" s="0" t="str">
+      <c r="L375" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K375), 5)=4,AVERAGE(K375:K379),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14797,9 +15365,11 @@
         <f aca="false">2*I376*J376/(I376+J376)</f>
         <v>83.2741453479437</v>
       </c>
-      <c r="L376" s="0" t="str">
+      <c r="L376" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K376), 5)=4,AVERAGE(K376:K380),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14831,9 +15401,11 @@
         <f aca="false">2*I377*J377/(I377+J377)</f>
         <v>82.903561218751</v>
       </c>
-      <c r="L377" s="0" t="str">
+      <c r="L377" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K377), 5)=4,AVERAGE(K377:K381),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14865,9 +15437,11 @@
         <f aca="false">2*I378*J378/(I378+J378)</f>
         <v>81.3010593368613</v>
       </c>
-      <c r="L378" s="0" t="str">
+      <c r="L378" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K378), 5)=4,AVERAGE(K378:K382),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14933,9 +15507,11 @@
         <f aca="false">2*I380*J380/(I380+J380)</f>
         <v>81.1304604953468</v>
       </c>
-      <c r="L380" s="0" t="str">
+      <c r="L380" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K380), 5)=4,AVERAGE(K380:K384),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14967,9 +15543,11 @@
         <f aca="false">2*I381*J381/(I381+J381)</f>
         <v>81.0790118227311</v>
       </c>
-      <c r="L381" s="0" t="str">
+      <c r="L381" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K381), 5)=4,AVERAGE(K381:K385),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15001,9 +15579,11 @@
         <f aca="false">2*I382*J382/(I382+J382)</f>
         <v>80.7098595369427</v>
       </c>
-      <c r="L382" s="0" t="str">
+      <c r="L382" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K382), 5)=4,AVERAGE(K382:K386),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15035,9 +15615,11 @@
         <f aca="false">2*I383*J383/(I383+J383)</f>
         <v>78.7169626792857</v>
       </c>
-      <c r="L383" s="0" t="str">
+      <c r="L383" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K383), 5)=4,AVERAGE(K383:K387),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15103,9 +15685,11 @@
         <f aca="false">2*I385*J385/(I385+J385)</f>
         <v>82.0685047801473</v>
       </c>
-      <c r="L385" s="0" t="str">
+      <c r="L385" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K385), 5)=4,AVERAGE(K385:K389),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15137,9 +15721,11 @@
         <f aca="false">2*I386*J386/(I386+J386)</f>
         <v>82.0133542855924</v>
       </c>
-      <c r="L386" s="0" t="str">
+      <c r="L386" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K386), 5)=4,AVERAGE(K386:K390),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15171,9 +15757,11 @@
         <f aca="false">2*I387*J387/(I387+J387)</f>
         <v>81.6729894731945</v>
       </c>
-      <c r="L387" s="0" t="str">
+      <c r="L387" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K387), 5)=4,AVERAGE(K387:K391),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15205,9 +15793,11 @@
         <f aca="false">2*I388*J388/(I388+J388)</f>
         <v>79.9425694117529</v>
       </c>
-      <c r="L388" s="0" t="str">
+      <c r="L388" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K388), 5)=4,AVERAGE(K388:K392),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15273,9 +15863,11 @@
         <f aca="false">2*I390*J390/(I390+J390)</f>
         <v>82.9487279536366</v>
       </c>
-      <c r="L390" s="0" t="str">
+      <c r="L390" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K390), 5)=4,AVERAGE(K390:K394),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15307,9 +15899,11 @@
         <f aca="false">2*I391*J391/(I391+J391)</f>
         <v>82.8983226108907</v>
       </c>
-      <c r="L391" s="0" t="str">
+      <c r="L391" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K391), 5)=4,AVERAGE(K391:K395),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15341,9 +15935,11 @@
         <f aca="false">2*I392*J392/(I392+J392)</f>
         <v>82.5714814758314</v>
       </c>
-      <c r="L392" s="0" t="str">
+      <c r="L392" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K392), 5)=4,AVERAGE(K392:K396),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15375,9 +15971,11 @@
         <f aca="false">2*I393*J393/(I393+J393)</f>
         <v>80.9997187909375</v>
       </c>
-      <c r="L393" s="0" t="str">
+      <c r="L393" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K393), 5)=4,AVERAGE(K393:K397),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15443,9 +16041,11 @@
         <f aca="false">2*I395*J395/(I395+J395)</f>
         <v>89.9199446418731</v>
       </c>
-      <c r="L395" s="0" t="str">
+      <c r="L395" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K395), 5)=4,AVERAGE(K395:K399),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15477,9 +16077,11 @@
         <f aca="false">2*I396*J396/(I396+J396)</f>
         <v>89.4047389763513</v>
       </c>
-      <c r="L396" s="0" t="str">
+      <c r="L396" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K396), 5)=4,AVERAGE(K396:K400),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15511,9 +16113,11 @@
         <f aca="false">2*I397*J397/(I397+J397)</f>
         <v>87.9427921542125</v>
       </c>
-      <c r="L397" s="0" t="str">
+      <c r="L397" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K397), 5)=4,AVERAGE(K397:K401),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15545,9 +16149,11 @@
         <f aca="false">2*I398*J398/(I398+J398)</f>
         <v>63.9652265086607</v>
       </c>
-      <c r="L398" s="0" t="str">
+      <c r="L398" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K398), 5)=4,AVERAGE(K398:K402),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15613,9 +16219,11 @@
         <f aca="false">2*I400*J400/(I400+J400)</f>
         <v>90.3623385431824</v>
       </c>
-      <c r="L400" s="0" t="str">
+      <c r="L400" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K400), 5)=4,AVERAGE(K400:K404),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15647,9 +16255,11 @@
         <f aca="false">2*I401*J401/(I401+J401)</f>
         <v>89.8950738034072</v>
       </c>
-      <c r="L401" s="0" t="str">
+      <c r="L401" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K401), 5)=4,AVERAGE(K401:K405),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15681,9 +16291,11 @@
         <f aca="false">2*I402*J402/(I402+J402)</f>
         <v>88.7035543014714</v>
       </c>
-      <c r="L402" s="0" t="str">
+      <c r="L402" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K402), 5)=4,AVERAGE(K402:K406),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15715,9 +16327,11 @@
         <f aca="false">2*I403*J403/(I403+J403)</f>
         <v>76.7473910150983</v>
       </c>
-      <c r="L403" s="0" t="str">
+      <c r="L403" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K403), 5)=4,AVERAGE(K403:K407),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15783,9 +16397,11 @@
         <f aca="false">2*I405*J405/(I405+J405)</f>
         <v>90.5607100834702</v>
       </c>
-      <c r="L405" s="0" t="str">
+      <c r="L405" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K405), 5)=4,AVERAGE(K405:K409),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15817,9 +16433,11 @@
         <f aca="false">2*I406*J406/(I406+J406)</f>
         <v>90.095956280011</v>
       </c>
-      <c r="L406" s="0" t="str">
+      <c r="L406" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K406), 5)=4,AVERAGE(K406:K410),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15851,9 +16469,11 @@
         <f aca="false">2*I407*J407/(I407+J407)</f>
         <v>88.9727243228482</v>
       </c>
-      <c r="L407" s="0" t="str">
+      <c r="L407" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K407), 5)=4,AVERAGE(K407:K411),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15885,9 +16505,11 @@
         <f aca="false">2*I408*J408/(I408+J408)</f>
         <v>83.6740136015375</v>
       </c>
-      <c r="L408" s="0" t="str">
+      <c r="L408" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K408), 5)=4,AVERAGE(K408:K412),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15953,9 +16575,11 @@
         <f aca="false">2*I410*J410/(I410+J410)</f>
         <v>88.9689466490375</v>
       </c>
-      <c r="L410" s="0" t="str">
+      <c r="L410" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K410), 5)=4,AVERAGE(K410:K414),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15987,9 +16611,11 @@
         <f aca="false">2*I411*J411/(I411+J411)</f>
         <v>88.4373489245145</v>
       </c>
-      <c r="L411" s="0" t="str">
+      <c r="L411" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K411), 5)=4,AVERAGE(K411:K415),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16021,9 +16647,11 @@
         <f aca="false">2*I412*J412/(I412+J412)</f>
         <v>87.0530094145959</v>
       </c>
-      <c r="L412" s="0" t="str">
+      <c r="L412" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K412), 5)=4,AVERAGE(K412:K416),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16055,9 +16683,11 @@
         <f aca="false">2*I413*J413/(I413+J413)</f>
         <v>75.1425470435546</v>
       </c>
-      <c r="L413" s="0" t="str">
+      <c r="L413" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K413), 5)=4,AVERAGE(K413:K417),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16123,9 +16753,11 @@
         <f aca="false">2*I415*J415/(I415+J415)</f>
         <v>89.4634081928944</v>
       </c>
-      <c r="L415" s="0" t="str">
+      <c r="L415" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K415), 5)=4,AVERAGE(K415:K419),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16157,9 +16789,11 @@
         <f aca="false">2*I416*J416/(I416+J416)</f>
         <v>89.0154720753056</v>
       </c>
-      <c r="L416" s="0" t="str">
+      <c r="L416" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K416), 5)=4,AVERAGE(K416:K420),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16191,9 +16825,11 @@
         <f aca="false">2*I417*J417/(I417+J417)</f>
         <v>87.8290270494645</v>
       </c>
-      <c r="L417" s="0" t="str">
+      <c r="L417" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K417), 5)=4,AVERAGE(K417:K421),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16225,9 +16861,11 @@
         <f aca="false">2*I418*J418/(I418+J418)</f>
         <v>81.1998939227225</v>
       </c>
-      <c r="L418" s="0" t="str">
+      <c r="L418" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K418), 5)=4,AVERAGE(K418:K422),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16293,9 +16931,11 @@
         <f aca="false">2*I420*J420/(I420+J420)</f>
         <v>89.7425540168567</v>
       </c>
-      <c r="L420" s="0" t="str">
+      <c r="L420" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K420), 5)=4,AVERAGE(K420:K424),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16327,9 +16967,11 @@
         <f aca="false">2*I421*J421/(I421+J421)</f>
         <v>89.3015417993556</v>
       </c>
-      <c r="L421" s="0" t="str">
+      <c r="L421" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K421), 5)=4,AVERAGE(K421:K425),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16361,9 +17003,11 @@
         <f aca="false">2*I422*J422/(I422+J422)</f>
         <v>88.1815201991349</v>
       </c>
-      <c r="L422" s="0" t="str">
+      <c r="L422" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K422), 5)=4,AVERAGE(K422:K426),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16395,9 +17039,11 @@
         <f aca="false">2*I423*J423/(I423+J423)</f>
         <v>83.6495750539282</v>
       </c>
-      <c r="L423" s="0" t="str">
+      <c r="L423" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K423), 5)=4,AVERAGE(K423:K427),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16463,9 +17109,11 @@
         <f aca="false">2*I425*J425/(I425+J425)</f>
         <v>88.3895704634531</v>
       </c>
-      <c r="L425" s="0" t="str">
+      <c r="L425" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K425), 5)=4,AVERAGE(K425:K429),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16497,9 +17145,11 @@
         <f aca="false">2*I426*J426/(I426+J426)</f>
         <v>87.8517195825381</v>
       </c>
-      <c r="L426" s="0" t="str">
+      <c r="L426" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K426), 5)=4,AVERAGE(K426:K430),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16531,9 +17181,11 @@
         <f aca="false">2*I427*J427/(I427+J427)</f>
         <v>86.4780092884358</v>
       </c>
-      <c r="L427" s="0" t="str">
+      <c r="L427" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K427), 5)=4,AVERAGE(K427:K431),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16565,9 +17217,11 @@
         <f aca="false">2*I428*J428/(I428+J428)</f>
         <v>78.6172010298954</v>
       </c>
-      <c r="L428" s="0" t="str">
+      <c r="L428" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K428), 5)=4,AVERAGE(K428:K432),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16633,9 +17287,11 @@
         <f aca="false">2*I430*J430/(I430+J430)</f>
         <v>88.8764465397951</v>
       </c>
-      <c r="L430" s="0" t="str">
+      <c r="L430" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K430), 5)=4,AVERAGE(K430:K434),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16667,9 +17323,11 @@
         <f aca="false">2*I431*J431/(I431+J431)</f>
         <v>88.3878675157694</v>
       </c>
-      <c r="L431" s="0" t="str">
+      <c r="L431" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K431), 5)=4,AVERAGE(K431:K435),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16701,9 +17359,11 @@
         <f aca="false">2*I432*J432/(I432+J432)</f>
         <v>87.1886017381692</v>
       </c>
-      <c r="L432" s="0" t="str">
+      <c r="L432" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K432), 5)=4,AVERAGE(K432:K436),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16735,9 +17395,11 @@
         <f aca="false">2*I433*J433/(I433+J433)</f>
         <v>82.0038270485033</v>
       </c>
-      <c r="L433" s="0" t="str">
+      <c r="L433" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K433), 5)=4,AVERAGE(K433:K437),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16803,9 +17465,11 @@
         <f aca="false">2*I435*J435/(I435+J435)</f>
         <v>89.2386415890018</v>
       </c>
-      <c r="L435" s="0" t="str">
+      <c r="L435" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K435), 5)=4,AVERAGE(K435:K439),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16837,9 +17501,11 @@
         <f aca="false">2*I436*J436/(I436+J436)</f>
         <v>88.7592933662504</v>
       </c>
-      <c r="L436" s="0" t="str">
+      <c r="L436" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K436), 5)=4,AVERAGE(K436:K440),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16871,9 +17537,11 @@
         <f aca="false">2*I437*J437/(I437+J437)</f>
         <v>87.6106123061955</v>
       </c>
-      <c r="L437" s="0" t="str">
+      <c r="L437" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K437), 5)=4,AVERAGE(K437:K441),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16905,9 +17573,11 @@
         <f aca="false">2*I438*J438/(I438+J438)</f>
         <v>83.2163456461479</v>
       </c>
-      <c r="L438" s="0" t="str">
+      <c r="L438" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K438), 5)=4,AVERAGE(K438:K442),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16973,9 +17643,11 @@
         <f aca="false">2*I440*J440/(I440+J440)</f>
         <v>90.5596138235806</v>
       </c>
-      <c r="L440" s="0" t="str">
+      <c r="L440" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K440), 5)=4,AVERAGE(K440:K444),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17007,9 +17679,11 @@
         <f aca="false">2*I441*J441/(I441+J441)</f>
         <v>90.0589890840209</v>
       </c>
-      <c r="L441" s="0" t="str">
+      <c r="L441" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K441), 5)=4,AVERAGE(K441:K445),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17041,9 +17715,11 @@
         <f aca="false">2*I442*J442/(I442+J442)</f>
         <v>88.5599096657817</v>
       </c>
-      <c r="L442" s="0" t="str">
+      <c r="L442" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K442), 5)=4,AVERAGE(K442:K446),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17075,9 +17751,11 @@
         <f aca="false">2*I443*J443/(I443+J443)</f>
         <v>66.3153224826872</v>
       </c>
-      <c r="L443" s="0" t="str">
+      <c r="L443" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K443), 5)=4,AVERAGE(K443:K447),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17143,9 +17821,11 @@
         <f aca="false">2*I445*J445/(I445+J445)</f>
         <v>90.9708291439004</v>
       </c>
-      <c r="L445" s="0" t="str">
+      <c r="L445" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K445), 5)=4,AVERAGE(K445:K449),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17177,9 +17857,11 @@
         <f aca="false">2*I446*J446/(I446+J446)</f>
         <v>90.5022502502341</v>
       </c>
-      <c r="L446" s="0" t="str">
+      <c r="L446" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K446), 5)=4,AVERAGE(K446:K450),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17211,9 +17893,11 @@
         <f aca="false">2*I447*J447/(I447+J447)</f>
         <v>89.2879825841199</v>
       </c>
-      <c r="L447" s="0" t="str">
+      <c r="L447" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K447), 5)=4,AVERAGE(K447:K451),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17245,9 +17929,11 @@
         <f aca="false">2*I448*J448/(I448+J448)</f>
         <v>78.1859096497045</v>
       </c>
-      <c r="L448" s="0" t="str">
+      <c r="L448" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K448), 5)=4,AVERAGE(K448:K452),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17313,9 +17999,11 @@
         <f aca="false">2*I450*J450/(I450+J450)</f>
         <v>91.1786174298531</v>
       </c>
-      <c r="L450" s="0" t="str">
+      <c r="L450" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K450), 5)=4,AVERAGE(K450:K454),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17347,9 +18035,11 @@
         <f aca="false">2*I451*J451/(I451+J451)</f>
         <v>90.7075382613176</v>
       </c>
-      <c r="L451" s="0" t="str">
+      <c r="L451" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K451), 5)=4,AVERAGE(K451:K455),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17381,9 +18071,11 @@
         <f aca="false">2*I452*J452/(I452+J452)</f>
         <v>89.5525468338898</v>
       </c>
-      <c r="L452" s="0" t="str">
+      <c r="L452" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K452), 5)=4,AVERAGE(K452:K456),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17415,9 +18107,11 @@
         <f aca="false">2*I453*J453/(I453+J453)</f>
         <v>84.4372538986276</v>
       </c>
-      <c r="L453" s="0" t="str">
+      <c r="L453" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K453), 5)=4,AVERAGE(K453:K457),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17483,9 +18177,11 @@
         <f aca="false">2*I455*J455/(I455+J455)</f>
         <v>89.8456139013964</v>
       </c>
-      <c r="L455" s="0" t="str">
+      <c r="L455" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K455), 5)=4,AVERAGE(K455:K459),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17517,9 +18213,11 @@
         <f aca="false">2*I456*J456/(I456+J456)</f>
         <v>89.3373395223003</v>
       </c>
-      <c r="L456" s="0" t="str">
+      <c r="L456" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K456), 5)=4,AVERAGE(K456:K460),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17551,9 +18249,11 @@
         <f aca="false">2*I457*J457/(I457+J457)</f>
         <v>87.8940809444973</v>
       </c>
-      <c r="L457" s="0" t="str">
+      <c r="L457" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K457), 5)=4,AVERAGE(K457:K461),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17585,9 +18285,11 @@
         <f aca="false">2*I458*J458/(I458+J458)</f>
         <v>75.833842509685</v>
       </c>
-      <c r="L458" s="0" t="str">
+      <c r="L458" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K458), 5)=4,AVERAGE(K458:K462),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17653,9 +18355,11 @@
         <f aca="false">2*I460*J460/(I460+J460)</f>
         <v>90.3544355525948</v>
       </c>
-      <c r="L460" s="0" t="str">
+      <c r="L460" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K460), 5)=4,AVERAGE(K460:K464),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17687,9 +18391,11 @@
         <f aca="false">2*I461*J461/(I461+J461)</f>
         <v>89.8989050293647</v>
       </c>
-      <c r="L461" s="0" t="str">
+      <c r="L461" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K461), 5)=4,AVERAGE(K461:K465),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17721,9 +18427,11 @@
         <f aca="false">2*I462*J462/(I462+J462)</f>
         <v>88.667023132741</v>
       </c>
-      <c r="L462" s="0" t="str">
+      <c r="L462" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K462), 5)=4,AVERAGE(K462:K466),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17755,9 +18463,11 @@
         <f aca="false">2*I463*J463/(I463+J463)</f>
         <v>81.8477555827063</v>
       </c>
-      <c r="L463" s="0" t="str">
+      <c r="L463" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K463), 5)=4,AVERAGE(K463:K467),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17823,9 +18533,11 @@
         <f aca="false">2*I465*J465/(I465+J465)</f>
         <v>90.6809099903621</v>
       </c>
-      <c r="L465" s="0" t="str">
+      <c r="L465" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K465), 5)=4,AVERAGE(K465:K469),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17857,9 +18569,11 @@
         <f aca="false">2*I466*J466/(I466+J466)</f>
         <v>90.2114957243403</v>
       </c>
-      <c r="L466" s="0" t="str">
+      <c r="L466" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K466), 5)=4,AVERAGE(K466:K470),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17891,9 +18605,11 @@
         <f aca="false">2*I467*J467/(I467+J467)</f>
         <v>89.033236037675</v>
       </c>
-      <c r="L467" s="0" t="str">
+      <c r="L467" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K467), 5)=4,AVERAGE(K467:K471),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17925,9 +18641,11 @@
         <f aca="false">2*I468*J468/(I468+J468)</f>
         <v>84.384283376218</v>
       </c>
-      <c r="L468" s="0" t="str">
+      <c r="L468" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K468), 5)=4,AVERAGE(K468:K472),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17993,9 +18711,11 @@
         <f aca="false">2*I470*J470/(I470+J470)</f>
         <v>89.3746781215857</v>
       </c>
-      <c r="L470" s="0" t="str">
+      <c r="L470" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K470), 5)=4,AVERAGE(K470:K474),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18027,9 +18747,11 @@
         <f aca="false">2*I471*J471/(I471+J471)</f>
         <v>88.8560423041537</v>
       </c>
-      <c r="L471" s="0" t="str">
+      <c r="L471" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K471), 5)=4,AVERAGE(K471:K475),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18061,9 +18783,11 @@
         <f aca="false">2*I472*J472/(I472+J472)</f>
         <v>87.4005144909804</v>
       </c>
-      <c r="L472" s="0" t="str">
+      <c r="L472" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K472), 5)=4,AVERAGE(K472:K476),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18095,9 +18819,11 @@
         <f aca="false">2*I473*J473/(I473+J473)</f>
         <v>78.9656246861799</v>
       </c>
-      <c r="L473" s="0" t="str">
+      <c r="L473" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K473), 5)=4,AVERAGE(K473:K477),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18163,9 +18889,11 @@
         <f aca="false">2*I475*J475/(I475+J475)</f>
         <v>89.7236165489913</v>
       </c>
-      <c r="L475" s="0" t="str">
+      <c r="L475" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K475), 5)=4,AVERAGE(K475:K479),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18197,9 +18925,11 @@
         <f aca="false">2*I476*J476/(I476+J476)</f>
         <v>89.2344971562685</v>
       </c>
-      <c r="L476" s="0" t="str">
+      <c r="L476" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K476), 5)=4,AVERAGE(K476:K480),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18231,9 +18961,11 @@
         <f aca="false">2*I477*J477/(I477+J477)</f>
         <v>87.9728550269458</v>
       </c>
-      <c r="L477" s="0" t="str">
+      <c r="L477" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K477), 5)=4,AVERAGE(K477:K481),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18265,9 +18997,11 @@
         <f aca="false">2*I478*J478/(I478+J478)</f>
         <v>82.4735810168122</v>
       </c>
-      <c r="L478" s="0" t="str">
+      <c r="L478" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K478), 5)=4,AVERAGE(K478:K482),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18333,9 +19067,11 @@
         <f aca="false">2*I480*J480/(I480+J480)</f>
         <v>90.2192218830737</v>
       </c>
-      <c r="L480" s="0" t="str">
+      <c r="L480" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K480), 5)=4,AVERAGE(K480:K484),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18367,9 +19103,11 @@
         <f aca="false">2*I481*J481/(I481+J481)</f>
         <v>89.7143867569294</v>
       </c>
-      <c r="L481" s="0" t="str">
+      <c r="L481" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K481), 5)=4,AVERAGE(K481:K485),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18401,9 +19139,11 @@
         <f aca="false">2*I482*J482/(I482+J482)</f>
         <v>88.4890348386951</v>
       </c>
-      <c r="L482" s="0" t="str">
+      <c r="L482" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K482), 5)=4,AVERAGE(K482:K486),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18435,9 +19175,11 @@
         <f aca="false">2*I483*J483/(I483+J483)</f>
         <v>83.9155137395194</v>
       </c>
-      <c r="L483" s="0" t="str">
+      <c r="L483" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K483), 5)=4,AVERAGE(K483:K487),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18503,9 +19245,11 @@
         <f aca="false">2*I485*J485/(I485+J485)</f>
         <v>87.8482914320937</v>
       </c>
-      <c r="L485" s="0" t="str">
+      <c r="L485" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K485), 5)=4,AVERAGE(K485:K489),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18537,9 +19281,11 @@
         <f aca="false">2*I486*J486/(I486+J486)</f>
         <v>87.5775398464613</v>
       </c>
-      <c r="L486" s="0" t="str">
+      <c r="L486" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K486), 5)=4,AVERAGE(K486:K490),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18571,9 +19317,11 @@
         <f aca="false">2*I487*J487/(I487+J487)</f>
         <v>86.6152707517936</v>
       </c>
-      <c r="L487" s="0" t="str">
+      <c r="L487" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K487), 5)=4,AVERAGE(K487:K491),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18605,9 +19353,11 @@
         <f aca="false">2*I488*J488/(I488+J488)</f>
         <v>74.5507698845312</v>
       </c>
-      <c r="L488" s="0" t="str">
+      <c r="L488" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K488), 5)=4,AVERAGE(K488:K492),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18673,9 +19423,11 @@
         <f aca="false">2*I490*J490/(I490+J490)</f>
         <v>88.4040165099387</v>
       </c>
-      <c r="L490" s="0" t="str">
+      <c r="L490" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K490), 5)=4,AVERAGE(K490:K494),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18707,9 +19459,11 @@
         <f aca="false">2*I491*J491/(I491+J491)</f>
         <v>88.1558031849829</v>
       </c>
-      <c r="L491" s="0" t="str">
+      <c r="L491" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K491), 5)=4,AVERAGE(K491:K495),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18741,9 +19495,11 @@
         <f aca="false">2*I492*J492/(I492+J492)</f>
         <v>87.2881741517181</v>
       </c>
-      <c r="L492" s="0" t="str">
+      <c r="L492" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K492), 5)=4,AVERAGE(K492:K496),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18775,9 +19531,11 @@
         <f aca="false">2*I493*J493/(I493+J493)</f>
         <v>82.0719760292034</v>
       </c>
-      <c r="L493" s="0" t="str">
+      <c r="L493" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K493), 5)=4,AVERAGE(K493:K497),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18843,9 +19601,11 @@
         <f aca="false">2*I495*J495/(I495+J495)</f>
         <v>88.811386668632</v>
       </c>
-      <c r="L495" s="0" t="str">
+      <c r="L495" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K495), 5)=4,AVERAGE(K495:K499),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18877,9 +19637,11 @@
         <f aca="false">2*I496*J496/(I496+J496)</f>
         <v>88.5393628979778</v>
       </c>
-      <c r="L496" s="0" t="str">
+      <c r="L496" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K496), 5)=4,AVERAGE(K496:K500),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18911,9 +19673,11 @@
         <f aca="false">2*I497*J497/(I497+J497)</f>
         <v>87.67249249118</v>
       </c>
-      <c r="L497" s="0" t="str">
+      <c r="L497" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K497), 5)=4,AVERAGE(K497:K501),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18945,9 +19709,11 @@
         <f aca="false">2*I498*J498/(I498+J498)</f>
         <v>84.9217727862127</v>
       </c>
-      <c r="L498" s="0" t="str">
+      <c r="L498" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K498), 5)=4,AVERAGE(K498:K502),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19013,9 +19779,11 @@
         <f aca="false">2*I500*J500/(I500+J500)</f>
         <v>87.0078886363676</v>
       </c>
-      <c r="L500" s="0" t="str">
+      <c r="L500" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K500), 5)=4,AVERAGE(K500:K504),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19047,9 +19815,11 @@
         <f aca="false">2*I501*J501/(I501+J501)</f>
         <v>86.7126189900444</v>
       </c>
-      <c r="L501" s="0" t="str">
+      <c r="L501" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K501), 5)=4,AVERAGE(K501:K505),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19081,9 +19851,11 @@
         <f aca="false">2*I502*J502/(I502+J502)</f>
         <v>85.7113707155641</v>
       </c>
-      <c r="L502" s="0" t="str">
+      <c r="L502" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K502), 5)=4,AVERAGE(K502:K506),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19115,9 +19887,11 @@
         <f aca="false">2*I503*J503/(I503+J503)</f>
         <v>79.8017975274206</v>
       </c>
-      <c r="L503" s="0" t="str">
+      <c r="L503" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K503), 5)=4,AVERAGE(K503:K507),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19183,9 +19957,11 @@
         <f aca="false">2*I505*J505/(I505+J505)</f>
         <v>87.6138953514409</v>
       </c>
-      <c r="L505" s="0" t="str">
+      <c r="L505" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K505), 5)=4,AVERAGE(K505:K509),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19217,9 +19993,11 @@
         <f aca="false">2*I506*J506/(I506+J506)</f>
         <v>87.3397909461847</v>
       </c>
-      <c r="L506" s="0" t="str">
+      <c r="L506" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K506), 5)=4,AVERAGE(K506:K510),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19251,9 +20029,11 @@
         <f aca="false">2*I507*J507/(I507+J507)</f>
         <v>86.4227958665998</v>
       </c>
-      <c r="L507" s="0" t="str">
+      <c r="L507" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K507), 5)=4,AVERAGE(K507:K511),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19285,9 +20065,11 @@
         <f aca="false">2*I508*J508/(I508+J508)</f>
         <v>83.0275208084224</v>
       </c>
-      <c r="L508" s="0" t="str">
+      <c r="L508" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K508), 5)=4,AVERAGE(K508:K512),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19353,9 +20135,11 @@
         <f aca="false">2*I510*J510/(I510+J510)</f>
         <v>88.029379851969</v>
       </c>
-      <c r="L510" s="0" t="str">
+      <c r="L510" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K510), 5)=4,AVERAGE(K510:K514),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19387,9 +20171,11 @@
         <f aca="false">2*I511*J511/(I511+J511)</f>
         <v>87.7567311859992</v>
       </c>
-      <c r="L511" s="0" t="str">
+      <c r="L511" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K511), 5)=4,AVERAGE(K511:K515),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19421,9 +20207,11 @@
         <f aca="false">2*I512*J512/(I512+J512)</f>
         <v>86.8587366702306</v>
       </c>
-      <c r="L512" s="0" t="str">
+      <c r="L512" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K512), 5)=4,AVERAGE(K512:K516),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19455,9 +20243,11 @@
         <f aca="false">2*I513*J513/(I513+J513)</f>
         <v>84.0765933891954</v>
       </c>
-      <c r="L513" s="0" t="str">
+      <c r="L513" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K513), 5)=4,AVERAGE(K513:K517),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19523,9 +20313,11 @@
         <f aca="false">2*I515*J515/(I515+J515)</f>
         <v>86.4933014676991</v>
       </c>
-      <c r="L515" s="0" t="str">
+      <c r="L515" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K515), 5)=4,AVERAGE(K515:K519),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19557,9 +20349,11 @@
         <f aca="false">2*I516*J516/(I516+J516)</f>
         <v>86.1791666656613</v>
       </c>
-      <c r="L516" s="0" t="str">
+      <c r="L516" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K516), 5)=4,AVERAGE(K516:K520),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19591,9 +20385,11 @@
         <f aca="false">2*I517*J517/(I517+J517)</f>
         <v>85.1402157607033</v>
       </c>
-      <c r="L517" s="0" t="str">
+      <c r="L517" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K517), 5)=4,AVERAGE(K517:K521),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19625,9 +20421,11 @@
         <f aca="false">2*I518*J518/(I518+J518)</f>
         <v>81.0584076127365</v>
       </c>
-      <c r="L518" s="0" t="str">
+      <c r="L518" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K518), 5)=4,AVERAGE(K518:K522),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19693,9 +20491,11 @@
         <f aca="false">2*I520*J520/(I520+J520)</f>
         <v>87.0555908007411</v>
       </c>
-      <c r="L520" s="0" t="str">
+      <c r="L520" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K520), 5)=4,AVERAGE(K520:K524),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19727,9 +20527,11 @@
         <f aca="false">2*I521*J521/(I521+J521)</f>
         <v>86.7561958525492</v>
       </c>
-      <c r="L521" s="0" t="str">
+      <c r="L521" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K521), 5)=4,AVERAGE(K521:K525),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19761,9 +20563,11 @@
         <f aca="false">2*I522*J522/(I522+J522)</f>
         <v>85.8070112144253</v>
       </c>
-      <c r="L522" s="0" t="str">
+      <c r="L522" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K522), 5)=4,AVERAGE(K522:K526),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19795,9 +20599,11 @@
         <f aca="false">2*I523*J523/(I523+J523)</f>
         <v>82.8453437323844</v>
       </c>
-      <c r="L523" s="0" t="str">
+      <c r="L523" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K523), 5)=4,AVERAGE(K523:K527),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19863,9 +20669,11 @@
         <f aca="false">2*I525*J525/(I525+J525)</f>
         <v>87.5519276403009</v>
       </c>
-      <c r="L525" s="0" t="str">
+      <c r="L525" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K525), 5)=4,AVERAGE(K525:K529),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19897,9 +20705,11 @@
         <f aca="false">2*I526*J526/(I526+J526)</f>
         <v>87.2514602957183</v>
       </c>
-      <c r="L526" s="0" t="str">
+      <c r="L526" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K526), 5)=4,AVERAGE(K526:K530),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19931,9 +20741,11 @@
         <f aca="false">2*I527*J527/(I527+J527)</f>
         <v>86.3161891762468</v>
       </c>
-      <c r="L527" s="0" t="str">
+      <c r="L527" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K527), 5)=4,AVERAGE(K527:K531),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19965,9 +20777,11 @@
         <f aca="false">2*I528*J528/(I528+J528)</f>
         <v>83.6615947058202</v>
       </c>
-      <c r="L528" s="0" t="str">
+      <c r="L528" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K528), 5)=4,AVERAGE(K528:K532),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20033,9 +20847,11 @@
         <f aca="false">2*I530*J530/(I530+J530)</f>
         <v>88.4337531487229</v>
       </c>
-      <c r="L530" s="0" t="str">
+      <c r="L530" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K530), 5)=4,AVERAGE(K530:K534),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20067,9 +20883,11 @@
         <f aca="false">2*I531*J531/(I531+J531)</f>
         <v>88.1681727120755</v>
       </c>
-      <c r="L531" s="0" t="str">
+      <c r="L531" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K531), 5)=4,AVERAGE(K531:K535),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20101,9 +20919,11 @@
         <f aca="false">2*I532*J532/(I532+J532)</f>
         <v>87.1506411657651</v>
       </c>
-      <c r="L532" s="0" t="str">
+      <c r="L532" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K532), 5)=4,AVERAGE(K532:K536),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20135,9 +20955,11 @@
         <f aca="false">2*I533*J533/(I533+J533)</f>
         <v>75.6063196122303</v>
       </c>
-      <c r="L533" s="0" t="str">
+      <c r="L533" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K533), 5)=4,AVERAGE(K533:K537),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20203,9 +21025,11 @@
         <f aca="false">2*I535*J535/(I535+J535)</f>
         <v>88.9247773408465</v>
       </c>
-      <c r="L535" s="0" t="str">
+      <c r="L535" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K535), 5)=4,AVERAGE(K535:K539),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20237,9 +21061,11 @@
         <f aca="false">2*I536*J536/(I536+J536)</f>
         <v>88.6758310658635</v>
       </c>
-      <c r="L536" s="0" t="str">
+      <c r="L536" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K536), 5)=4,AVERAGE(K536:K540),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20271,9 +21097,11 @@
         <f aca="false">2*I537*J537/(I537+J537)</f>
         <v>87.7819187502741</v>
       </c>
-      <c r="L537" s="0" t="str">
+      <c r="L537" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K537), 5)=4,AVERAGE(K537:K541),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20305,9 +21133,11 @@
         <f aca="false">2*I538*J538/(I538+J538)</f>
         <v>82.650587718696</v>
       </c>
-      <c r="L538" s="0" t="str">
+      <c r="L538" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K538), 5)=4,AVERAGE(K538:K542),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20373,9 +21203,11 @@
         <f aca="false">2*I540*J540/(I540+J540)</f>
         <v>89.2946194515304</v>
       </c>
-      <c r="L540" s="0" t="str">
+      <c r="L540" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K540), 5)=4,AVERAGE(K540:K544),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20407,9 +21239,11 @@
         <f aca="false">2*I541*J541/(I541+J541)</f>
         <v>89.023748832389</v>
       </c>
-      <c r="L541" s="0" t="str">
+      <c r="L541" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K541), 5)=4,AVERAGE(K541:K545),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20441,9 +21275,11 @@
         <f aca="false">2*I542*J542/(I542+J542)</f>
         <v>88.1516061533872</v>
       </c>
-      <c r="L542" s="0" t="str">
+      <c r="L542" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K542), 5)=4,AVERAGE(K542:K546),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20475,9 +21311,11 @@
         <f aca="false">2*I543*J543/(I543+J543)</f>
         <v>85.3100539100827</v>
       </c>
-      <c r="L543" s="0" t="str">
+      <c r="L543" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K543), 5)=4,AVERAGE(K543:K547),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20543,9 +21381,11 @@
         <f aca="false">2*I545*J545/(I545+J545)</f>
         <v>87.7969300942001</v>
       </c>
-      <c r="L545" s="0" t="str">
+      <c r="L545" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K545), 5)=4,AVERAGE(K545:K549),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20577,9 +21417,11 @@
         <f aca="false">2*I546*J546/(I546+J546)</f>
         <v>87.5026819434691</v>
       </c>
-      <c r="L546" s="0" t="str">
+      <c r="L546" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K546), 5)=4,AVERAGE(K546:K550),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20611,9 +21453,11 @@
         <f aca="false">2*I547*J547/(I547+J547)</f>
         <v>86.436783924304</v>
       </c>
-      <c r="L547" s="0" t="str">
+      <c r="L547" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K547), 5)=4,AVERAGE(K547:K551),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20645,9 +21489,11 @@
         <f aca="false">2*I548*J548/(I548+J548)</f>
         <v>80.1706279749302</v>
       </c>
-      <c r="L548" s="0" t="str">
+      <c r="L548" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K548), 5)=4,AVERAGE(K548:K552),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20713,9 +21559,11 @@
         <f aca="false">2*I550*J550/(I550+J550)</f>
         <v>88.3499572383673</v>
       </c>
-      <c r="L550" s="0" t="str">
+      <c r="L550" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K550), 5)=4,AVERAGE(K550:K554),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20747,9 +21595,11 @@
         <f aca="false">2*I551*J551/(I551+J551)</f>
         <v>88.0692019783083</v>
       </c>
-      <c r="L551" s="0" t="str">
+      <c r="L551" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K551), 5)=4,AVERAGE(K551:K555),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20781,9 +21631,11 @@
         <f aca="false">2*I552*J552/(I552+J552)</f>
         <v>87.1354612279374</v>
       </c>
-      <c r="L552" s="0" t="str">
+      <c r="L552" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K552), 5)=4,AVERAGE(K552:K556),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20815,9 +21667,11 @@
         <f aca="false">2*I553*J553/(I553+J553)</f>
         <v>83.4492798946189</v>
       </c>
-      <c r="L553" s="0" t="str">
+      <c r="L553" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K553), 5)=4,AVERAGE(K553:K557),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20883,9 +21737,11 @@
         <f aca="false">2*I555*J555/(I555+J555)</f>
         <v>88.8324426300875</v>
       </c>
-      <c r="L555" s="0" t="str">
+      <c r="L555" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K555), 5)=4,AVERAGE(K555:K559),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20917,9 +21773,11 @@
         <f aca="false">2*I556*J556/(I556+J556)</f>
         <v>88.5408883063758</v>
       </c>
-      <c r="L556" s="0" t="str">
+      <c r="L556" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K556), 5)=4,AVERAGE(K556:K560),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20951,9 +21809,11 @@
         <f aca="false">2*I557*J557/(I557+J557)</f>
         <v>87.6071951050515</v>
       </c>
-      <c r="L557" s="0" t="str">
+      <c r="L557" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K557), 5)=4,AVERAGE(K557:K561),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20985,9 +21845,11 @@
         <f aca="false">2*I558*J558/(I558+J558)</f>
         <v>84.630427978734</v>
       </c>
-      <c r="L558" s="0" t="str">
+      <c r="L558" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K558), 5)=4,AVERAGE(K558:K562),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21053,9 +21915,11 @@
         <f aca="false">2*I560*J560/(I560+J560)</f>
         <v>87.4091294749354</v>
       </c>
-      <c r="L560" s="0" t="str">
+      <c r="L560" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K560), 5)=4,AVERAGE(K560:K564),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21087,9 +21951,11 @@
         <f aca="false">2*I561*J561/(I561+J561)</f>
         <v>87.0931642493329</v>
       </c>
-      <c r="L561" s="0" t="str">
+      <c r="L561" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K561), 5)=4,AVERAGE(K561:K565),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21121,9 +21987,11 @@
         <f aca="false">2*I562*J562/(I562+J562)</f>
         <v>85.9919002924514</v>
       </c>
-      <c r="L562" s="0" t="str">
+      <c r="L562" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K562), 5)=4,AVERAGE(K562:K566),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21155,9 +22023,11 @@
         <f aca="false">2*I563*J563/(I563+J563)</f>
         <v>81.4010388787623</v>
       </c>
-      <c r="L563" s="0" t="str">
+      <c r="L563" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K563), 5)=4,AVERAGE(K563:K567),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21223,9 +22093,11 @@
         <f aca="false">2*I565*J565/(I565+J565)</f>
         <v>87.8249317557806</v>
       </c>
-      <c r="L565" s="0" t="str">
+      <c r="L565" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K565), 5)=4,AVERAGE(K565:K569),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21257,9 +22129,11 @@
         <f aca="false">2*I566*J566/(I566+J566)</f>
         <v>87.5273532218229</v>
       </c>
-      <c r="L566" s="0" t="str">
+      <c r="L566" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K566), 5)=4,AVERAGE(K566:K570),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21291,9 +22165,11 @@
         <f aca="false">2*I567*J567/(I567+J567)</f>
         <v>86.5300520742855</v>
       </c>
-      <c r="L567" s="0" t="str">
+      <c r="L567" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K567), 5)=4,AVERAGE(K567:K571),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21325,9 +22201,11 @@
         <f aca="false">2*I568*J568/(I568+J568)</f>
         <v>83.2120494835554</v>
       </c>
-      <c r="L568" s="0" t="str">
+      <c r="L568" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K568), 5)=4,AVERAGE(K568:K572),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21393,9 +22271,11 @@
         <f aca="false">2*I570*J570/(I570+J570)</f>
         <v>88.3918816134861</v>
       </c>
-      <c r="L570" s="0" t="str">
+      <c r="L570" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K570), 5)=4,AVERAGE(K570:K574),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21427,9 +22307,11 @@
         <f aca="false">2*I571*J571/(I571+J571)</f>
         <v>88.0694242144056</v>
       </c>
-      <c r="L571" s="0" t="str">
+      <c r="L571" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K571), 5)=4,AVERAGE(K571:K575),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21461,9 +22343,11 @@
         <f aca="false">2*I572*J572/(I572+J572)</f>
         <v>87.0835790762556</v>
       </c>
-      <c r="L572" s="0" t="str">
+      <c r="L572" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K572), 5)=4,AVERAGE(K572:K576),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21495,9 +22379,11 @@
         <f aca="false">2*I573*J573/(I573+J573)</f>
         <v>84.2004106930291</v>
       </c>
-      <c r="L573" s="0" t="str">
+      <c r="L573" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K573), 5)=4,AVERAGE(K573:K577),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21563,9 +22449,11 @@
         <f aca="false">2*I575*J575/(I575+J575)</f>
         <v>84.29596482214</v>
       </c>
-      <c r="L575" s="0" t="str">
+      <c r="L575" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K575), 5)=4,AVERAGE(K575:K579),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21597,9 +22485,11 @@
         <f aca="false">2*I576*J576/(I576+J576)</f>
         <v>84.1906403192307</v>
       </c>
-      <c r="L576" s="0" t="str">
+      <c r="L576" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K576), 5)=4,AVERAGE(K576:K580),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21631,9 +22521,11 @@
         <f aca="false">2*I577*J577/(I577+J577)</f>
         <v>83.7373773600199</v>
       </c>
-      <c r="L577" s="0" t="str">
+      <c r="L577" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K577), 5)=4,AVERAGE(K577:K581),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21665,9 +22557,11 @@
         <f aca="false">2*I578*J578/(I578+J578)</f>
         <v>78.679884414786</v>
       </c>
-      <c r="L578" s="0" t="str">
+      <c r="L578" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K578), 5)=4,AVERAGE(K578:K582),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21733,9 +22627,11 @@
         <f aca="false">2*I580*J580/(I580+J580)</f>
         <v>84.9787250575581</v>
       </c>
-      <c r="L580" s="0" t="str">
+      <c r="L580" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K580), 5)=4,AVERAGE(K580:K584),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21767,9 +22663,11 @@
         <f aca="false">2*I581*J581/(I581+J581)</f>
         <v>84.8884003025141</v>
       </c>
-      <c r="L581" s="0" t="str">
+      <c r="L581" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K581), 5)=4,AVERAGE(K581:K585),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21801,9 +22699,11 @@
         <f aca="false">2*I582*J582/(I582+J582)</f>
         <v>84.5029109875922</v>
       </c>
-      <c r="L582" s="0" t="str">
+      <c r="L582" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K582), 5)=4,AVERAGE(K582:K586),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21835,9 +22735,11 @@
         <f aca="false">2*I583*J583/(I583+J583)</f>
         <v>82.1981240108303</v>
       </c>
-      <c r="L583" s="0" t="str">
+      <c r="L583" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K583), 5)=4,AVERAGE(K583:K587),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21903,9 +22805,11 @@
         <f aca="false">2*I585*J585/(I585+J585)</f>
         <v>85.686790601828</v>
       </c>
-      <c r="L585" s="0" t="str">
+      <c r="L585" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K585), 5)=4,AVERAGE(K585:K589),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21937,9 +22841,11 @@
         <f aca="false">2*I586*J586/(I586+J586)</f>
         <v>85.6050468738617</v>
       </c>
-      <c r="L586" s="0" t="str">
+      <c r="L586" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K586), 5)=4,AVERAGE(K586:K590),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21971,9 +22877,11 @@
         <f aca="false">2*I587*J587/(I587+J587)</f>
         <v>85.1962074171982</v>
       </c>
-      <c r="L587" s="0" t="str">
+      <c r="L587" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K587), 5)=4,AVERAGE(K587:K591),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22005,9 +22913,11 @@
         <f aca="false">2*I588*J588/(I588+J588)</f>
         <v>83.390710428401</v>
       </c>
-      <c r="L588" s="0" t="str">
+      <c r="L588" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K588), 5)=4,AVERAGE(K588:K592),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22073,9 +22983,11 @@
         <f aca="false">2*I590*J590/(I590+J590)</f>
         <v>83.6504477424067</v>
       </c>
-      <c r="L590" s="0" t="str">
+      <c r="L590" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K590), 5)=4,AVERAGE(K590:K594),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22107,9 +23019,11 @@
         <f aca="false">2*I591*J591/(I591+J591)</f>
         <v>83.5511192978152</v>
       </c>
-      <c r="L591" s="0" t="str">
+      <c r="L591" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K591), 5)=4,AVERAGE(K591:K595),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22141,9 +23055,11 @@
         <f aca="false">2*I592*J592/(I592+J592)</f>
         <v>83.0994929525448</v>
       </c>
-      <c r="L592" s="0" t="str">
+      <c r="L592" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K592), 5)=4,AVERAGE(K592:K596),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22175,9 +23091,11 @@
         <f aca="false">2*I593*J593/(I593+J593)</f>
         <v>80.3131677359395</v>
       </c>
-      <c r="L593" s="0" t="str">
+      <c r="L593" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K593), 5)=4,AVERAGE(K593:K597),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22243,9 +23161,11 @@
         <f aca="false">2*I595*J595/(I595+J595)</f>
         <v>84.3919145875946</v>
       </c>
-      <c r="L595" s="0" t="str">
+      <c r="L595" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K595), 5)=4,AVERAGE(K595:K599),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22277,9 +23197,11 @@
         <f aca="false">2*I596*J596/(I596+J596)</f>
         <v>84.3033751506715</v>
       </c>
-      <c r="L596" s="0" t="str">
+      <c r="L596" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K596), 5)=4,AVERAGE(K596:K600),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22311,9 +23233,11 @@
         <f aca="false">2*I597*J597/(I597+J597)</f>
         <v>83.8772979997306</v>
       </c>
-      <c r="L597" s="0" t="str">
+      <c r="L597" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K597), 5)=4,AVERAGE(K597:K601),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22345,9 +23269,11 @@
         <f aca="false">2*I598*J598/(I598+J598)</f>
         <v>81.8743452878272</v>
       </c>
-      <c r="L598" s="0" t="str">
+      <c r="L598" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K598), 5)=4,AVERAGE(K598:K602),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22413,9 +23339,11 @@
         <f aca="false">2*I600*J600/(I600+J600)</f>
         <v>84.9967895285178</v>
       </c>
-      <c r="L600" s="0" t="str">
+      <c r="L600" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K600), 5)=4,AVERAGE(K600:K604),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22447,9 +23375,11 @@
         <f aca="false">2*I601*J601/(I601+J601)</f>
         <v>84.9063783579009</v>
       </c>
-      <c r="L601" s="0" t="str">
+      <c r="L601" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K601), 5)=4,AVERAGE(K601:K605),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22481,9 +23411,11 @@
         <f aca="false">2*I602*J602/(I602+J602)</f>
         <v>84.4793988166366</v>
       </c>
-      <c r="L602" s="0" t="str">
+      <c r="L602" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K602), 5)=4,AVERAGE(K602:K606),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22515,9 +23447,11 @@
         <f aca="false">2*I603*J603/(I603+J603)</f>
         <v>82.6379534337747</v>
       </c>
-      <c r="L603" s="0" t="str">
+      <c r="L603" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K603), 5)=4,AVERAGE(K603:K607),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22583,9 +23517,11 @@
         <f aca="false">2*I605*J605/(I605+J605)</f>
         <v>83.2044083239669</v>
       </c>
-      <c r="L605" s="0" t="str">
+      <c r="L605" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K605), 5)=4,AVERAGE(K605:K609),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22617,9 +23553,11 @@
         <f aca="false">2*I606*J606/(I606+J606)</f>
         <v>83.1120903954619</v>
       </c>
-      <c r="L606" s="0" t="str">
+      <c r="L606" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K606), 5)=4,AVERAGE(K606:K610),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22651,9 +23589,11 @@
         <f aca="false">2*I607*J607/(I607+J607)</f>
         <v>82.6464224393295</v>
       </c>
-      <c r="L607" s="0" t="str">
+      <c r="L607" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K607), 5)=4,AVERAGE(K607:K611),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22685,9 +23625,11 @@
         <f aca="false">2*I608*J608/(I608+J608)</f>
         <v>80.3471846135371</v>
       </c>
-      <c r="L608" s="0" t="str">
+      <c r="L608" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K608), 5)=4,AVERAGE(K608:K612),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22753,9 +23695,11 @@
         <f aca="false">2*I610*J610/(I610+J610)</f>
         <v>83.8708658629257</v>
       </c>
-      <c r="L610" s="0" t="str">
+      <c r="L610" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K610), 5)=4,AVERAGE(K610:K614),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22787,9 +23731,11 @@
         <f aca="false">2*I611*J611/(I611+J611)</f>
         <v>83.784867380876</v>
       </c>
-      <c r="L611" s="0" t="str">
+      <c r="L611" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K611), 5)=4,AVERAGE(K611:K615),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22821,9 +23767,11 @@
         <f aca="false">2*I612*J612/(I612+J612)</f>
         <v>83.3484154501256</v>
       </c>
-      <c r="L612" s="0" t="str">
+      <c r="L612" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K612), 5)=4,AVERAGE(K612:K616),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22855,9 +23803,11 @@
         <f aca="false">2*I613*J613/(I613+J613)</f>
         <v>81.4476267873552</v>
       </c>
-      <c r="L613" s="0" t="str">
+      <c r="L613" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K613), 5)=4,AVERAGE(K613:K617),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22923,9 +23873,11 @@
         <f aca="false">2*I615*J615/(I615+J615)</f>
         <v>84.5121450637966</v>
       </c>
-      <c r="L615" s="0" t="str">
+      <c r="L615" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K615), 5)=4,AVERAGE(K615:K619),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22957,9 +23909,11 @@
         <f aca="false">2*I616*J616/(I616+J616)</f>
         <v>84.4226771528246</v>
       </c>
-      <c r="L616" s="0" t="str">
+      <c r="L616" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K616), 5)=4,AVERAGE(K616:K620),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22991,9 +23945,11 @@
         <f aca="false">2*I617*J617/(I617+J617)</f>
         <v>83.9964366729825</v>
       </c>
-      <c r="L617" s="0" t="str">
+      <c r="L617" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K617), 5)=4,AVERAGE(K617:K621),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23025,9 +23981,11 @@
         <f aca="false">2*I618*J618/(I618+J618)</f>
         <v>82.2083785286323</v>
       </c>
-      <c r="L618" s="0" t="str">
+      <c r="L618" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K618), 5)=4,AVERAGE(K618:K622),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23093,9 +24051,11 @@
         <f aca="false">2*I620*J620/(I620+J620)</f>
         <v>84.4443579150723</v>
       </c>
-      <c r="L620" s="0" t="str">
+      <c r="L620" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K620), 5)=4,AVERAGE(K620:K624),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23127,9 +24087,11 @@
         <f aca="false">2*I621*J621/(I621+J621)</f>
         <v>84.3440056449042</v>
       </c>
-      <c r="L621" s="0" t="str">
+      <c r="L621" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K621), 5)=4,AVERAGE(K621:K625),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23161,9 +24123,11 @@
         <f aca="false">2*I622*J622/(I622+J622)</f>
         <v>83.8550431982134</v>
       </c>
-      <c r="L622" s="0" t="str">
+      <c r="L622" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K622), 5)=4,AVERAGE(K622:K626),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23195,9 +24159,11 @@
         <f aca="false">2*I623*J623/(I623+J623)</f>
         <v>78.810653406428</v>
       </c>
-      <c r="L623" s="0" t="str">
+      <c r="L623" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K623), 5)=4,AVERAGE(K623:K627),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23263,9 +24229,11 @@
         <f aca="false">2*I625*J625/(I625+J625)</f>
         <v>85.1887322625081</v>
       </c>
-      <c r="L625" s="0" t="str">
+      <c r="L625" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K625), 5)=4,AVERAGE(K625:K629),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23297,9 +24265,11 @@
         <f aca="false">2*I626*J626/(I626+J626)</f>
         <v>85.0975984098605</v>
       </c>
-      <c r="L626" s="0" t="str">
+      <c r="L626" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K626), 5)=4,AVERAGE(K626:K630),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23331,9 +24301,11 @@
         <f aca="false">2*I627*J627/(I627+J627)</f>
         <v>84.684906295636</v>
       </c>
-      <c r="L627" s="0" t="str">
+      <c r="L627" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K627), 5)=4,AVERAGE(K627:K631),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23365,9 +24337,11 @@
         <f aca="false">2*I628*J628/(I628+J628)</f>
         <v>82.2277929489243</v>
       </c>
-      <c r="L628" s="0" t="str">
+      <c r="L628" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K628), 5)=4,AVERAGE(K628:K632),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23433,9 +24407,11 @@
         <f aca="false">2*I630*J630/(I630+J630)</f>
         <v>85.9324014339286</v>
       </c>
-      <c r="L630" s="0" t="str">
+      <c r="L630" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K630), 5)=4,AVERAGE(K630:K634),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23467,9 +24443,11 @@
         <f aca="false">2*I631*J631/(I631+J631)</f>
         <v>85.8454537004095</v>
       </c>
-      <c r="L631" s="0" t="str">
+      <c r="L631" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K631), 5)=4,AVERAGE(K631:K635),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23501,9 +24479,11 @@
         <f aca="false">2*I632*J632/(I632+J632)</f>
         <v>85.4291228772567</v>
       </c>
-      <c r="L632" s="0" t="str">
+      <c r="L632" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K632), 5)=4,AVERAGE(K632:K636),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23535,9 +24515,11 @@
         <f aca="false">2*I633*J633/(I633+J633)</f>
         <v>83.5109522362628</v>
       </c>
-      <c r="L633" s="0" t="str">
+      <c r="L633" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K633), 5)=4,AVERAGE(K633:K637),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23603,9 +24585,11 @@
         <f aca="false">2*I635*J635/(I635+J635)</f>
         <v>83.9389179189361</v>
       </c>
-      <c r="L635" s="0" t="str">
+      <c r="L635" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K635), 5)=4,AVERAGE(K635:K639),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23637,9 +24621,11 @@
         <f aca="false">2*I636*J636/(I636+J636)</f>
         <v>83.8481411941742</v>
       </c>
-      <c r="L636" s="0" t="str">
+      <c r="L636" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K636), 5)=4,AVERAGE(K636:K640),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23671,9 +24657,11 @@
         <f aca="false">2*I637*J637/(I637+J637)</f>
         <v>83.350659046213</v>
       </c>
-      <c r="L637" s="0" t="str">
+      <c r="L637" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K637), 5)=4,AVERAGE(K637:K641),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23705,9 +24693,11 @@
         <f aca="false">2*I638*J638/(I638+J638)</f>
         <v>80.2740515950404</v>
       </c>
-      <c r="L638" s="0" t="str">
+      <c r="L638" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K638), 5)=4,AVERAGE(K638:K642),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23773,9 +24763,11 @@
         <f aca="false">2*I640*J640/(I640+J640)</f>
         <v>84.7137195016432</v>
       </c>
-      <c r="L640" s="0" t="str">
+      <c r="L640" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K640), 5)=4,AVERAGE(K640:K644),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23807,9 +24799,11 @@
         <f aca="false">2*I641*J641/(I641+J641)</f>
         <v>84.6105850159702</v>
       </c>
-      <c r="L641" s="0" t="str">
+      <c r="L641" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K641), 5)=4,AVERAGE(K641:K645),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23841,9 +24835,11 @@
         <f aca="false">2*I642*J642/(I642+J642)</f>
         <v>84.1431219212767</v>
       </c>
-      <c r="L642" s="0" t="str">
+      <c r="L642" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K642), 5)=4,AVERAGE(K642:K646),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23875,9 +24871,11 @@
         <f aca="false">2*I643*J643/(I643+J643)</f>
         <v>81.9563876982891</v>
       </c>
-      <c r="L643" s="0" t="str">
+      <c r="L643" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K643), 5)=4,AVERAGE(K643:K647),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23943,9 +24941,11 @@
         <f aca="false">2*I645*J645/(I645+J645)</f>
         <v>85.4209199199472</v>
       </c>
-      <c r="L645" s="0" t="str">
+      <c r="L645" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K645), 5)=4,AVERAGE(K645:K649),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23977,9 +24977,11 @@
         <f aca="false">2*I646*J646/(I646+J646)</f>
         <v>85.3321309436937</v>
       </c>
-      <c r="L646" s="0" t="str">
+      <c r="L646" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K646), 5)=4,AVERAGE(K646:K650),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24011,9 +25013,11 @@
         <f aca="false">2*I647*J647/(I647+J647)</f>
         <v>84.8785108498499</v>
       </c>
-      <c r="L647" s="0" t="str">
+      <c r="L647" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K647), 5)=4,AVERAGE(K647:K651),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24045,9 +25049,11 @@
         <f aca="false">2*I648*J648/(I648+J648)</f>
         <v>82.9008949965622</v>
       </c>
-      <c r="L648" s="0" t="str">
+      <c r="L648" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K648), 5)=4,AVERAGE(K648:K652),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24113,9 +25119,11 @@
         <f aca="false">2*I650*J650/(I650+J650)</f>
         <v>83.6894372166077</v>
       </c>
-      <c r="L650" s="0" t="str">
+      <c r="L650" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K650), 5)=4,AVERAGE(K650:K654),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24147,9 +25155,11 @@
         <f aca="false">2*I651*J651/(I651+J651)</f>
         <v>83.5889540415254</v>
       </c>
-      <c r="L651" s="0" t="str">
+      <c r="L651" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K651), 5)=4,AVERAGE(K651:K655),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24181,9 +25191,11 @@
         <f aca="false">2*I652*J652/(I652+J652)</f>
         <v>83.0762360951456</v>
       </c>
-      <c r="L652" s="0" t="str">
+      <c r="L652" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K652), 5)=4,AVERAGE(K652:K656),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24215,9 +25227,11 @@
         <f aca="false">2*I653*J653/(I653+J653)</f>
         <v>80.4531282734478</v>
       </c>
-      <c r="L653" s="0" t="str">
+      <c r="L653" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K653), 5)=4,AVERAGE(K653:K657),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24283,9 +25297,11 @@
         <f aca="false">2*I655*J655/(I655+J655)</f>
         <v>84.256860769066</v>
       </c>
-      <c r="L655" s="0" t="str">
+      <c r="L655" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K655), 5)=4,AVERAGE(K655:K659),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24317,9 +25333,11 @@
         <f aca="false">2*I656*J656/(I656+J656)</f>
         <v>84.1616722235556</v>
       </c>
-      <c r="L656" s="0" t="str">
+      <c r="L656" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K656), 5)=4,AVERAGE(K656:K660),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24351,9 +25369,11 @@
         <f aca="false">2*I657*J657/(I657+J657)</f>
         <v>83.6871927419181</v>
       </c>
-      <c r="L657" s="0" t="str">
+      <c r="L657" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K657), 5)=4,AVERAGE(K657:K661),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24385,9 +25405,11 @@
         <f aca="false">2*I658*J658/(I658+J658)</f>
         <v>81.5612340759091</v>
       </c>
-      <c r="L658" s="0" t="str">
+      <c r="L658" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K658), 5)=4,AVERAGE(K658:K662),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24453,9 +25475,11 @@
         <f aca="false">2*I660*J660/(I660+J660)</f>
         <v>84.9589408977707</v>
       </c>
-      <c r="L660" s="0" t="str">
+      <c r="L660" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K660), 5)=4,AVERAGE(K660:K664),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24487,9 +25511,11 @@
         <f aca="false">2*I661*J661/(I661+J661)</f>
         <v>84.8576524889569</v>
       </c>
-      <c r="L661" s="0" t="str">
+      <c r="L661" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K661), 5)=4,AVERAGE(K661:K665),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24521,9 +25547,11 @@
         <f aca="false">2*I662*J662/(I662+J662)</f>
         <v>84.3998094468765</v>
       </c>
-      <c r="L662" s="0" t="str">
+      <c r="L662" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K662), 5)=4,AVERAGE(K662:K666),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24555,9 +25583,11 @@
         <f aca="false">2*I663*J663/(I663+J663)</f>
         <v>82.4521196990112</v>
       </c>
-      <c r="L663" s="0" t="str">
+      <c r="L663" s="0" t="inlineStr">
         <f aca="false">IF(MOD(ROW(K663), 5)=4,AVERAGE(K663:K667),"")</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/cob_surface_classification/common/files/experiments.xlsx
+++ b/cob_surface_classification/common/files/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="206"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="206" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
   <si>
     <t>parameters</t>
   </si>
@@ -561,6 +561,9 @@
   <si>
     <t>computation time 1 core [ms]</t>
   </si>
+  <si>
+    <t>n/a</t>
+  </si>
 </sst>
 </file>
 
@@ -1047,7 +1050,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A4:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -1280,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2" filterMode="1"/>
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="B2:AU663"/>
   <sheetViews>
-    <sheetView topLeftCell="B102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1978,7 +1981,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="3:47" hidden="1">
+    <row r="34" spans="3:47">
       <c r="C34">
         <v>0</v>
       </c>
@@ -2082,7 +2085,7 @@
       <c r="AO34" s="6"/>
       <c r="AP34" s="6"/>
     </row>
-    <row r="35" spans="3:47" hidden="1">
+    <row r="35" spans="3:47">
       <c r="C35">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2189,7 +2192,7 @@
       <c r="AO35" s="6"/>
       <c r="AP35" s="6"/>
     </row>
-    <row r="36" spans="3:47" hidden="1">
+    <row r="36" spans="3:47">
       <c r="C36">
         <v>1E-3</v>
       </c>
@@ -2239,7 +2242,7 @@
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
     </row>
-    <row r="37" spans="3:47" hidden="1">
+    <row r="37" spans="3:47">
       <c r="C37">
         <v>2E-3</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="3:47" hidden="1">
+    <row r="38" spans="3:47">
       <c r="C38">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="3:47" hidden="1">
+    <row r="39" spans="3:47">
       <c r="C39">
         <v>0</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>85.429122877256646</v>
       </c>
     </row>
-    <row r="40" spans="3:47" hidden="1">
+    <row r="40" spans="3:47">
       <c r="C40">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>84.878510849849945</v>
       </c>
     </row>
-    <row r="41" spans="3:47" hidden="1">
+    <row r="41" spans="3:47">
       <c r="C41">
         <v>1E-3</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>84.399809446876489</v>
       </c>
     </row>
-    <row r="42" spans="3:47" hidden="1">
+    <row r="42" spans="3:47">
       <c r="C42">
         <v>2E-3</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>83.855043198213409</v>
       </c>
     </row>
-    <row r="43" spans="3:47" hidden="1">
+    <row r="43" spans="3:47">
       <c r="C43">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>84.684906295635955</v>
       </c>
     </row>
-    <row r="44" spans="3:47" hidden="1">
+    <row r="44" spans="3:47">
       <c r="C44">
         <v>0</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>85.429122877256646</v>
       </c>
     </row>
-    <row r="45" spans="3:47" hidden="1">
+    <row r="45" spans="3:47">
       <c r="C45">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3091,7 +3094,7 @@
       <c r="AO45" s="6"/>
       <c r="AP45" s="6"/>
     </row>
-    <row r="46" spans="3:47" hidden="1">
+    <row r="46" spans="3:47">
       <c r="C46">
         <v>1E-3</v>
       </c>
@@ -3198,7 +3201,7 @@
       <c r="AO46" s="6"/>
       <c r="AP46" s="6"/>
     </row>
-    <row r="47" spans="3:47" hidden="1">
+    <row r="47" spans="3:47">
       <c r="C47">
         <v>2E-3</v>
       </c>
@@ -3302,7 +3305,7 @@
       <c r="AO47" s="6"/>
       <c r="AP47" s="6"/>
     </row>
-    <row r="48" spans="3:47" hidden="1">
+    <row r="48" spans="3:47">
       <c r="C48">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:33" hidden="1">
+    <row r="49" spans="3:33">
       <c r="C49">
         <v>0</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>84.233401813111129</v>
       </c>
     </row>
-    <row r="50" spans="3:33" hidden="1">
+    <row r="50" spans="3:33">
       <c r="C50">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="3:33" hidden="1">
+    <row r="51" spans="3:33">
       <c r="C51">
         <v>1E-3</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="3:33" hidden="1">
+    <row r="52" spans="3:33">
       <c r="C52">
         <v>2E-3</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:33" hidden="1">
+    <row r="53" spans="3:33">
       <c r="C53">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:33" hidden="1">
+    <row r="54" spans="3:33">
       <c r="C54">
         <v>0</v>
       </c>
@@ -3705,7 +3708,7 @@
       <c r="AD54" s="6"/>
       <c r="AE54" s="6"/>
     </row>
-    <row r="55" spans="3:33" hidden="1">
+    <row r="55" spans="3:33">
       <c r="C55">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3755,7 +3758,7 @@
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
     </row>
-    <row r="56" spans="3:33" hidden="1">
+    <row r="56" spans="3:33">
       <c r="C56">
         <v>1E-3</v>
       </c>
@@ -3808,7 +3811,7 @@
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
     </row>
-    <row r="57" spans="3:33" hidden="1">
+    <row r="57" spans="3:33">
       <c r="C57">
         <v>2E-3</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:33" hidden="1">
+    <row r="58" spans="3:33">
       <c r="C58">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="3:33" hidden="1">
+    <row r="59" spans="3:33">
       <c r="C59">
         <v>0</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:33" hidden="1">
+    <row r="60" spans="3:33">
       <c r="C60">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4164,7 +4167,7 @@
       <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
     </row>
-    <row r="61" spans="3:33" hidden="1">
+    <row r="61" spans="3:33">
       <c r="C61">
         <v>1E-3</v>
       </c>
@@ -4214,7 +4217,7 @@
       <c r="AD61" s="6"/>
       <c r="AE61" s="6"/>
     </row>
-    <row r="62" spans="3:33" hidden="1">
+    <row r="62" spans="3:33">
       <c r="C62">
         <v>2E-3</v>
       </c>
@@ -4267,7 +4270,7 @@
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
     </row>
-    <row r="63" spans="3:33" hidden="1">
+    <row r="63" spans="3:33">
       <c r="C63">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:33" hidden="1">
+    <row r="64" spans="3:33">
       <c r="C64">
         <v>0</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="3:33" hidden="1">
+    <row r="65" spans="3:33">
       <c r="C65">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:33" hidden="1">
+    <row r="66" spans="3:33">
       <c r="C66">
         <v>1E-3</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:33" hidden="1">
+    <row r="67" spans="3:33">
       <c r="C67">
         <v>2E-3</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:33" hidden="1">
+    <row r="68" spans="3:33">
       <c r="C68">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4681,7 +4684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="3:33" hidden="1">
+    <row r="69" spans="3:33">
       <c r="C69">
         <v>0</v>
       </c>
@@ -4721,7 +4724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="3:33" hidden="1">
+    <row r="70" spans="3:33">
       <c r="C70">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:33" hidden="1">
+    <row r="71" spans="3:33">
       <c r="C71">
         <v>1E-3</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="3:33" hidden="1">
+    <row r="72" spans="3:33">
       <c r="C72">
         <v>2E-3</v>
       </c>
@@ -4976,7 +4979,7 @@
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
     </row>
-    <row r="73" spans="3:33" hidden="1">
+    <row r="73" spans="3:33">
       <c r="C73">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5026,7 +5029,7 @@
       <c r="AD73" s="6"/>
       <c r="AE73" s="6"/>
     </row>
-    <row r="74" spans="3:33" hidden="1">
+    <row r="74" spans="3:33">
       <c r="C74">
         <v>0</v>
       </c>
@@ -5079,7 +5082,7 @@
       <c r="AD74" s="6"/>
       <c r="AE74" s="6"/>
     </row>
-    <row r="75" spans="3:33" hidden="1">
+    <row r="75" spans="3:33">
       <c r="C75">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:33" hidden="1">
+    <row r="76" spans="3:33">
       <c r="C76">
         <v>1E-3</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="3:33" hidden="1">
+    <row r="77" spans="3:33">
       <c r="C77">
         <v>2E-3</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:33" hidden="1">
+    <row r="78" spans="3:33">
       <c r="C78">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5435,7 +5438,7 @@
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
     </row>
-    <row r="79" spans="3:33" hidden="1">
+    <row r="79" spans="3:33">
       <c r="C79">
         <v>0</v>
       </c>
@@ -5485,7 +5488,7 @@
       <c r="AD79" s="6"/>
       <c r="AE79" s="6"/>
     </row>
-    <row r="80" spans="3:33" hidden="1">
+    <row r="80" spans="3:33">
       <c r="C80">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5538,7 +5541,7 @@
       <c r="AD80" s="6"/>
       <c r="AE80" s="6"/>
     </row>
-    <row r="81" spans="3:33" hidden="1">
+    <row r="81" spans="3:33">
       <c r="C81">
         <v>1E-3</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:33" hidden="1">
+    <row r="82" spans="3:33">
       <c r="C82">
         <v>2E-3</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="3:33" hidden="1">
+    <row r="83" spans="3:33">
       <c r="C83">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="3:33" hidden="1">
+    <row r="89" spans="3:33">
       <c r="C89">
         <v>0</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>85.196207417198181</v>
       </c>
     </row>
-    <row r="90" spans="3:33" hidden="1">
+    <row r="90" spans="3:33">
       <c r="C90">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>85.429122877256646</v>
       </c>
     </row>
-    <row r="91" spans="3:33" hidden="1">
+    <row r="91" spans="3:33">
       <c r="C91">
         <v>1E-3</v>
       </c>
@@ -6272,7 +6275,7 @@
       <c r="AD91" s="6"/>
       <c r="AE91" s="6"/>
     </row>
-    <row r="92" spans="3:33" hidden="1">
+    <row r="92" spans="3:33">
       <c r="C92">
         <v>2E-3</v>
       </c>
@@ -6322,7 +6325,7 @@
       <c r="AD92" s="6"/>
       <c r="AE92" s="6"/>
     </row>
-    <row r="93" spans="3:33" hidden="1">
+    <row r="93" spans="3:33">
       <c r="C93">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6375,7 +6378,7 @@
       <c r="AD93" s="6"/>
       <c r="AE93" s="6"/>
     </row>
-    <row r="94" spans="3:33" hidden="1">
+    <row r="94" spans="3:33">
       <c r="C94">
         <v>0</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>85.429122877256646</v>
       </c>
     </row>
-    <row r="95" spans="3:33" hidden="1">
+    <row r="95" spans="3:33">
       <c r="C95">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>84.878510849849945</v>
       </c>
     </row>
-    <row r="96" spans="3:33" hidden="1">
+    <row r="96" spans="3:33">
       <c r="C96">
         <v>1E-3</v>
       </c>
@@ -6678,7 +6681,7 @@
         <v>84.399809446876489</v>
       </c>
     </row>
-    <row r="97" spans="3:31" hidden="1">
+    <row r="97" spans="3:31">
       <c r="C97">
         <v>2E-3</v>
       </c>
@@ -6728,7 +6731,7 @@
       <c r="AD97" s="6"/>
       <c r="AE97" s="6"/>
     </row>
-    <row r="98" spans="3:31" hidden="1">
+    <row r="98" spans="3:31">
       <c r="C98">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7168,7 +7171,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:31" hidden="1">
+    <row r="104" spans="3:31">
       <c r="C104">
         <v>0</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>88.994775955097879</v>
       </c>
     </row>
-    <row r="105" spans="3:31" hidden="1">
+    <row r="105" spans="3:31">
       <c r="C105">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:31" hidden="1">
+    <row r="106" spans="3:31">
       <c r="C106">
         <v>1E-3</v>
       </c>
@@ -7270,7 +7273,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:31" hidden="1">
+    <row r="107" spans="3:31">
       <c r="C107">
         <v>2E-3</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:31" hidden="1">
+    <row r="108" spans="3:31">
       <c r="C108">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:31" hidden="1">
+    <row r="109" spans="3:31">
       <c r="C109">
         <v>0</v>
       </c>
@@ -7372,7 +7375,7 @@
         <v>86.154257516303829</v>
       </c>
     </row>
-    <row r="110" spans="3:31" hidden="1">
+    <row r="110" spans="3:31">
       <c r="C110">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:31" hidden="1">
+    <row r="111" spans="3:31">
       <c r="C111">
         <v>1E-3</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:31" hidden="1">
+    <row r="112" spans="3:31">
       <c r="C112">
         <v>2E-3</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:21" hidden="1">
+    <row r="113" spans="3:21">
       <c r="C113">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="3:21" hidden="1">
+    <row r="119" spans="3:21">
       <c r="C119">
         <v>0</v>
       </c>
@@ -7754,7 +7757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="3:21" hidden="1">
+    <row r="120" spans="3:21">
       <c r="C120">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -7791,7 +7794,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="3:21" hidden="1">
+    <row r="121" spans="3:21">
       <c r="C121">
         <v>1E-3</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:21" hidden="1">
+    <row r="122" spans="3:21">
       <c r="C122">
         <v>2E-3</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:21" hidden="1">
+    <row r="123" spans="3:21">
       <c r="C123">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:21" hidden="1">
+    <row r="124" spans="3:21">
       <c r="C124">
         <v>0</v>
       </c>
@@ -7927,7 +7930,7 @@
         <v>84.8579696410482</v>
       </c>
     </row>
-    <row r="125" spans="3:21" hidden="1">
+    <row r="125" spans="3:21">
       <c r="C125">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -7961,7 +7964,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:21" hidden="1">
+    <row r="126" spans="3:21">
       <c r="C126">
         <v>1E-3</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:21" hidden="1">
+    <row r="127" spans="3:21">
       <c r="C127">
         <v>2E-3</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:21" hidden="1">
+    <row r="128" spans="3:21">
       <c r="C128">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:12" hidden="1">
+    <row r="129" spans="3:12">
       <c r="C129">
         <v>0</v>
       </c>
@@ -8097,7 +8100,7 @@
         <v>87.324672951339835</v>
       </c>
     </row>
-    <row r="130" spans="3:12" hidden="1">
+    <row r="130" spans="3:12">
       <c r="C130">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:12" hidden="1">
+    <row r="131" spans="3:12">
       <c r="C131">
         <v>1E-3</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:12" hidden="1">
+    <row r="132" spans="3:12">
       <c r="C132">
         <v>2E-3</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:12" hidden="1">
+    <row r="133" spans="3:12">
       <c r="C133">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8233,7 +8236,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:12" hidden="1">
+    <row r="134" spans="3:12">
       <c r="C134">
         <v>0</v>
       </c>
@@ -8267,7 +8270,7 @@
         <v>88.449125962377479</v>
       </c>
     </row>
-    <row r="135" spans="3:12" hidden="1">
+    <row r="135" spans="3:12">
       <c r="C135">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:12" hidden="1">
+    <row r="136" spans="3:12">
       <c r="C136">
         <v>1E-3</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:12" hidden="1">
+    <row r="137" spans="3:12">
       <c r="C137">
         <v>2E-3</v>
       </c>
@@ -8369,7 +8372,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:12" hidden="1">
+    <row r="138" spans="3:12">
       <c r="C138">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:12" hidden="1">
+    <row r="139" spans="3:12">
       <c r="C139">
         <v>0</v>
       </c>
@@ -8437,7 +8440,7 @@
         <v>85.73934940711078</v>
       </c>
     </row>
-    <row r="140" spans="3:12" hidden="1">
+    <row r="140" spans="3:12">
       <c r="C140">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:12" hidden="1">
+    <row r="141" spans="3:12">
       <c r="C141">
         <v>1E-3</v>
       </c>
@@ -8505,7 +8508,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:12" hidden="1">
+    <row r="142" spans="3:12">
       <c r="C142">
         <v>2E-3</v>
       </c>
@@ -8539,7 +8542,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:12" hidden="1">
+    <row r="143" spans="3:12">
       <c r="C143">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8573,7 +8576,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:12" hidden="1">
+    <row r="144" spans="3:12">
       <c r="C144">
         <v>0</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>87.100193775970908</v>
       </c>
     </row>
-    <row r="145" spans="3:12" hidden="1">
+    <row r="145" spans="3:12">
       <c r="C145">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:12" hidden="1">
+    <row r="146" spans="3:12">
       <c r="C146">
         <v>1E-3</v>
       </c>
@@ -8675,7 +8678,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:12" hidden="1">
+    <row r="147" spans="3:12">
       <c r="C147">
         <v>2E-3</v>
       </c>
@@ -8709,7 +8712,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:12" hidden="1">
+    <row r="148" spans="3:12">
       <c r="C148">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8743,7 +8746,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:12" hidden="1">
+    <row r="149" spans="3:12">
       <c r="C149">
         <v>0</v>
       </c>
@@ -8777,7 +8780,7 @@
         <v>87.710927857934607</v>
       </c>
     </row>
-    <row r="150" spans="3:12" hidden="1">
+    <row r="150" spans="3:12">
       <c r="C150">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8811,7 +8814,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:12" hidden="1">
+    <row r="151" spans="3:12">
       <c r="C151">
         <v>1E-3</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:12" hidden="1">
+    <row r="152" spans="3:12">
       <c r="C152">
         <v>2E-3</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:12" hidden="1">
+    <row r="153" spans="3:12">
       <c r="C153">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:12" hidden="1">
+    <row r="154" spans="3:12">
       <c r="C154">
         <v>0</v>
       </c>
@@ -8947,7 +8950,7 @@
         <v>85.730415347524257</v>
       </c>
     </row>
-    <row r="155" spans="3:12" hidden="1">
+    <row r="155" spans="3:12">
       <c r="C155">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8981,7 +8984,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:12" hidden="1">
+    <row r="156" spans="3:12">
       <c r="C156">
         <v>1E-3</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:12" hidden="1">
+    <row r="157" spans="3:12">
       <c r="C157">
         <v>2E-3</v>
       </c>
@@ -9049,7 +9052,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:12" hidden="1">
+    <row r="158" spans="3:12">
       <c r="C158">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:12" hidden="1">
+    <row r="159" spans="3:12">
       <c r="C159">
         <v>0</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>86.676032010010545</v>
       </c>
     </row>
-    <row r="160" spans="3:12" hidden="1">
+    <row r="160" spans="3:12">
       <c r="C160">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:12" hidden="1">
+    <row r="161" spans="3:12">
       <c r="C161">
         <v>1E-3</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:12" hidden="1">
+    <row r="162" spans="3:12">
       <c r="C162">
         <v>2E-3</v>
       </c>
@@ -9219,7 +9222,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:12" hidden="1">
+    <row r="163" spans="3:12">
       <c r="C163">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:12" hidden="1">
+    <row r="164" spans="3:12">
       <c r="C164">
         <v>0</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>87.214122541387127</v>
       </c>
     </row>
-    <row r="165" spans="3:12" hidden="1">
+    <row r="165" spans="3:12">
       <c r="C165">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:12" hidden="1">
+    <row r="166" spans="3:12">
       <c r="C166">
         <v>1E-3</v>
       </c>
@@ -9355,7 +9358,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:12" hidden="1">
+    <row r="167" spans="3:12">
       <c r="C167">
         <v>2E-3</v>
       </c>
@@ -9389,7 +9392,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:12" hidden="1">
+    <row r="168" spans="3:12">
       <c r="C168">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9423,7 +9426,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:12" hidden="1">
+    <row r="169" spans="3:12">
       <c r="C169">
         <v>0</v>
       </c>
@@ -9457,7 +9460,7 @@
         <v>85.668295624779788</v>
       </c>
     </row>
-    <row r="170" spans="3:12" hidden="1">
+    <row r="170" spans="3:12">
       <c r="C170">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:12" hidden="1">
+    <row r="171" spans="3:12">
       <c r="C171">
         <v>1E-3</v>
       </c>
@@ -9525,7 +9528,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:12" hidden="1">
+    <row r="172" spans="3:12">
       <c r="C172">
         <v>2E-3</v>
       </c>
@@ -9559,7 +9562,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:12" hidden="1">
+    <row r="173" spans="3:12">
       <c r="C173">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9763,7 +9766,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:12" hidden="1">
+    <row r="179" spans="3:12">
       <c r="C179">
         <v>0</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>89.019097939149503</v>
       </c>
     </row>
-    <row r="180" spans="3:12" hidden="1">
+    <row r="180" spans="3:12">
       <c r="C180">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:12" hidden="1">
+    <row r="181" spans="3:12">
       <c r="C181">
         <v>1E-3</v>
       </c>
@@ -9865,7 +9868,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:12" hidden="1">
+    <row r="182" spans="3:12">
       <c r="C182">
         <v>2E-3</v>
       </c>
@@ -9899,7 +9902,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:12" hidden="1">
+    <row r="183" spans="3:12">
       <c r="C183">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9933,7 +9936,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:12" hidden="1">
+    <row r="184" spans="3:12">
       <c r="C184">
         <v>0</v>
       </c>
@@ -9967,7 +9970,7 @@
         <v>86.476283564882209</v>
       </c>
     </row>
-    <row r="185" spans="3:12" hidden="1">
+    <row r="185" spans="3:12">
       <c r="C185">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -10001,7 +10004,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:12" hidden="1">
+    <row r="186" spans="3:12">
       <c r="C186">
         <v>1E-3</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:12" hidden="1">
+    <row r="187" spans="3:12">
       <c r="C187">
         <v>2E-3</v>
       </c>
@@ -10069,7 +10072,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:12" hidden="1">
+    <row r="188" spans="3:12">
       <c r="C188">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10273,7 +10276,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:12" hidden="1">
+    <row r="194" spans="3:12">
       <c r="C194">
         <v>0</v>
       </c>
@@ -10307,7 +10310,7 @@
         <v>88.525015314892428</v>
       </c>
     </row>
-    <row r="195" spans="3:12" hidden="1">
+    <row r="195" spans="3:12">
       <c r="C195">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -10341,7 +10344,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:12" hidden="1">
+    <row r="196" spans="3:12">
       <c r="C196">
         <v>1E-3</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:12" hidden="1">
+    <row r="197" spans="3:12">
       <c r="C197">
         <v>2E-3</v>
       </c>
@@ -10409,7 +10412,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:12" hidden="1">
+    <row r="198" spans="3:12">
       <c r="C198">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10443,7 +10446,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:12" hidden="1">
+    <row r="199" spans="3:12">
       <c r="C199">
         <v>0</v>
       </c>
@@ -10477,7 +10480,7 @@
         <v>86.543608145245713</v>
       </c>
     </row>
-    <row r="200" spans="3:12" hidden="1">
+    <row r="200" spans="3:12">
       <c r="C200">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -10511,7 +10514,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:12" hidden="1">
+    <row r="201" spans="3:12">
       <c r="C201">
         <v>1E-3</v>
       </c>
@@ -10545,7 +10548,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:12" hidden="1">
+    <row r="202" spans="3:12">
       <c r="C202">
         <v>2E-3</v>
       </c>
@@ -10579,7 +10582,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:12" hidden="1">
+    <row r="203" spans="3:12">
       <c r="C203">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10783,7 +10786,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="3:12" hidden="1">
+    <row r="209" spans="3:12">
       <c r="C209">
         <v>0</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>88.050824924955876</v>
       </c>
     </row>
-    <row r="210" spans="3:12" hidden="1">
+    <row r="210" spans="3:12">
       <c r="C210">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="3:12" hidden="1">
+    <row r="211" spans="3:12">
       <c r="C211">
         <v>1E-3</v>
       </c>
@@ -10885,7 +10888,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="3:12" hidden="1">
+    <row r="212" spans="3:12">
       <c r="C212">
         <v>2E-3</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="3:12" hidden="1">
+    <row r="213" spans="3:12">
       <c r="C213">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10953,7 +10956,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="3:12" hidden="1">
+    <row r="214" spans="3:12">
       <c r="C214">
         <v>0</v>
       </c>
@@ -10987,7 +10990,7 @@
         <v>84.485949189336935</v>
       </c>
     </row>
-    <row r="215" spans="3:12" hidden="1">
+    <row r="215" spans="3:12">
       <c r="C215">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -11021,7 +11024,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="3:12" hidden="1">
+    <row r="216" spans="3:12">
       <c r="C216">
         <v>1E-3</v>
       </c>
@@ -11055,7 +11058,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="3:12" hidden="1">
+    <row r="217" spans="3:12">
       <c r="C217">
         <v>2E-3</v>
       </c>
@@ -11089,7 +11092,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="3:12" hidden="1">
+    <row r="218" spans="3:12">
       <c r="C218">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11123,7 +11126,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="3:12" hidden="1">
+    <row r="219" spans="3:12">
       <c r="C219">
         <v>0</v>
       </c>
@@ -11157,7 +11160,7 @@
         <v>86.157842272411159</v>
       </c>
     </row>
-    <row r="220" spans="3:12" hidden="1">
+    <row r="220" spans="3:12">
       <c r="C220">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -11191,7 +11194,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="3:12" hidden="1">
+    <row r="221" spans="3:12">
       <c r="C221">
         <v>1E-3</v>
       </c>
@@ -11225,7 +11228,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="3:12" hidden="1">
+    <row r="222" spans="3:12">
       <c r="C222">
         <v>2E-3</v>
       </c>
@@ -11259,7 +11262,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="3:12" hidden="1">
+    <row r="223" spans="3:12">
       <c r="C223">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="3:12" hidden="1">
+    <row r="224" spans="3:12">
       <c r="C224">
         <v>0</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>86.995578677820859</v>
       </c>
     </row>
-    <row r="225" spans="3:12" hidden="1">
+    <row r="225" spans="3:12">
       <c r="C225">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -11361,7 +11364,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="3:12" hidden="1">
+    <row r="226" spans="3:12">
       <c r="C226">
         <v>1E-3</v>
       </c>
@@ -11395,7 +11398,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="3:12" hidden="1">
+    <row r="227" spans="3:12">
       <c r="C227">
         <v>2E-3</v>
       </c>
@@ -11429,7 +11432,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="3:12" hidden="1">
+    <row r="228" spans="3:12">
       <c r="C228">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11463,7 +11466,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="3:12" hidden="1">
+    <row r="229" spans="3:12">
       <c r="C229">
         <v>0</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>84.590115550437218</v>
       </c>
     </row>
-    <row r="230" spans="3:12" hidden="1">
+    <row r="230" spans="3:12">
       <c r="C230">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -11531,7 +11534,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="3:12" hidden="1">
+    <row r="231" spans="3:12">
       <c r="C231">
         <v>1E-3</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="3:12" hidden="1">
+    <row r="232" spans="3:12">
       <c r="C232">
         <v>2E-3</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="3:12" hidden="1">
+    <row r="233" spans="3:12">
       <c r="C233">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="3:12" hidden="1">
+    <row r="234" spans="3:12">
       <c r="C234">
         <v>0</v>
       </c>
@@ -11667,7 +11670,7 @@
         <v>85.610486961279648</v>
       </c>
     </row>
-    <row r="235" spans="3:12" hidden="1">
+    <row r="235" spans="3:12">
       <c r="C235">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -11701,7 +11704,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="3:12" hidden="1">
+    <row r="236" spans="3:12">
       <c r="C236">
         <v>1E-3</v>
       </c>
@@ -11735,7 +11738,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="3:12" hidden="1">
+    <row r="237" spans="3:12">
       <c r="C237">
         <v>2E-3</v>
       </c>
@@ -11769,7 +11772,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="3:12" hidden="1">
+    <row r="238" spans="3:12">
       <c r="C238">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11803,7 +11806,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="3:12" hidden="1">
+    <row r="239" spans="3:12">
       <c r="C239">
         <v>0</v>
       </c>
@@ -11837,7 +11840,7 @@
         <v>86.175214088503736</v>
       </c>
     </row>
-    <row r="240" spans="3:12" hidden="1">
+    <row r="240" spans="3:12">
       <c r="C240">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -11871,7 +11874,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="3:12" hidden="1">
+    <row r="241" spans="3:12">
       <c r="C241">
         <v>1E-3</v>
       </c>
@@ -11905,7 +11908,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="3:12" hidden="1">
+    <row r="242" spans="3:12">
       <c r="C242">
         <v>2E-3</v>
       </c>
@@ -11939,7 +11942,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="3:12" hidden="1">
+    <row r="243" spans="3:12">
       <c r="C243">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11973,7 +11976,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="3:12" hidden="1">
+    <row r="244" spans="3:12">
       <c r="C244">
         <v>0</v>
       </c>
@@ -12007,7 +12010,7 @@
         <v>84.314257284158231</v>
       </c>
     </row>
-    <row r="245" spans="3:12" hidden="1">
+    <row r="245" spans="3:12">
       <c r="C245">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -12041,7 +12044,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="3:12" hidden="1">
+    <row r="246" spans="3:12">
       <c r="C246">
         <v>1E-3</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="3:12" hidden="1">
+    <row r="247" spans="3:12">
       <c r="C247">
         <v>2E-3</v>
       </c>
@@ -12109,7 +12112,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="3:12" hidden="1">
+    <row r="248" spans="3:12">
       <c r="C248">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="3:12" hidden="1">
+    <row r="249" spans="3:12">
       <c r="C249">
         <v>0</v>
       </c>
@@ -12177,7 +12180,7 @@
         <v>85.114576421832538</v>
       </c>
     </row>
-    <row r="250" spans="3:12" hidden="1">
+    <row r="250" spans="3:12">
       <c r="C250">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -12211,7 +12214,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="3:12" hidden="1">
+    <row r="251" spans="3:12">
       <c r="C251">
         <v>1E-3</v>
       </c>
@@ -12245,7 +12248,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="3:12" hidden="1">
+    <row r="252" spans="3:12">
       <c r="C252">
         <v>2E-3</v>
       </c>
@@ -12279,7 +12282,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="3:12" hidden="1">
+    <row r="253" spans="3:12">
       <c r="C253">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12313,7 +12316,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="3:12" hidden="1">
+    <row r="254" spans="3:12">
       <c r="C254">
         <v>0</v>
       </c>
@@ -12347,7 +12350,7 @@
         <v>85.700657121007339</v>
       </c>
     </row>
-    <row r="255" spans="3:12" hidden="1">
+    <row r="255" spans="3:12">
       <c r="C255">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -12381,7 +12384,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="3:12" hidden="1">
+    <row r="256" spans="3:12">
       <c r="C256">
         <v>1E-3</v>
       </c>
@@ -12415,7 +12418,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="3:12" hidden="1">
+    <row r="257" spans="3:12">
       <c r="C257">
         <v>2E-3</v>
       </c>
@@ -12449,7 +12452,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="3:12" hidden="1">
+    <row r="258" spans="3:12">
       <c r="C258">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12483,7 +12486,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="3:12" hidden="1">
+    <row r="259" spans="3:12">
       <c r="C259">
         <v>0</v>
       </c>
@@ -12517,7 +12520,7 @@
         <v>84.995427322334606</v>
       </c>
     </row>
-    <row r="260" spans="3:12" hidden="1">
+    <row r="260" spans="3:12">
       <c r="C260">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -12551,7 +12554,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="3:12" hidden="1">
+    <row r="261" spans="3:12">
       <c r="C261">
         <v>1E-3</v>
       </c>
@@ -12585,7 +12588,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="3:12" hidden="1">
+    <row r="262" spans="3:12">
       <c r="C262">
         <v>2E-3</v>
       </c>
@@ -12619,7 +12622,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="3:12" hidden="1">
+    <row r="263" spans="3:12">
       <c r="C263">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12823,7 +12826,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="3:12" hidden="1">
+    <row r="269" spans="3:12">
       <c r="C269">
         <v>0</v>
       </c>
@@ -12857,7 +12860,7 @@
         <v>87.358359076599555</v>
       </c>
     </row>
-    <row r="270" spans="3:12" hidden="1">
+    <row r="270" spans="3:12">
       <c r="C270">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -12891,7 +12894,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="3:12" hidden="1">
+    <row r="271" spans="3:12">
       <c r="C271">
         <v>1E-3</v>
       </c>
@@ -12925,7 +12928,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="3:12" hidden="1">
+    <row r="272" spans="3:12">
       <c r="C272">
         <v>2E-3</v>
       </c>
@@ -12959,7 +12962,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="3:12" hidden="1">
+    <row r="273" spans="3:12">
       <c r="C273">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12993,7 +12996,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="3:12" hidden="1">
+    <row r="274" spans="3:12">
       <c r="C274">
         <v>0</v>
       </c>
@@ -13027,7 +13030,7 @@
         <v>85.136575793327907</v>
       </c>
     </row>
-    <row r="275" spans="3:12" hidden="1">
+    <row r="275" spans="3:12">
       <c r="C275">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -13061,7 +13064,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="3:12" hidden="1">
+    <row r="276" spans="3:12">
       <c r="C276">
         <v>1E-3</v>
       </c>
@@ -13095,7 +13098,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="3:12" hidden="1">
+    <row r="277" spans="3:12">
       <c r="C277">
         <v>2E-3</v>
       </c>
@@ -13129,7 +13132,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="3:12" hidden="1">
+    <row r="278" spans="3:12">
       <c r="C278">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -13333,7 +13336,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="3:12" hidden="1">
+    <row r="284" spans="3:12">
       <c r="C284">
         <v>0</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>86.779516383630423</v>
       </c>
     </row>
-    <row r="285" spans="3:12" hidden="1">
+    <row r="285" spans="3:12">
       <c r="C285">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -13401,7 +13404,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="3:12" hidden="1">
+    <row r="286" spans="3:12">
       <c r="C286">
         <v>1E-3</v>
       </c>
@@ -13435,7 +13438,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="3:12" hidden="1">
+    <row r="287" spans="3:12">
       <c r="C287">
         <v>2E-3</v>
       </c>
@@ -13469,7 +13472,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="3:12" hidden="1">
+    <row r="288" spans="3:12">
       <c r="C288">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -13503,7 +13506,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="3:12" hidden="1">
+    <row r="289" spans="3:12">
       <c r="C289">
         <v>0</v>
       </c>
@@ -13537,7 +13540,7 @@
         <v>84.999016697844127</v>
       </c>
     </row>
-    <row r="290" spans="3:12" hidden="1">
+    <row r="290" spans="3:12">
       <c r="C290">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -13571,7 +13574,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="3:12" hidden="1">
+    <row r="291" spans="3:12">
       <c r="C291">
         <v>1E-3</v>
       </c>
@@ -13605,7 +13608,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="3:12" hidden="1">
+    <row r="292" spans="3:12">
       <c r="C292">
         <v>2E-3</v>
       </c>
@@ -13639,7 +13642,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="3:12" hidden="1">
+    <row r="293" spans="3:12">
       <c r="C293">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -13843,7 +13846,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="3:12" hidden="1">
+    <row r="299" spans="3:12">
       <c r="C299">
         <v>0</v>
       </c>
@@ -13877,7 +13880,7 @@
         <v>86.32723340384014</v>
       </c>
     </row>
-    <row r="300" spans="3:12" hidden="1">
+    <row r="300" spans="3:12">
       <c r="C300">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="3:12" hidden="1">
+    <row r="301" spans="3:12">
       <c r="C301">
         <v>1E-3</v>
       </c>
@@ -13945,7 +13948,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="3:12" hidden="1">
+    <row r="302" spans="3:12">
       <c r="C302">
         <v>2E-3</v>
       </c>
@@ -13979,7 +13982,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="3:12" hidden="1">
+    <row r="303" spans="3:12">
       <c r="C303">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -14013,7 +14016,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="3:12" hidden="1">
+    <row r="304" spans="3:12">
       <c r="C304">
         <v>0</v>
       </c>
@@ -14047,7 +14050,7 @@
         <v>81.208782831059011</v>
       </c>
     </row>
-    <row r="305" spans="3:12" hidden="1">
+    <row r="305" spans="3:12">
       <c r="C305">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -14081,7 +14084,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="3:12" hidden="1">
+    <row r="306" spans="3:12">
       <c r="C306">
         <v>1E-3</v>
       </c>
@@ -14115,7 +14118,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="3:12" hidden="1">
+    <row r="307" spans="3:12">
       <c r="C307">
         <v>2E-3</v>
       </c>
@@ -14149,7 +14152,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="3:12" hidden="1">
+    <row r="308" spans="3:12">
       <c r="C308">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -14183,7 +14186,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="3:12" hidden="1">
+    <row r="309" spans="3:12">
       <c r="C309">
         <v>0</v>
       </c>
@@ -14217,7 +14220,7 @@
         <v>82.560118450188597</v>
       </c>
     </row>
-    <row r="310" spans="3:12" hidden="1">
+    <row r="310" spans="3:12">
       <c r="C310">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -14251,7 +14254,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="3:12" hidden="1">
+    <row r="311" spans="3:12">
       <c r="C311">
         <v>1E-3</v>
       </c>
@@ -14285,7 +14288,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="3:12" hidden="1">
+    <row r="312" spans="3:12">
       <c r="C312">
         <v>2E-3</v>
       </c>
@@ -14319,7 +14322,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="3:12" hidden="1">
+    <row r="313" spans="3:12">
       <c r="C313">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -14353,7 +14356,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="3:12" hidden="1">
+    <row r="314" spans="3:12">
       <c r="C314">
         <v>0</v>
       </c>
@@ -14387,7 +14390,7 @@
         <v>83.494407992262069</v>
       </c>
     </row>
-    <row r="315" spans="3:12" hidden="1">
+    <row r="315" spans="3:12">
       <c r="C315">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -14421,7 +14424,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="3:12" hidden="1">
+    <row r="316" spans="3:12">
       <c r="C316">
         <v>1E-3</v>
       </c>
@@ -14455,7 +14458,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="3:12" hidden="1">
+    <row r="317" spans="3:12">
       <c r="C317">
         <v>2E-3</v>
       </c>
@@ -14489,7 +14492,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="3:12" hidden="1">
+    <row r="318" spans="3:12">
       <c r="C318">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -14523,7 +14526,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="3:12" hidden="1">
+    <row r="319" spans="3:12">
       <c r="C319">
         <v>0</v>
       </c>
@@ -14557,7 +14560,7 @@
         <v>81.12642998482626</v>
       </c>
     </row>
-    <row r="320" spans="3:12" hidden="1">
+    <row r="320" spans="3:12">
       <c r="C320">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -14591,7 +14594,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="3:12" hidden="1">
+    <row r="321" spans="3:12">
       <c r="C321">
         <v>1E-3</v>
       </c>
@@ -14625,7 +14628,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="3:12" hidden="1">
+    <row r="322" spans="3:12">
       <c r="C322">
         <v>2E-3</v>
       </c>
@@ -14659,7 +14662,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="3:12" hidden="1">
+    <row r="323" spans="3:12">
       <c r="C323">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="3:12" hidden="1">
+    <row r="324" spans="3:12">
       <c r="C324">
         <v>0</v>
       </c>
@@ -14727,7 +14730,7 @@
         <v>82.060284483923439</v>
       </c>
     </row>
-    <row r="325" spans="3:12" hidden="1">
+    <row r="325" spans="3:12">
       <c r="C325">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -14761,7 +14764,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="3:12" hidden="1">
+    <row r="326" spans="3:12">
       <c r="C326">
         <v>1E-3</v>
       </c>
@@ -14795,7 +14798,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="3:12" hidden="1">
+    <row r="327" spans="3:12">
       <c r="C327">
         <v>2E-3</v>
       </c>
@@ -14829,7 +14832,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="3:12" hidden="1">
+    <row r="328" spans="3:12">
       <c r="C328">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -14863,7 +14866,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="3:12" hidden="1">
+    <row r="329" spans="3:12">
       <c r="C329">
         <v>0</v>
       </c>
@@ -14897,7 +14900,7 @@
         <v>82.849520854685892</v>
       </c>
     </row>
-    <row r="330" spans="3:12" hidden="1">
+    <row r="330" spans="3:12">
       <c r="C330">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -14931,7 +14934,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="3:12" hidden="1">
+    <row r="331" spans="3:12">
       <c r="C331">
         <v>1E-3</v>
       </c>
@@ -14965,7 +14968,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="3:12" hidden="1">
+    <row r="332" spans="3:12">
       <c r="C332">
         <v>2E-3</v>
       </c>
@@ -14999,7 +15002,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="3:12" hidden="1">
+    <row r="333" spans="3:12">
       <c r="C333">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -15033,7 +15036,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="3:12" hidden="1">
+    <row r="334" spans="3:12">
       <c r="C334">
         <v>0</v>
       </c>
@@ -15067,7 +15070,7 @@
         <v>80.870760738016202</v>
       </c>
     </row>
-    <row r="335" spans="3:12" hidden="1">
+    <row r="335" spans="3:12">
       <c r="C335">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -15101,7 +15104,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="3:12" hidden="1">
+    <row r="336" spans="3:12">
       <c r="C336">
         <v>1E-3</v>
       </c>
@@ -15135,7 +15138,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="3:12" hidden="1">
+    <row r="337" spans="3:12">
       <c r="C337">
         <v>2E-3</v>
       </c>
@@ -15169,7 +15172,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="3:12" hidden="1">
+    <row r="338" spans="3:12">
       <c r="C338">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -15203,7 +15206,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="3:12" hidden="1">
+    <row r="339" spans="3:12">
       <c r="C339">
         <v>0</v>
       </c>
@@ -15237,7 +15240,7 @@
         <v>81.667642615844372</v>
       </c>
     </row>
-    <row r="340" spans="3:12" hidden="1">
+    <row r="340" spans="3:12">
       <c r="C340">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -15271,7 +15274,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="3:12" hidden="1">
+    <row r="341" spans="3:12">
       <c r="C341">
         <v>1E-3</v>
       </c>
@@ -15305,7 +15308,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="3:12" hidden="1">
+    <row r="342" spans="3:12">
       <c r="C342">
         <v>2E-3</v>
       </c>
@@ -15339,7 +15342,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="3:12" hidden="1">
+    <row r="343" spans="3:12">
       <c r="C343">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -15373,7 +15376,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="3:12" hidden="1">
+    <row r="344" spans="3:12">
       <c r="C344">
         <v>0</v>
       </c>
@@ -15407,7 +15410,7 @@
         <v>82.415746121062199</v>
       </c>
     </row>
-    <row r="345" spans="3:12" hidden="1">
+    <row r="345" spans="3:12">
       <c r="C345">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -15441,7 +15444,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="3:12" hidden="1">
+    <row r="346" spans="3:12">
       <c r="C346">
         <v>1E-3</v>
       </c>
@@ -15475,7 +15478,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="3:12" hidden="1">
+    <row r="347" spans="3:12">
       <c r="C347">
         <v>2E-3</v>
       </c>
@@ -15509,7 +15512,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="3:12" hidden="1">
+    <row r="348" spans="3:12">
       <c r="C348">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -15543,7 +15546,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="3:12" hidden="1">
+    <row r="349" spans="3:12">
       <c r="C349">
         <v>0</v>
       </c>
@@ -15577,7 +15580,7 @@
         <v>80.579141170746894</v>
       </c>
     </row>
-    <row r="350" spans="3:12" hidden="1">
+    <row r="350" spans="3:12">
       <c r="C350">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -15611,7 +15614,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="3:12" hidden="1">
+    <row r="351" spans="3:12">
       <c r="C351">
         <v>1E-3</v>
       </c>
@@ -15645,7 +15648,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="3:12" hidden="1">
+    <row r="352" spans="3:12">
       <c r="C352">
         <v>2E-3</v>
       </c>
@@ -15679,7 +15682,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="3:12" hidden="1">
+    <row r="353" spans="3:12">
       <c r="C353">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -15883,7 +15886,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="3:12" hidden="1">
+    <row r="359" spans="3:12">
       <c r="C359">
         <v>0</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>83.339443175018346</v>
       </c>
     </row>
-    <row r="360" spans="3:12" hidden="1">
+    <row r="360" spans="3:12">
       <c r="C360">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -15951,7 +15954,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="3:12" hidden="1">
+    <row r="361" spans="3:12">
       <c r="C361">
         <v>1E-3</v>
       </c>
@@ -15985,7 +15988,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="3:12" hidden="1">
+    <row r="362" spans="3:12">
       <c r="C362">
         <v>2E-3</v>
       </c>
@@ -16019,7 +16022,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="3:12" hidden="1">
+    <row r="363" spans="3:12">
       <c r="C363">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -16053,7 +16056,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="3:12" hidden="1">
+    <row r="364" spans="3:12">
       <c r="C364">
         <v>0</v>
       </c>
@@ -16087,7 +16090,7 @@
         <v>80.529374793604305</v>
       </c>
     </row>
-    <row r="365" spans="3:12" hidden="1">
+    <row r="365" spans="3:12">
       <c r="C365">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -16121,7 +16124,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="3:12" hidden="1">
+    <row r="366" spans="3:12">
       <c r="C366">
         <v>1E-3</v>
       </c>
@@ -16155,7 +16158,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="3:12" hidden="1">
+    <row r="367" spans="3:12">
       <c r="C367">
         <v>2E-3</v>
       </c>
@@ -16189,7 +16192,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="3:12" hidden="1">
+    <row r="368" spans="3:12">
       <c r="C368">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -16393,7 +16396,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="3:12" hidden="1">
+    <row r="374" spans="3:12">
       <c r="C374">
         <v>0</v>
       </c>
@@ -16427,7 +16430,7 @@
         <v>82.818759667414568</v>
       </c>
     </row>
-    <row r="375" spans="3:12" hidden="1">
+    <row r="375" spans="3:12">
       <c r="C375">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -16461,7 +16464,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="3:12" hidden="1">
+    <row r="376" spans="3:12">
       <c r="C376">
         <v>1E-3</v>
       </c>
@@ -16495,7 +16498,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="3:12" hidden="1">
+    <row r="377" spans="3:12">
       <c r="C377">
         <v>2E-3</v>
       </c>
@@ -16529,7 +16532,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="3:12" hidden="1">
+    <row r="378" spans="3:12">
       <c r="C378">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -16563,7 +16566,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="3:12" hidden="1">
+    <row r="379" spans="3:12">
       <c r="C379">
         <v>0</v>
       </c>
@@ -16597,7 +16600,7 @@
         <v>80.553427943377812</v>
       </c>
     </row>
-    <row r="380" spans="3:12" hidden="1">
+    <row r="380" spans="3:12">
       <c r="C380">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -16631,7 +16634,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="3:12" hidden="1">
+    <row r="381" spans="3:12">
       <c r="C381">
         <v>1E-3</v>
       </c>
@@ -16665,7 +16668,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="3:12" hidden="1">
+    <row r="382" spans="3:12">
       <c r="C382">
         <v>2E-3</v>
       </c>
@@ -16699,7 +16702,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="3:12" hidden="1">
+    <row r="383" spans="3:12">
       <c r="C383">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -16903,7 +16906,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="3:12" hidden="1">
+    <row r="389" spans="3:12">
       <c r="C389">
         <v>0</v>
       </c>
@@ -16937,7 +16940,7 @@
         <v>82.47577625305864</v>
       </c>
     </row>
-    <row r="390" spans="3:12" hidden="1">
+    <row r="390" spans="3:12">
       <c r="C390">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -16971,7 +16974,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="3:12" hidden="1">
+    <row r="391" spans="3:12">
       <c r="C391">
         <v>1E-3</v>
       </c>
@@ -17005,7 +17008,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="3:12" hidden="1">
+    <row r="392" spans="3:12">
       <c r="C392">
         <v>2E-3</v>
       </c>
@@ -17039,7 +17042,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="3:12" hidden="1">
+    <row r="393" spans="3:12">
       <c r="C393">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -17073,7 +17076,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="3:12" hidden="1">
+    <row r="394" spans="3:12">
       <c r="C394">
         <v>0</v>
       </c>
@@ -17107,7 +17110,7 @@
         <v>84.251875681938571</v>
       </c>
     </row>
-    <row r="395" spans="3:12" hidden="1">
+    <row r="395" spans="3:12">
       <c r="C395">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -17141,7 +17144,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="3:12" hidden="1">
+    <row r="396" spans="3:12">
       <c r="C396">
         <v>1E-3</v>
       </c>
@@ -17175,7 +17178,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="3:12" hidden="1">
+    <row r="397" spans="3:12">
       <c r="C397">
         <v>2E-3</v>
       </c>
@@ -17209,7 +17212,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="3:12" hidden="1">
+    <row r="398" spans="3:12">
       <c r="C398">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -17243,7 +17246,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="3:12" hidden="1">
+    <row r="399" spans="3:12">
       <c r="C399">
         <v>0</v>
       </c>
@@ -17277,7 +17280,7 @@
         <v>87.232542424661943</v>
       </c>
     </row>
-    <row r="400" spans="3:12" hidden="1">
+    <row r="400" spans="3:12">
       <c r="C400">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -17311,7 +17314,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="3:12" hidden="1">
+    <row r="401" spans="3:12">
       <c r="C401">
         <v>1E-3</v>
       </c>
@@ -17345,7 +17348,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="3:12" hidden="1">
+    <row r="402" spans="3:12">
       <c r="C402">
         <v>2E-3</v>
       </c>
@@ -17379,7 +17382,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="3:12" hidden="1">
+    <row r="403" spans="3:12">
       <c r="C403">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -17413,7 +17416,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="3:12" hidden="1">
+    <row r="404" spans="3:12">
       <c r="C404">
         <v>0</v>
       </c>
@@ -17447,7 +17450,7 @@
         <v>88.793837170553843</v>
       </c>
     </row>
-    <row r="405" spans="3:12" hidden="1">
+    <row r="405" spans="3:12">
       <c r="C405">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -17481,7 +17484,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="3:12" hidden="1">
+    <row r="406" spans="3:12">
       <c r="C406">
         <v>1E-3</v>
       </c>
@@ -17515,7 +17518,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="3:12" hidden="1">
+    <row r="407" spans="3:12">
       <c r="C407">
         <v>2E-3</v>
       </c>
@@ -17549,7 +17552,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="3:12" hidden="1">
+    <row r="408" spans="3:12">
       <c r="C408">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -17583,7 +17586,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="3:12" hidden="1">
+    <row r="409" spans="3:12">
       <c r="C409">
         <v>0</v>
       </c>
@@ -17617,7 +17620,7 @@
         <v>85.743240465103412</v>
       </c>
     </row>
-    <row r="410" spans="3:12" hidden="1">
+    <row r="410" spans="3:12">
       <c r="C410">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -17651,7 +17654,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="3:12" hidden="1">
+    <row r="411" spans="3:12">
       <c r="C411">
         <v>1E-3</v>
       </c>
@@ -17685,7 +17688,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="3:12" hidden="1">
+    <row r="412" spans="3:12">
       <c r="C412">
         <v>2E-3</v>
       </c>
@@ -17719,7 +17722,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="3:12" hidden="1">
+    <row r="413" spans="3:12">
       <c r="C413">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -17753,7 +17756,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="3:12" hidden="1">
+    <row r="414" spans="3:12">
       <c r="C414">
         <v>0</v>
       </c>
@@ -17787,7 +17790,7 @@
         <v>87.418872498264818</v>
       </c>
     </row>
-    <row r="415" spans="3:12" hidden="1">
+    <row r="415" spans="3:12">
       <c r="C415">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -17821,7 +17824,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="3:12" hidden="1">
+    <row r="416" spans="3:12">
       <c r="C416">
         <v>1E-3</v>
       </c>
@@ -17855,7 +17858,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="3:12" hidden="1">
+    <row r="417" spans="3:12">
       <c r="C417">
         <v>2E-3</v>
       </c>
@@ -17889,7 +17892,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="3:12" hidden="1">
+    <row r="418" spans="3:12">
       <c r="C418">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -17923,7 +17926,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="3:12" hidden="1">
+    <row r="419" spans="3:12">
       <c r="C419">
         <v>0</v>
       </c>
@@ -17957,7 +17960,7 @@
         <v>88.148763034174735</v>
       </c>
     </row>
-    <row r="420" spans="3:12" hidden="1">
+    <row r="420" spans="3:12">
       <c r="C420">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -17991,7 +17994,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="3:12" hidden="1">
+    <row r="421" spans="3:12">
       <c r="C421">
         <v>1E-3</v>
       </c>
@@ -18025,7 +18028,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="3:12" hidden="1">
+    <row r="422" spans="3:12">
       <c r="C422">
         <v>2E-3</v>
       </c>
@@ -18059,7 +18062,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="3:12" hidden="1">
+    <row r="423" spans="3:12">
       <c r="C423">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -18093,7 +18096,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="3:12" hidden="1">
+    <row r="424" spans="3:12">
       <c r="C424">
         <v>0</v>
       </c>
@@ -18127,7 +18130,7 @@
         <v>85.97096432645273</v>
       </c>
     </row>
-    <row r="425" spans="3:12" hidden="1">
+    <row r="425" spans="3:12">
       <c r="C425">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -18161,7 +18164,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="3:12" hidden="1">
+    <row r="426" spans="3:12">
       <c r="C426">
         <v>1E-3</v>
       </c>
@@ -18195,7 +18198,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="3:12" hidden="1">
+    <row r="427" spans="3:12">
       <c r="C427">
         <v>2E-3</v>
       </c>
@@ -18229,7 +18232,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="3:12" hidden="1">
+    <row r="428" spans="3:12">
       <c r="C428">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -18263,7 +18266,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="3:12" hidden="1">
+    <row r="429" spans="3:12">
       <c r="C429">
         <v>0</v>
       </c>
@@ -18297,7 +18300,7 @@
         <v>87.089042299620786</v>
       </c>
     </row>
-    <row r="430" spans="3:12" hidden="1">
+    <row r="430" spans="3:12">
       <c r="C430">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -18331,7 +18334,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="3:12" hidden="1">
+    <row r="431" spans="3:12">
       <c r="C431">
         <v>1E-3</v>
       </c>
@@ -18365,7 +18368,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="3:12" hidden="1">
+    <row r="432" spans="3:12">
       <c r="C432">
         <v>2E-3</v>
       </c>
@@ -18399,7 +18402,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="3:12" hidden="1">
+    <row r="433" spans="3:12">
       <c r="C433">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -18433,7 +18436,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="3:12" hidden="1">
+    <row r="434" spans="3:12">
       <c r="C434">
         <v>0</v>
       </c>
@@ -18467,7 +18470,7 @@
         <v>87.635580862806705</v>
       </c>
     </row>
-    <row r="435" spans="3:12" hidden="1">
+    <row r="435" spans="3:12">
       <c r="C435">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -18501,7 +18504,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="3:12" hidden="1">
+    <row r="436" spans="3:12">
       <c r="C436">
         <v>1E-3</v>
       </c>
@@ -18535,7 +18538,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="3:12" hidden="1">
+    <row r="437" spans="3:12">
       <c r="C437">
         <v>2E-3</v>
       </c>
@@ -18569,7 +18572,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="3:12" hidden="1">
+    <row r="438" spans="3:12">
       <c r="C438">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -18603,7 +18606,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="3:12" hidden="1">
+    <row r="439" spans="3:12">
       <c r="C439">
         <v>0</v>
       </c>
@@ -18637,7 +18640,7 @@
         <v>85.23208694203754</v>
       </c>
     </row>
-    <row r="440" spans="3:12" hidden="1">
+    <row r="440" spans="3:12">
       <c r="C440">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -18671,7 +18674,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="3:12" hidden="1">
+    <row r="441" spans="3:12">
       <c r="C441">
         <v>1E-3</v>
       </c>
@@ -18705,7 +18708,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="3:12" hidden="1">
+    <row r="442" spans="3:12">
       <c r="C442">
         <v>2E-3</v>
       </c>
@@ -18739,7 +18742,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="3:12" hidden="1">
+    <row r="443" spans="3:12">
       <c r="C443">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -18943,7 +18946,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="3:12" hidden="1">
+    <row r="449" spans="3:12">
       <c r="C449">
         <v>0</v>
       </c>
@@ -18977,7 +18980,7 @@
         <v>89.430572235715914</v>
       </c>
     </row>
-    <row r="450" spans="3:12" hidden="1">
+    <row r="450" spans="3:12">
       <c r="C450">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -19011,7 +19014,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="3:12" hidden="1">
+    <row r="451" spans="3:12">
       <c r="C451">
         <v>1E-3</v>
       </c>
@@ -19045,7 +19048,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="3:12" hidden="1">
+    <row r="452" spans="3:12">
       <c r="C452">
         <v>2E-3</v>
       </c>
@@ -19079,7 +19082,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="3:12" hidden="1">
+    <row r="453" spans="3:12">
       <c r="C453">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -19113,7 +19116,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="3:12" hidden="1">
+    <row r="454" spans="3:12">
       <c r="C454">
         <v>0</v>
       </c>
@@ -19147,7 +19150,7 @@
         <v>86.576788006538209</v>
       </c>
     </row>
-    <row r="455" spans="3:12" hidden="1">
+    <row r="455" spans="3:12">
       <c r="C455">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -19181,7 +19184,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="3:12" hidden="1">
+    <row r="456" spans="3:12">
       <c r="C456">
         <v>1E-3</v>
       </c>
@@ -19215,7 +19218,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="3:12" hidden="1">
+    <row r="457" spans="3:12">
       <c r="C457">
         <v>2E-3</v>
       </c>
@@ -19249,7 +19252,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="3:12" hidden="1">
+    <row r="458" spans="3:12">
       <c r="C458">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -19453,7 +19456,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="3:12" hidden="1">
+    <row r="464" spans="3:12">
       <c r="C464">
         <v>0</v>
       </c>
@@ -19487,7 +19490,7 @@
         <v>89.023994475181112</v>
       </c>
     </row>
-    <row r="465" spans="3:12" hidden="1">
+    <row r="465" spans="3:12">
       <c r="C465">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -19521,7 +19524,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="3:12" hidden="1">
+    <row r="466" spans="3:12">
       <c r="C466">
         <v>1E-3</v>
       </c>
@@ -19555,7 +19558,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="3:12" hidden="1">
+    <row r="467" spans="3:12">
       <c r="C467">
         <v>2E-3</v>
       </c>
@@ -19589,7 +19592,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="3:12" hidden="1">
+    <row r="468" spans="3:12">
       <c r="C468">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -19623,7 +19626,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="3:12" hidden="1">
+    <row r="469" spans="3:12">
       <c r="C469">
         <v>0</v>
       </c>
@@ -19657,7 +19660,7 @@
         <v>86.816182072881901</v>
       </c>
     </row>
-    <row r="470" spans="3:12" hidden="1">
+    <row r="470" spans="3:12">
       <c r="C470">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -19691,7 +19694,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="3:12" hidden="1">
+    <row r="471" spans="3:12">
       <c r="C471">
         <v>1E-3</v>
       </c>
@@ -19725,7 +19728,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="3:12" hidden="1">
+    <row r="472" spans="3:12">
       <c r="C472">
         <v>2E-3</v>
       </c>
@@ -19759,7 +19762,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="3:12" hidden="1">
+    <row r="473" spans="3:12">
       <c r="C473">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -19963,7 +19966,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="3:12" hidden="1">
+    <row r="479" spans="3:12">
       <c r="C479">
         <v>0</v>
       </c>
@@ -19997,7 +20000,7 @@
         <v>88.536228833884607</v>
       </c>
     </row>
-    <row r="480" spans="3:12" hidden="1">
+    <row r="480" spans="3:12">
       <c r="C480">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -20031,7 +20034,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="3:12" hidden="1">
+    <row r="481" spans="3:12">
       <c r="C481">
         <v>1E-3</v>
       </c>
@@ -20065,7 +20068,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="3:12" hidden="1">
+    <row r="482" spans="3:12">
       <c r="C482">
         <v>2E-3</v>
       </c>
@@ -20099,7 +20102,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="3:12" hidden="1">
+    <row r="483" spans="3:12">
       <c r="C483">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -20133,7 +20136,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="3:12" hidden="1">
+    <row r="484" spans="3:12">
       <c r="C484">
         <v>0</v>
       </c>
@@ -20167,7 +20170,7 @@
         <v>84.903636242462738</v>
       </c>
     </row>
-    <row r="485" spans="3:12" hidden="1">
+    <row r="485" spans="3:12">
       <c r="C485">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -20201,7 +20204,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="3:12" hidden="1">
+    <row r="486" spans="3:12">
       <c r="C486">
         <v>1E-3</v>
       </c>
@@ -20235,7 +20238,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="3:12" hidden="1">
+    <row r="487" spans="3:12">
       <c r="C487">
         <v>2E-3</v>
       </c>
@@ -20269,7 +20272,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="3:12" hidden="1">
+    <row r="488" spans="3:12">
       <c r="C488">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -20303,7 +20306,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="3:12" hidden="1">
+    <row r="489" spans="3:12">
       <c r="C489">
         <v>0</v>
       </c>
@@ -20337,7 +20340,7 @@
         <v>86.880003161172809</v>
       </c>
     </row>
-    <row r="490" spans="3:12" hidden="1">
+    <row r="490" spans="3:12">
       <c r="C490">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -20371,7 +20374,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="3:12" hidden="1">
+    <row r="491" spans="3:12">
       <c r="C491">
         <v>1E-3</v>
       </c>
@@ -20405,7 +20408,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="3:12" hidden="1">
+    <row r="492" spans="3:12">
       <c r="C492">
         <v>2E-3</v>
       </c>
@@ -20439,7 +20442,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="3:12" hidden="1">
+    <row r="493" spans="3:12">
       <c r="C493">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -20473,7 +20476,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="3:12" hidden="1">
+    <row r="494" spans="3:12">
       <c r="C494">
         <v>0</v>
       </c>
@@ -20507,7 +20510,7 @@
         <v>87.766232310922277</v>
       </c>
     </row>
-    <row r="495" spans="3:12" hidden="1">
+    <row r="495" spans="3:12">
       <c r="C495">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -20541,7 +20544,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="3:12" hidden="1">
+    <row r="496" spans="3:12">
       <c r="C496">
         <v>1E-3</v>
       </c>
@@ -20575,7 +20578,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="3:12" hidden="1">
+    <row r="497" spans="3:12">
       <c r="C497">
         <v>2E-3</v>
       </c>
@@ -20609,7 +20612,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="3:12" hidden="1">
+    <row r="498" spans="3:12">
       <c r="C498">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -20643,7 +20646,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="3:12" hidden="1">
+    <row r="499" spans="3:12">
       <c r="C499">
         <v>0</v>
       </c>
@@ -20677,7 +20680,7 @@
         <v>85.270075950853908</v>
       </c>
     </row>
-    <row r="500" spans="3:12" hidden="1">
+    <row r="500" spans="3:12">
       <c r="C500">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -20711,7 +20714,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="3:12" hidden="1">
+    <row r="501" spans="3:12">
       <c r="C501">
         <v>1E-3</v>
       </c>
@@ -20745,7 +20748,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="3:12" hidden="1">
+    <row r="502" spans="3:12">
       <c r="C502">
         <v>2E-3</v>
       </c>
@@ -20779,7 +20782,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="3:12" hidden="1">
+    <row r="503" spans="3:12">
       <c r="C503">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -20813,7 +20816,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="3:12" hidden="1">
+    <row r="504" spans="3:12">
       <c r="C504">
         <v>0</v>
       </c>
@@ -20847,7 +20850,7 @@
         <v>86.421111555520625</v>
       </c>
     </row>
-    <row r="505" spans="3:12" hidden="1">
+    <row r="505" spans="3:12">
       <c r="C505">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -20881,7 +20884,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="3:12" hidden="1">
+    <row r="506" spans="3:12">
       <c r="C506">
         <v>1E-3</v>
       </c>
@@ -20915,7 +20918,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="3:12" hidden="1">
+    <row r="507" spans="3:12">
       <c r="C507">
         <v>2E-3</v>
       </c>
@@ -20949,7 +20952,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="3:12" hidden="1">
+    <row r="508" spans="3:12">
       <c r="C508">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -20983,7 +20986,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="3:12" hidden="1">
+    <row r="509" spans="3:12">
       <c r="C509">
         <v>0</v>
       </c>
@@ -21017,7 +21020,7 @@
         <v>86.967025909401443</v>
       </c>
     </row>
-    <row r="510" spans="3:12" hidden="1">
+    <row r="510" spans="3:12">
       <c r="C510">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -21051,7 +21054,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="3:12" hidden="1">
+    <row r="511" spans="3:12">
       <c r="C511">
         <v>1E-3</v>
       </c>
@@ -21085,7 +21088,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="3:12" hidden="1">
+    <row r="512" spans="3:12">
       <c r="C512">
         <v>2E-3</v>
       </c>
@@ -21119,7 +21122,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="3:12" hidden="1">
+    <row r="513" spans="3:12">
       <c r="C513">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -21153,7 +21156,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="3:12" hidden="1">
+    <row r="514" spans="3:12">
       <c r="C514">
         <v>0</v>
       </c>
@@ -21187,7 +21190,7 @@
         <v>85.091514422604831</v>
       </c>
     </row>
-    <row r="515" spans="3:12" hidden="1">
+    <row r="515" spans="3:12">
       <c r="C515">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -21221,7 +21224,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="3:12" hidden="1">
+    <row r="516" spans="3:12">
       <c r="C516">
         <v>1E-3</v>
       </c>
@@ -21255,7 +21258,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="3:12" hidden="1">
+    <row r="517" spans="3:12">
       <c r="C517">
         <v>2E-3</v>
       </c>
@@ -21289,7 +21292,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="3:12" hidden="1">
+    <row r="518" spans="3:12">
       <c r="C518">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -21323,7 +21326,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="3:12" hidden="1">
+    <row r="519" spans="3:12">
       <c r="C519">
         <v>0</v>
       </c>
@@ -21357,7 +21360,7 @@
         <v>85.920853019303038</v>
       </c>
     </row>
-    <row r="520" spans="3:12" hidden="1">
+    <row r="520" spans="3:12">
       <c r="C520">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -21391,7 +21394,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="3:12" hidden="1">
+    <row r="521" spans="3:12">
       <c r="C521">
         <v>1E-3</v>
       </c>
@@ -21425,7 +21428,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="3:12" hidden="1">
+    <row r="522" spans="3:12">
       <c r="C522">
         <v>2E-3</v>
       </c>
@@ -21459,7 +21462,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="3:12" hidden="1">
+    <row r="523" spans="3:12">
       <c r="C523">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -21493,7 +21496,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="3:12" hidden="1">
+    <row r="524" spans="3:12">
       <c r="C524">
         <v>0</v>
       </c>
@@ -21527,7 +21530,7 @@
         <v>86.48273533286077</v>
       </c>
     </row>
-    <row r="525" spans="3:12" hidden="1">
+    <row r="525" spans="3:12">
       <c r="C525">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -21561,7 +21564,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="3:12" hidden="1">
+    <row r="526" spans="3:12">
       <c r="C526">
         <v>1E-3</v>
       </c>
@@ -21595,7 +21598,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="3:12" hidden="1">
+    <row r="527" spans="3:12">
       <c r="C527">
         <v>2E-3</v>
       </c>
@@ -21629,7 +21632,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="3:12" hidden="1">
+    <row r="528" spans="3:12">
       <c r="C528">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -21663,7 +21666,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="3:12" hidden="1">
+    <row r="529" spans="3:12">
       <c r="C529">
         <v>0</v>
       </c>
@@ -21697,7 +21700,7 @@
         <v>85.574530423435959</v>
       </c>
     </row>
-    <row r="530" spans="3:12" hidden="1">
+    <row r="530" spans="3:12">
       <c r="C530">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -21731,7 +21734,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="3:12" hidden="1">
+    <row r="531" spans="3:12">
       <c r="C531">
         <v>1E-3</v>
       </c>
@@ -21765,7 +21768,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="3:12" hidden="1">
+    <row r="532" spans="3:12">
       <c r="C532">
         <v>2E-3</v>
       </c>
@@ -21799,7 +21802,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="3:12" hidden="1">
+    <row r="533" spans="3:12">
       <c r="C533">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -22003,7 +22006,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="3:12" hidden="1">
+    <row r="539" spans="3:12">
       <c r="C539">
         <v>0</v>
       </c>
@@ -22037,7 +22040,7 @@
         <v>88.231450762525469</v>
       </c>
     </row>
-    <row r="540" spans="3:12" hidden="1">
+    <row r="540" spans="3:12">
       <c r="C540">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -22071,7 +22074,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="3:12" hidden="1">
+    <row r="541" spans="3:12">
       <c r="C541">
         <v>1E-3</v>
       </c>
@@ -22105,7 +22108,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="3:12" hidden="1">
+    <row r="542" spans="3:12">
       <c r="C542">
         <v>2E-3</v>
       </c>
@@ -22139,7 +22142,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="3:12" hidden="1">
+    <row r="543" spans="3:12">
       <c r="C543">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -22173,7 +22176,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="3:12" hidden="1">
+    <row r="544" spans="3:12">
       <c r="C544">
         <v>0</v>
       </c>
@@ -22207,7 +22210,7 @@
         <v>85.959041688875985</v>
       </c>
     </row>
-    <row r="545" spans="3:12" hidden="1">
+    <row r="545" spans="3:12">
       <c r="C545">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -22241,7 +22244,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="3:12" hidden="1">
+    <row r="546" spans="3:12">
       <c r="C546">
         <v>1E-3</v>
       </c>
@@ -22275,7 +22278,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="3:12" hidden="1">
+    <row r="547" spans="3:12">
       <c r="C547">
         <v>2E-3</v>
       </c>
@@ -22309,7 +22312,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="3:12" hidden="1">
+    <row r="548" spans="3:12">
       <c r="C548">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -22513,7 +22516,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="3:12" hidden="1">
+    <row r="554" spans="3:12">
       <c r="C554">
         <v>0</v>
       </c>
@@ -22547,7 +22550,7 @@
         <v>87.708044498806359</v>
       </c>
     </row>
-    <row r="555" spans="3:12" hidden="1">
+    <row r="555" spans="3:12">
       <c r="C555">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -22581,7 +22584,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="3:12" hidden="1">
+    <row r="556" spans="3:12">
       <c r="C556">
         <v>1E-3</v>
       </c>
@@ -22615,7 +22618,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="3:12" hidden="1">
+    <row r="557" spans="3:12">
       <c r="C557">
         <v>2E-3</v>
       </c>
@@ -22649,7 +22652,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="3:12" hidden="1">
+    <row r="558" spans="3:12">
       <c r="C558">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -22683,7 +22686,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="3:12" hidden="1">
+    <row r="559" spans="3:12">
       <c r="C559">
         <v>0</v>
       </c>
@@ -22717,7 +22720,7 @@
         <v>85.878462029815324</v>
       </c>
     </row>
-    <row r="560" spans="3:12" hidden="1">
+    <row r="560" spans="3:12">
       <c r="C560">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -22751,7 +22754,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="3:12" hidden="1">
+    <row r="561" spans="3:12">
       <c r="C561">
         <v>1E-3</v>
       </c>
@@ -22785,7 +22788,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="3:12" hidden="1">
+    <row r="562" spans="3:12">
       <c r="C562">
         <v>2E-3</v>
       </c>
@@ -22819,7 +22822,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="3:12" hidden="1">
+    <row r="563" spans="3:12">
       <c r="C563">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -23023,7 +23026,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="3:12" hidden="1">
+    <row r="569" spans="3:12">
       <c r="C569">
         <v>0</v>
       </c>
@@ -23057,7 +23060,7 @@
         <v>87.247698428453376</v>
       </c>
     </row>
-    <row r="570" spans="3:12" hidden="1">
+    <row r="570" spans="3:12">
       <c r="C570">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -23091,7 +23094,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="3:12" hidden="1">
+    <row r="571" spans="3:12">
       <c r="C571">
         <v>1E-3</v>
       </c>
@@ -23125,7 +23128,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="3:12" hidden="1">
+    <row r="572" spans="3:12">
       <c r="C572">
         <v>2E-3</v>
       </c>
@@ -23159,7 +23162,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="3:12" hidden="1">
+    <row r="573" spans="3:12">
       <c r="C573">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -23193,7 +23196,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="3:12" hidden="1">
+    <row r="574" spans="3:12">
       <c r="C574">
         <v>0</v>
       </c>
@@ -23227,7 +23230,7 @@
         <v>83.049509736162904</v>
       </c>
     </row>
-    <row r="575" spans="3:12" hidden="1">
+    <row r="575" spans="3:12">
       <c r="C575">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -23261,7 +23264,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="3:12" hidden="1">
+    <row r="576" spans="3:12">
       <c r="C576">
         <v>1E-3</v>
       </c>
@@ -23295,7 +23298,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="3:12" hidden="1">
+    <row r="577" spans="3:12">
       <c r="C577">
         <v>2E-3</v>
       </c>
@@ -23329,7 +23332,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="3:12" hidden="1">
+    <row r="578" spans="3:12">
       <c r="C578">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -23363,7 +23366,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="3:12" hidden="1">
+    <row r="579" spans="3:12">
       <c r="C579">
         <v>0</v>
       </c>
@@ -23397,7 +23400,7 @@
         <v>84.317968996291299</v>
       </c>
     </row>
-    <row r="580" spans="3:12" hidden="1">
+    <row r="580" spans="3:12">
       <c r="C580">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -23431,7 +23434,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="3:12" hidden="1">
+    <row r="581" spans="3:12">
       <c r="C581">
         <v>1E-3</v>
       </c>
@@ -23465,7 +23468,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="3:12" hidden="1">
+    <row r="582" spans="3:12">
       <c r="C582">
         <v>2E-3</v>
       </c>
@@ -23499,7 +23502,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="3:12" hidden="1">
+    <row r="583" spans="3:12">
       <c r="C583">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -23533,7 +23536,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="3:12" hidden="1">
+    <row r="584" spans="3:12">
       <c r="C584">
         <v>0</v>
       </c>
@@ -23567,7 +23570,7 @@
         <v>85.119840419287158</v>
       </c>
     </row>
-    <row r="585" spans="3:12" hidden="1">
+    <row r="585" spans="3:12">
       <c r="C585">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -23601,7 +23604,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="3:12" hidden="1">
+    <row r="586" spans="3:12">
       <c r="C586">
         <v>1E-3</v>
       </c>
@@ -23635,7 +23638,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="3:12" hidden="1">
+    <row r="587" spans="3:12">
       <c r="C587">
         <v>2E-3</v>
       </c>
@@ -23669,7 +23672,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="3:12" hidden="1">
+    <row r="588" spans="3:12">
       <c r="C588">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -23703,7 +23706,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="3:12" hidden="1">
+    <row r="589" spans="3:12">
       <c r="C589">
         <v>0</v>
       </c>
@@ -23737,7 +23740,7 @@
         <v>82.857150967263181</v>
       </c>
     </row>
-    <row r="590" spans="3:12" hidden="1">
+    <row r="590" spans="3:12">
       <c r="C590">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -23771,7 +23774,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="3:12" hidden="1">
+    <row r="591" spans="3:12">
       <c r="C591">
         <v>1E-3</v>
       </c>
@@ -23805,7 +23808,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="3:12" hidden="1">
+    <row r="592" spans="3:12">
       <c r="C592">
         <v>2E-3</v>
       </c>
@@ -23839,7 +23842,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="3:12" hidden="1">
+    <row r="593" spans="3:12">
       <c r="C593">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -23873,7 +23876,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="3:12" hidden="1">
+    <row r="594" spans="3:12">
       <c r="C594">
         <v>0</v>
       </c>
@@ -23907,7 +23910,7 @@
         <v>83.770703233445332</v>
       </c>
     </row>
-    <row r="595" spans="3:12" hidden="1">
+    <row r="595" spans="3:12">
       <c r="C595">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -23941,7 +23944,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="3:12" hidden="1">
+    <row r="596" spans="3:12">
       <c r="C596">
         <v>1E-3</v>
       </c>
@@ -23975,7 +23978,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="3:12" hidden="1">
+    <row r="597" spans="3:12">
       <c r="C597">
         <v>2E-3</v>
       </c>
@@ -24009,7 +24012,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="3:12" hidden="1">
+    <row r="598" spans="3:12">
       <c r="C598">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -24043,7 +24046,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="3:12" hidden="1">
+    <row r="599" spans="3:12">
       <c r="C599">
         <v>0</v>
       </c>
@@ -24077,7 +24080,7 @@
         <v>84.406718874473015</v>
       </c>
     </row>
-    <row r="600" spans="3:12" hidden="1">
+    <row r="600" spans="3:12">
       <c r="C600">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -24111,7 +24114,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="3:12" hidden="1">
+    <row r="601" spans="3:12">
       <c r="C601">
         <v>1E-3</v>
       </c>
@@ -24145,7 +24148,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="3:12" hidden="1">
+    <row r="602" spans="3:12">
       <c r="C602">
         <v>2E-3</v>
       </c>
@@ -24179,7 +24182,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="3:12" hidden="1">
+    <row r="603" spans="3:12">
       <c r="C603">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -24213,7 +24216,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="3:12" hidden="1">
+    <row r="604" spans="3:12">
       <c r="C604">
         <v>0</v>
       </c>
@@ -24247,7 +24250,7 @@
         <v>82.510753345375363</v>
       </c>
     </row>
-    <row r="605" spans="3:12" hidden="1">
+    <row r="605" spans="3:12">
       <c r="C605">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -24281,7 +24284,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="3:12" hidden="1">
+    <row r="606" spans="3:12">
       <c r="C606">
         <v>1E-3</v>
       </c>
@@ -24315,7 +24318,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="3:12" hidden="1">
+    <row r="607" spans="3:12">
       <c r="C607">
         <v>2E-3</v>
       </c>
@@ -24349,7 +24352,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="3:12" hidden="1">
+    <row r="608" spans="3:12">
       <c r="C608">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -24383,7 +24386,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="3:12" hidden="1">
+    <row r="609" spans="3:12">
       <c r="C609">
         <v>0</v>
       </c>
@@ -24417,7 +24420,7 @@
         <v>83.271982599692606</v>
       </c>
     </row>
-    <row r="610" spans="3:12" hidden="1">
+    <row r="610" spans="3:12">
       <c r="C610">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -24451,7 +24454,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="3:12" hidden="1">
+    <row r="611" spans="3:12">
       <c r="C611">
         <v>1E-3</v>
       </c>
@@ -24485,7 +24488,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="3:12" hidden="1">
+    <row r="612" spans="3:12">
       <c r="C612">
         <v>2E-3</v>
       </c>
@@ -24519,7 +24522,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="3:12" hidden="1">
+    <row r="613" spans="3:12">
       <c r="C613">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -24553,7 +24556,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="3:12" hidden="1">
+    <row r="614" spans="3:12">
       <c r="C614">
         <v>0</v>
       </c>
@@ -24587,7 +24590,7 @@
         <v>83.937998467696644</v>
       </c>
     </row>
-    <row r="615" spans="3:12" hidden="1">
+    <row r="615" spans="3:12">
       <c r="C615">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -24621,7 +24624,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="3:12" hidden="1">
+    <row r="616" spans="3:12">
       <c r="C616">
         <v>1E-3</v>
       </c>
@@ -24655,7 +24658,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="3:12" hidden="1">
+    <row r="617" spans="3:12">
       <c r="C617">
         <v>2E-3</v>
       </c>
@@ -24689,7 +24692,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="3:12" hidden="1">
+    <row r="618" spans="3:12">
       <c r="C618">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -24723,7 +24726,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="3:12" hidden="1">
+    <row r="619" spans="3:12">
       <c r="C619">
         <v>0</v>
       </c>
@@ -24757,7 +24760,7 @@
         <v>83.19087507495037</v>
       </c>
     </row>
-    <row r="620" spans="3:12" hidden="1">
+    <row r="620" spans="3:12">
       <c r="C620">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -24791,7 +24794,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="3:12" hidden="1">
+    <row r="621" spans="3:12">
       <c r="C621">
         <v>1E-3</v>
       </c>
@@ -24825,7 +24828,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="3:12" hidden="1">
+    <row r="622" spans="3:12">
       <c r="C622">
         <v>2E-3</v>
       </c>
@@ -24859,7 +24862,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="3:12" hidden="1">
+    <row r="623" spans="3:12">
       <c r="C623">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -25063,7 +25066,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="3:12" hidden="1">
+    <row r="629" spans="3:12">
       <c r="C629">
         <v>0</v>
       </c>
@@ -25097,7 +25100,7 @@
         <v>85.337621411459253</v>
       </c>
     </row>
-    <row r="630" spans="3:12" hidden="1">
+    <row r="630" spans="3:12">
       <c r="C630">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -25131,7 +25134,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="3:12" hidden="1">
+    <row r="631" spans="3:12">
       <c r="C631">
         <v>1E-3</v>
       </c>
@@ -25165,7 +25168,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="3:12" hidden="1">
+    <row r="632" spans="3:12">
       <c r="C632">
         <v>2E-3</v>
       </c>
@@ -25199,7 +25202,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="3:12" hidden="1">
+    <row r="633" spans="3:12">
       <c r="C633">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -25233,7 +25236,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="3:12" hidden="1">
+    <row r="634" spans="3:12">
       <c r="C634">
         <v>0</v>
       </c>
@@ -25267,7 +25270,7 @@
         <v>83.072921622791142</v>
       </c>
     </row>
-    <row r="635" spans="3:12" hidden="1">
+    <row r="635" spans="3:12">
       <c r="C635">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -25301,7 +25304,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="3:12" hidden="1">
+    <row r="636" spans="3:12">
       <c r="C636">
         <v>1E-3</v>
       </c>
@@ -25335,7 +25338,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="3:12" hidden="1">
+    <row r="637" spans="3:12">
       <c r="C637">
         <v>2E-3</v>
       </c>
@@ -25369,7 +25372,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="3:12" hidden="1">
+    <row r="638" spans="3:12">
       <c r="C638">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -25573,7 +25576,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="3:12" hidden="1">
+    <row r="644" spans="3:12">
       <c r="C644">
         <v>0</v>
       </c>
@@ -25607,7 +25610,7 @@
         <v>84.794924727489587</v>
       </c>
     </row>
-    <row r="645" spans="3:12" hidden="1">
+    <row r="645" spans="3:12">
       <c r="C645">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -25641,7 +25644,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="3:12" hidden="1">
+    <row r="646" spans="3:12">
       <c r="C646">
         <v>1E-3</v>
       </c>
@@ -25675,7 +25678,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="3:12" hidden="1">
+    <row r="647" spans="3:12">
       <c r="C647">
         <v>2E-3</v>
       </c>
@@ -25709,7 +25712,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="3:12" hidden="1">
+    <row r="648" spans="3:12">
       <c r="C648">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -25743,7 +25746,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="3:12" hidden="1">
+    <row r="649" spans="3:12">
       <c r="C649">
         <v>0</v>
       </c>
@@ -25777,7 +25780,7 @@
         <v>82.905241203409048</v>
       </c>
     </row>
-    <row r="650" spans="3:12" hidden="1">
+    <row r="650" spans="3:12">
       <c r="C650">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -25811,7 +25814,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="3:12" hidden="1">
+    <row r="651" spans="3:12">
       <c r="C651">
         <v>1E-3</v>
       </c>
@@ -25845,7 +25848,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="3:12" hidden="1">
+    <row r="652" spans="3:12">
       <c r="C652">
         <v>2E-3</v>
       </c>
@@ -25879,7 +25882,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="3:12" hidden="1">
+    <row r="653" spans="3:12">
       <c r="C653">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -26083,7 +26086,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="3:12" hidden="1">
+    <row r="659" spans="3:12">
       <c r="C659">
         <v>0</v>
       </c>
@@ -26117,7 +26120,7 @@
         <v>84.330852223278455</v>
       </c>
     </row>
-    <row r="660" spans="3:12" hidden="1">
+    <row r="660" spans="3:12">
       <c r="C660">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -26151,7 +26154,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="3:12" hidden="1">
+    <row r="661" spans="3:12">
       <c r="C661">
         <v>1E-3</v>
       </c>
@@ -26185,7 +26188,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="3:12" hidden="1">
+    <row r="662" spans="3:12">
       <c r="C662">
         <v>2E-3</v>
       </c>
@@ -26219,7 +26222,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="3:12" hidden="1">
+    <row r="663" spans="3:12">
       <c r="C663">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -26254,18 +26257,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C33:L663">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="45"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C33:L663"/>
   <conditionalFormatting sqref="T20:Z20">
     <cfRule type="colorScale" priority="13">
       <colorScale>
@@ -26431,8 +26423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CH124"/>
   <sheetViews>
-    <sheetView topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CG6" sqref="CG6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BC92" sqref="BC92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -27097,6 +27089,12 @@
       <c r="CF6">
         <v>96.965400000000002</v>
       </c>
+      <c r="CG6">
+        <v>666.1</v>
+      </c>
+      <c r="CH6">
+        <v>352.9</v>
+      </c>
     </row>
     <row r="7" spans="2:86">
       <c r="C7">
@@ -27305,6 +27303,12 @@
       <c r="CF7">
         <v>99.913700000000006</v>
       </c>
+      <c r="CG7">
+        <v>424.6</v>
+      </c>
+      <c r="CH7">
+        <v>229.9</v>
+      </c>
     </row>
     <row r="8" spans="2:86">
       <c r="C8">
@@ -27516,6 +27520,12 @@
       <c r="CF8">
         <v>84.460400000000007</v>
       </c>
+      <c r="CG8">
+        <v>101.2</v>
+      </c>
+      <c r="CH8">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="2:86">
       <c r="C9">
@@ -27724,6 +27734,12 @@
       <c r="CF9">
         <v>93.677899999999994</v>
       </c>
+      <c r="CG9">
+        <v>50.8</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" spans="2:86">
       <c r="C10">
@@ -27931,6 +27947,12 @@
       </c>
       <c r="CF10">
         <v>100</v>
+      </c>
+      <c r="CG10">
+        <v>4535.2</v>
+      </c>
+      <c r="CH10">
+        <v>2049.1</v>
       </c>
     </row>
     <row r="11" spans="2:86">

--- a/cob_surface_classification/common/files/experiments.xlsx
+++ b/cob_surface_classification/common/files/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="206" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="206" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="158">
   <si>
     <t>parameters</t>
   </si>
@@ -564,6 +564,33 @@
   <si>
     <t>n/a</t>
   </si>
+  <si>
+    <t>Avg. recall</t>
+  </si>
+  <si>
+    <t>Gauss</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t>Avg. recall/precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>Avg. precision</t>
+  </si>
 </sst>
 </file>
 
@@ -572,7 +599,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -618,6 +645,14 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -660,10 +695,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -678,8 +714,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1284,10 +1322,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="B2:AU663"/>
+  <dimension ref="B2:CE663"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL24" sqref="BL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1313,7 +1351,7 @@
     <col min="41" max="1007" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:66">
       <c r="K2" t="s">
         <v>41</v>
       </c>
@@ -1321,7 +1359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:66">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1332,12 +1370,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:66">
       <c r="K4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:66">
       <c r="C5" t="s">
         <v>46</v>
       </c>
@@ -1345,12 +1383,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:66">
       <c r="K6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:66">
       <c r="D7" t="s">
         <v>49</v>
       </c>
@@ -1358,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:66">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -1366,46 +1404,331 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:66">
       <c r="K9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:66">
       <c r="J11" t="s">
         <v>54</v>
       </c>
       <c r="K11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="AZ11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:66">
       <c r="K12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="AZ12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:66">
+      <c r="AX13">
+        <v>10</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ13" s="6">
+        <v>91.174553333333321</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB13" s="6">
+        <v>88.889213333333316</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD13" s="6">
+        <v>87.04676666666667</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF13" s="6">
+        <v>83.986646666666658</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH13" s="6">
+        <v>89.606246666666678</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ13" s="6">
+        <v>87.897593333333333</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL13" s="6">
+        <v>85.256526666666659</v>
+      </c>
+      <c r="BM13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN13" s="6"/>
+    </row>
+    <row r="14" spans="2:66">
       <c r="J14" t="s">
         <v>57</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="AW14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ14" s="6">
+        <v>84.680472380952381</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB14" s="6">
+        <v>86.663540000000012</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD14" s="6">
+        <v>85.754426666666674</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF14" s="6">
+        <v>80.272293333333351</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH14" s="6">
+        <v>86.326180000000008</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ14" s="6">
+        <v>86.499846666666656</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL14" s="6">
+        <v>83.538353333333333</v>
+      </c>
+      <c r="BM14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN14" s="6"/>
+    </row>
+    <row r="15" spans="2:66">
       <c r="J15" t="s">
         <v>58</v>
       </c>
       <c r="K15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="AX15">
+        <v>15</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ15" s="6">
+        <v>90.422006666666661</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB15" s="6">
+        <v>87.987053333333321</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD15" s="6">
+        <v>86.01936666666667</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF15" s="6">
+        <v>82.851166666666671</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH15" s="6">
+        <v>88.768679999999989</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ15" s="6">
+        <v>86.929346666666632</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL15" s="6">
+        <v>84.186066666666676</v>
+      </c>
+      <c r="BM15" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:66">
       <c r="K16">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="10:39">
+      <c r="AY16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ16" s="6">
+        <v>85.40446</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB16" s="6">
+        <v>87.42800666666669</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD16" s="6">
+        <v>86.117226666666667</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF16" s="6">
+        <v>80.617593333333332</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH16" s="6">
+        <v>87.422679999999986</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ16" s="6">
+        <v>87.01196666666668</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL16" s="6">
+        <v>83.810586666666666</v>
+      </c>
+      <c r="BM16" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="10:83">
+      <c r="AX17">
+        <v>20</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ17" s="6">
+        <v>89.775120000000015</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB17" s="6">
+        <v>87.20999333333333</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD17" s="6">
+        <v>85.240666666666655</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF17" s="6">
+        <v>81.958826666666667</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH17" s="6">
+        <v>88.014206666666681</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ17" s="6">
+        <v>86.138979999999989</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL17" s="6">
+        <v>83.308680000000024</v>
+      </c>
+      <c r="BM17" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="10:83">
       <c r="J18" t="s">
         <v>59</v>
       </c>
@@ -1418,8 +1741,54 @@
       <c r="AC18" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="10:39">
+      <c r="AY18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ18" s="6">
+        <v>85.641422857142842</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB18" s="6">
+        <v>87.55398666666666</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD18" s="6">
+        <v>86.176086666666649</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF18" s="6">
+        <v>81.161293333333333</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH18" s="6">
+        <v>87.62103333333333</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ18" s="6">
+        <v>87.089320000000015</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL18" s="6">
+        <v>83.961793333333347</v>
+      </c>
+      <c r="BM18" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN18" s="6"/>
+    </row>
+    <row r="19" spans="10:83">
       <c r="K19">
         <v>45</v>
       </c>
@@ -1469,8 +1838,57 @@
       <c r="AJ19" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="10:39">
+      <c r="AX19">
+        <v>35</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ19" s="6">
+        <v>90.945119999999989</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB19" s="6">
+        <v>88.65506000000002</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD19" s="6">
+        <v>86.783519999999996</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF19" s="6">
+        <v>83.67397333333335</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH19" s="6">
+        <v>89.388080000000002</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ19" s="6">
+        <v>87.648973333333331</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL19" s="6">
+        <v>84.977419999999981</v>
+      </c>
+      <c r="BM19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN19" s="6"/>
+    </row>
+    <row r="20" spans="10:83">
       <c r="K20">
         <v>60</v>
       </c>
@@ -1525,8 +1943,57 @@
         <v>85.429122877256646</v>
       </c>
       <c r="AK20" s="6"/>
-    </row>
-    <row r="21" spans="10:39">
+      <c r="AW20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ20" s="6">
+        <v>82.379989523809513</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB20" s="6">
+        <v>84.340206666666674</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD20" s="6">
+        <v>83.510613333333339</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF20" s="6">
+        <v>77.69913333333335</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH20" s="6">
+        <v>83.968979999999974</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ20" s="6">
+        <v>84.253266666666661</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL20" s="6">
+        <v>81.278346666666692</v>
+      </c>
+      <c r="BM20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN20" s="6"/>
+    </row>
+    <row r="21" spans="10:83">
       <c r="R21" s="8" t="s">
         <v>96</v>
       </c>
@@ -1582,8 +2049,56 @@
         <v>84.878510849849945</v>
       </c>
       <c r="AK21" s="6"/>
-    </row>
-    <row r="22" spans="10:39">
+      <c r="AX21">
+        <v>45</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ21" s="6">
+        <v>90.551246666666671</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB21" s="6">
+        <v>88.154046666666673</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD21" s="6">
+        <v>86.248826666666687</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF21" s="6">
+        <v>83.097253333333342</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH21" s="6">
+        <v>88.91467333333334</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ21" s="6">
+        <v>87.125386666666657</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL21" s="6">
+        <v>84.397473333333338</v>
+      </c>
+      <c r="BM21" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="10:83">
       <c r="J22" t="s">
         <v>60</v>
       </c>
@@ -1641,8 +2156,53 @@
         <v>84.399809446876489</v>
       </c>
       <c r="AK22" s="6"/>
-    </row>
-    <row r="23" spans="10:39">
+      <c r="AY22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ22" s="6">
+        <v>85.348445714285717</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB22" s="6">
+        <v>87.43874000000001</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD22" s="6">
+        <v>86.088379999999987</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF22" s="6">
+        <v>80.589506666666665</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH22" s="6">
+        <v>87.395320000000012</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ22" s="6">
+        <v>86.997553333333343</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL22" s="6">
+        <v>83.700426666666672</v>
+      </c>
+      <c r="BM22" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="10:83">
       <c r="K23">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1697,8 +2257,56 @@
         <v>83.855043198213409</v>
       </c>
       <c r="AK23" s="6"/>
-    </row>
-    <row r="24" spans="10:39">
+      <c r="AX23">
+        <v>60</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ23" s="6">
+        <v>89.875313333333324</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB23" s="6">
+        <v>87.277153333333345</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD23" s="6">
+        <v>85.274453333333341</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF23" s="6">
+        <v>82.025413333333347</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH23" s="6">
+        <v>88.086380000000005</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ23" s="6">
+        <v>86.191559999999996</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL23" s="6">
+        <v>83.376379999999997</v>
+      </c>
+      <c r="BM23" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="10:83">
       <c r="K24">
         <v>1E-3</v>
       </c>
@@ -1757,8 +2365,54 @@
         <v>84.684906295635955</v>
       </c>
       <c r="AK24" s="6"/>
-    </row>
-    <row r="25" spans="10:39">
+      <c r="AY24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ24" s="6">
+        <v>87.997920000000008</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB24" s="6">
+        <v>89.866586666666677</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD24" s="6">
+        <v>88.448746666666651</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF24" s="6">
+        <v>83.762540000000001</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH24" s="6">
+        <v>90.005593333333323</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ24" s="6">
+        <v>89.350313333333332</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL24" s="6">
+        <v>86.331960000000009</v>
+      </c>
+      <c r="BM24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN24" s="6"/>
+    </row>
+    <row r="25" spans="10:83">
       <c r="K25">
         <v>2E-3</v>
       </c>
@@ -1814,12 +2468,12 @@
       </c>
       <c r="AK25" s="6"/>
     </row>
-    <row r="26" spans="10:39">
+    <row r="26" spans="10:83">
       <c r="K26">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="10:39">
+    <row r="30" spans="10:83">
       <c r="O30" s="5" t="s">
         <v>61</v>
       </c>
@@ -1872,8 +2526,104 @@
         <v>64</v>
       </c>
       <c r="AM30" s="5"/>
-    </row>
-    <row r="31" spans="10:39">
+      <c r="AW30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC30">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE30">
+        <v>1</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI30">
+        <v>2</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK30">
+        <v>2</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM30">
+        <v>2</v>
+      </c>
+      <c r="BO30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU30">
+        <v>1</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>47</v>
+      </c>
+      <c r="BW30">
+        <v>1</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY30">
+        <v>1</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>50</v>
+      </c>
+      <c r="CA30">
+        <v>2</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC30">
+        <v>2</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>53</v>
+      </c>
+      <c r="CE30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="10:83">
       <c r="S31">
         <v>3</v>
       </c>
@@ -1898,8 +2648,50 @@
       <c r="AG31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="10:39">
+      <c r="BA31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>3</v>
+      </c>
+      <c r="BE31">
+        <v>5</v>
+      </c>
+      <c r="BG31">
+        <v>7</v>
+      </c>
+      <c r="BI31">
+        <v>3</v>
+      </c>
+      <c r="BK31">
+        <v>5</v>
+      </c>
+      <c r="BM31">
+        <v>7</v>
+      </c>
+      <c r="BS31">
+        <v>3</v>
+      </c>
+      <c r="BU31">
+        <v>3</v>
+      </c>
+      <c r="BW31">
+        <v>5</v>
+      </c>
+      <c r="BY31">
+        <v>7</v>
+      </c>
+      <c r="CA31">
+        <v>3</v>
+      </c>
+      <c r="CC31">
+        <v>5</v>
+      </c>
+      <c r="CE31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="10:83">
       <c r="P32" t="s">
         <v>66</v>
       </c>
@@ -1948,8 +2740,56 @@
       <c r="AE32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="3:47">
+      <c r="AX32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>157</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="3:83">
       <c r="C33" t="s">
         <v>68</v>
       </c>
@@ -1980,8 +2820,14 @@
       <c r="O33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="3:47">
+      <c r="AW33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:83">
       <c r="C34">
         <v>0</v>
       </c>
@@ -2084,8 +2930,94 @@
       <c r="AN34" s="6"/>
       <c r="AO34" s="6"/>
       <c r="AP34" s="6"/>
-    </row>
-    <row r="35" spans="3:47">
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="6">
+        <f t="array" ref="AX34">AVERAGEIF($F$34:$F$663,AW34,$I$34:$I$663)</f>
+        <v>85.253000317460291</v>
+      </c>
+      <c r="AY34" s="6"/>
+      <c r="AZ34" s="6">
+        <f t="array" ref="AZ34">AVERAGE(IF(($D$34:$D$663=BA$30)*($E$34:$E$663=BA$31)*($F$34:$F$663=AW34),$I$34:$I$663))</f>
+        <v>89.185442222222207</v>
+      </c>
+      <c r="BA34" s="6"/>
+      <c r="BB34" s="6">
+        <f t="array" ref="BB34">AVERAGE(IF(($D$34:$D$663=BC30)*($E$34:$E$663=BC31)*($F$34:$F$663=AW34),$I$34:$I$663))</f>
+        <v>86.450595555555552</v>
+      </c>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="6">
+        <f t="array" ref="BD34">AVERAGE(IF(($D$34:$D$663=BE30)*($E$34:$E$663=BE31)*($F$34:$F$663=AW34),$I$34:$I$663))</f>
+        <v>84.472184444444451</v>
+      </c>
+      <c r="BE34" s="6"/>
+      <c r="BF34" s="6">
+        <f t="array" ref="BF34">AVERAGE(IF(($D$34:$D$663=BG30)*($E$34:$E$663=BG31)*($F$34:$F$663=AW34),$I$34:$I$663))</f>
+        <v>81.374488888888877</v>
+      </c>
+      <c r="BG34" s="6"/>
+      <c r="BH34" s="6">
+        <f t="array" ref="BH34">AVERAGE(IF(($D$34:$D$663=BI30)*($E$34:$E$663=BI31)*($F$34:$F$663=AW34),$I$34:$I$663))</f>
+        <v>87.275480000000016</v>
+      </c>
+      <c r="BI34" s="6"/>
+      <c r="BJ34" s="6">
+        <f t="array" ref="BJ34">AVERAGE(IF(($D$34:$D$663=BK30)*($E$34:$E$663=BK31)*($F$34:$F$663=AW34),$I$34:$I$663))</f>
+        <v>85.374571111111095</v>
+      </c>
+      <c r="BK34" s="6"/>
+      <c r="BL34" s="6">
+        <f t="array" ref="BL34">AVERAGE(IF(($D$34:$D$663=BM30)*($E$34:$E$663=BM31)*($F$34:$F$663=AW34),$I$34:$I$663))</f>
+        <v>82.63824000000001</v>
+      </c>
+      <c r="BM34" s="6"/>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="6">
+        <f t="array" ref="BP34">AVERAGEIF($F$34:$F$663,BO34,$J$34:$J$663)</f>
+        <v>85.750123174603175</v>
+      </c>
+      <c r="BQ34" s="6"/>
+      <c r="BR34" s="6">
+        <f t="array" ref="BR34">AVERAGE(IF(($D$34:$D$663=BS$30)*($E$34:$E$663=BS$31)*($F$34:$F$663=BO34),$J$34:$J$663))</f>
+        <v>84.404728888888869</v>
+      </c>
+      <c r="BS34" s="6"/>
+      <c r="BT34" s="6">
+        <f t="array" ref="BT34">AVERAGE(IF(($D$34:$D$663=BU30)*($E$34:$E$663=BU31)*($F$34:$F$663=BO34),$J$34:$J$663))</f>
+        <v>87.343155555555555</v>
+      </c>
+      <c r="BU34" s="6"/>
+      <c r="BV34" s="6">
+        <f t="array" ref="BV34">AVERAGE(IF(($D$34:$D$663=BW30)*($E$34:$E$663=BW31)*($F$34:$F$663=BO34),$J$34:$J$663))</f>
+        <v>86.60652222222221</v>
+      </c>
+      <c r="BW34" s="6"/>
+      <c r="BX34" s="6">
+        <f t="array" ref="BX34">AVERAGE(IF(($D$34:$D$663=BY30)*($E$34:$E$663=BY31)*($F$34:$F$663=BO34),$J$34:$J$663))</f>
+        <v>82.791377777777797</v>
+      </c>
+      <c r="BY34" s="6"/>
+      <c r="BZ34" s="6">
+        <f t="array" ref="BZ34">AVERAGE(IF(($D$34:$D$663=CA30)*($E$34:$E$663=CA31)*($F$34:$F$663=BO34),$J$34:$J$663))</f>
+        <v>87.037422222222219</v>
+      </c>
+      <c r="CA34" s="6"/>
+      <c r="CB34" s="6">
+        <f t="array" ref="CB34">AVERAGE(IF(($D$34:$D$663=CC30)*($E$34:$E$663=CC31)*($F$34:$F$663=BO34),$J$34:$J$663))</f>
+        <v>87.194468888888892</v>
+      </c>
+      <c r="CC34" s="6"/>
+      <c r="CD34" s="6">
+        <f t="array" ref="CD34">AVERAGE(IF(($D$34:$D$663=CE30)*($E$34:$E$663=CE31)*($F$34:$F$663=BO34),$J$34:$J$663))</f>
+        <v>84.873186666666655</v>
+      </c>
+      <c r="CE34" s="6"/>
+    </row>
+    <row r="35" spans="3:83">
       <c r="C35">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2191,8 +3123,94 @@
       <c r="AN35" s="6"/>
       <c r="AO35" s="6"/>
       <c r="AP35" s="6"/>
-    </row>
-    <row r="36" spans="3:47">
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="6">
+        <f t="array" ref="AX35">AVERAGEIF($F$34:$F$663,AW35,$I$34:$I$663)</f>
+        <v>86.793700317460392</v>
+      </c>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6">
+        <f t="array" ref="AZ35">AVERAGE(IF(($D$34:$D$663=BA$30)*($E$34:$E$663=BA$31)*($F$34:$F$663=AW35),$I$34:$I$663))</f>
+        <v>90.457226666666642</v>
+      </c>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6">
+        <f t="array" ref="BB35">AVERAGE(IF(($D$34:$D$663=BC30)*($E$34:$E$663=BC31)*($F$34:$F$663=AW35),$I$34:$I$663))</f>
+        <v>88.028753333333341</v>
+      </c>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6">
+        <f t="array" ref="BD35">AVERAGE(IF(($D$34:$D$663=BE30)*($E$34:$E$663=BE31)*($F$34:$F$663=AW35),$I$34:$I$663))</f>
+        <v>86.102266666666665</v>
+      </c>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="6">
+        <f t="array" ref="BF35">AVERAGE(IF(($D$34:$D$663=BG30)*($E$34:$E$663=BG31)*($F$34:$F$663=AW35),$I$34:$I$663))</f>
+        <v>82.932213333333337</v>
+      </c>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6">
+        <f t="array" ref="BH35">AVERAGE(IF(($D$34:$D$663=BI30)*($E$34:$E$663=BI31)*($F$34:$F$663=AW35),$I$34:$I$663))</f>
+        <v>88.796377777777792</v>
+      </c>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6">
+        <f t="array" ref="BJ35">AVERAGE(IF(($D$34:$D$663=BK30)*($E$34:$E$663=BK31)*($F$34:$F$663=AW35),$I$34:$I$663))</f>
+        <v>86.988639999999975</v>
+      </c>
+      <c r="BK35" s="6"/>
+      <c r="BL35" s="6">
+        <f t="array" ref="BL35">AVERAGE(IF(($D$34:$D$663=BM30)*($E$34:$E$663=BM31)*($F$34:$F$663=AW35),$I$34:$I$663))</f>
+        <v>84.250424444444462</v>
+      </c>
+      <c r="BM35" s="6"/>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="BP35" s="6">
+        <f t="array" ref="BP35">AVERAGEIF($F$34:$F$663,BO35,$J$34:$J$663)</f>
+        <v>85.24211841269846</v>
+      </c>
+      <c r="BQ35" s="6"/>
+      <c r="BR35" s="6">
+        <f t="array" ref="BR35">AVERAGE(IF(($D$34:$D$663=BS$30)*($E$34:$E$663=BS$31)*($F$34:$F$663=BO35),$J$34:$J$663))</f>
+        <v>85.019424444444439</v>
+      </c>
+      <c r="BS35" s="6"/>
+      <c r="BT35" s="6">
+        <f t="array" ref="BT35">AVERAGE(IF(($D$34:$D$663=BU30)*($E$34:$E$663=BU31)*($F$34:$F$663=BO35),$J$34:$J$663))</f>
+        <v>87.215177777777797</v>
+      </c>
+      <c r="BU35" s="6"/>
+      <c r="BV35" s="6">
+        <f t="array" ref="BV35">AVERAGE(IF(($D$34:$D$663=BW30)*($E$34:$E$663=BW31)*($F$34:$F$663=BO35),$J$34:$J$663))</f>
+        <v>86.015913333333373</v>
+      </c>
+      <c r="BW35" s="6"/>
+      <c r="BX35" s="6">
+        <f t="array" ref="BX35">AVERAGE(IF(($D$34:$D$663=BY30)*($E$34:$E$663=BY31)*($F$34:$F$663=BO35),$J$34:$J$663))</f>
+        <v>80.683726666666701</v>
+      </c>
+      <c r="BY35" s="6"/>
+      <c r="BZ35" s="6">
+        <f t="array" ref="BZ35">AVERAGE(IF(($D$34:$D$663=CA30)*($E$34:$E$663=CA31)*($F$34:$F$663=BO35),$J$34:$J$663))</f>
+        <v>87.123297777777765</v>
+      </c>
+      <c r="CA35" s="6"/>
+      <c r="CB35" s="6">
+        <f t="array" ref="CB35">AVERAGE(IF(($D$34:$D$663=CC30)*($E$34:$E$663=CC31)*($F$34:$F$663=BO35),$J$34:$J$663))</f>
+        <v>86.86704444444446</v>
+      </c>
+      <c r="CC35" s="6"/>
+      <c r="CD35" s="6">
+        <f t="array" ref="CD35">AVERAGE(IF(($D$34:$D$663=CE30)*($E$34:$E$663=CE31)*($F$34:$F$663=BO35),$J$34:$J$663))</f>
+        <v>83.770244444444458</v>
+      </c>
+      <c r="CE35" s="6"/>
+    </row>
+    <row r="36" spans="3:83">
       <c r="C36">
         <v>1E-3</v>
       </c>
@@ -2241,8 +3259,46 @@
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
-    </row>
-    <row r="37" spans="3:47">
+      <c r="AP36" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
+      <c r="BL36" s="6"/>
+      <c r="BM36" s="6"/>
+      <c r="BP36" s="6"/>
+      <c r="BQ36" s="6"/>
+      <c r="BR36" s="6"/>
+      <c r="BS36" s="6"/>
+      <c r="BT36" s="6"/>
+      <c r="BU36" s="6"/>
+      <c r="BV36" s="6"/>
+      <c r="BW36" s="6"/>
+      <c r="BX36" s="6"/>
+      <c r="BY36" s="6"/>
+      <c r="BZ36" s="6"/>
+      <c r="CA36" s="6"/>
+      <c r="CB36" s="6"/>
+      <c r="CC36" s="6"/>
+      <c r="CD36" s="6"/>
+      <c r="CE36" s="6"/>
+    </row>
+    <row r="37" spans="3:83">
       <c r="C37">
         <v>2E-3</v>
       </c>
@@ -2312,8 +3368,40 @@
       <c r="AU37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="3:47">
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="6"/>
+      <c r="BA37" s="6"/>
+      <c r="BB37" s="6"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="6"/>
+      <c r="BF37" s="6"/>
+      <c r="BG37" s="6"/>
+      <c r="BH37" s="6"/>
+      <c r="BI37" s="6"/>
+      <c r="BJ37" s="6"/>
+      <c r="BK37" s="6"/>
+      <c r="BL37" s="6"/>
+      <c r="BM37" s="6"/>
+      <c r="BP37" s="6"/>
+      <c r="BQ37" s="6"/>
+      <c r="BR37" s="6"/>
+      <c r="BS37" s="6"/>
+      <c r="BT37" s="6"/>
+      <c r="BU37" s="6"/>
+      <c r="BV37" s="6"/>
+      <c r="BW37" s="6"/>
+      <c r="BX37" s="6"/>
+      <c r="BY37" s="6"/>
+      <c r="BZ37" s="6"/>
+      <c r="CA37" s="6"/>
+      <c r="CB37" s="6"/>
+      <c r="CC37" s="6"/>
+      <c r="CD37" s="6"/>
+      <c r="CE37" s="6"/>
+    </row>
+    <row r="38" spans="3:83">
       <c r="C38">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2386,8 +3474,46 @@
       <c r="AU38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="3:47">
+      <c r="AW38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="6"/>
+      <c r="BF38" s="6"/>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="6"/>
+      <c r="BI38" s="6"/>
+      <c r="BJ38" s="6"/>
+      <c r="BK38" s="6"/>
+      <c r="BL38" s="6"/>
+      <c r="BM38" s="6"/>
+      <c r="BO38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BP38" s="6"/>
+      <c r="BQ38" s="6"/>
+      <c r="BR38" s="6"/>
+      <c r="BS38" s="6"/>
+      <c r="BT38" s="6"/>
+      <c r="BU38" s="6"/>
+      <c r="BV38" s="6"/>
+      <c r="BW38" s="6"/>
+      <c r="BX38" s="6"/>
+      <c r="BY38" s="6"/>
+      <c r="BZ38" s="6"/>
+      <c r="CA38" s="6"/>
+      <c r="CB38" s="6"/>
+      <c r="CC38" s="6"/>
+      <c r="CD38" s="6"/>
+      <c r="CE38" s="6"/>
+    </row>
+    <row r="39" spans="3:83">
       <c r="C39">
         <v>0</v>
       </c>
@@ -2511,8 +3637,94 @@
       <c r="AU39" s="6">
         <v>85.429122877256646</v>
       </c>
-    </row>
-    <row r="40" spans="3:47">
+      <c r="AW39">
+        <v>10</v>
+      </c>
+      <c r="AX39" s="6">
+        <f t="array" ref="AX39">AVERAGE(IF(($F$34:$F$663=AW35)*($G$34:$G$663=AW39),$I$34:$I$663))</f>
+        <v>87.693935238095236</v>
+      </c>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6">
+        <f t="array" ref="AZ39">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BA30)*($E$34:$E$663=BA31)*($G$34:$G$663=AW39),$I$34:$I$663))</f>
+        <v>91.174553333333321</v>
+      </c>
+      <c r="BA39" s="6"/>
+      <c r="BB39" s="6">
+        <f t="array" ref="BB39">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BC30)*($E$34:$E$663=BC31)*($G$34:$G$663=AW39),$I$34:$I$663))</f>
+        <v>88.889213333333316</v>
+      </c>
+      <c r="BC39" s="6"/>
+      <c r="BD39" s="6">
+        <f t="array" ref="BD39">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BE30)*($E$34:$E$663=BE31)*($G$34:$G$663=AW39),$I$34:$I$663))</f>
+        <v>87.04676666666667</v>
+      </c>
+      <c r="BE39" s="6"/>
+      <c r="BF39" s="6">
+        <f t="array" ref="BF39">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BG30)*($E$34:$E$663=BG31)*($G$34:$G$663=AW39),$I$34:$I$663))</f>
+        <v>83.986646666666658</v>
+      </c>
+      <c r="BG39" s="6"/>
+      <c r="BH39" s="6">
+        <f t="array" ref="BH39">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BI30)*($E$34:$E$663=BI31)*($G$34:$G$663=AW39),$I$34:$I$663))</f>
+        <v>89.606246666666678</v>
+      </c>
+      <c r="BI39" s="6"/>
+      <c r="BJ39" s="6">
+        <f t="array" ref="BJ39">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BK30)*($E$34:$E$663=BK31)*($G$34:$G$663=AW39),$I$34:$I$663))</f>
+        <v>87.897593333333333</v>
+      </c>
+      <c r="BK39" s="6"/>
+      <c r="BL39" s="6">
+        <f t="array" ref="BL39">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BM30)*($E$34:$E$663=BM31)*($G$34:$G$663=AW39),$I$34:$I$663))</f>
+        <v>85.256526666666659</v>
+      </c>
+      <c r="BM39" s="6"/>
+      <c r="BO39">
+        <v>10</v>
+      </c>
+      <c r="BP39" s="6">
+        <f t="array" ref="BP39">AVERAGE(IF(($F$34:$F$663=BO35)*($G$34:$G$663=BO39),$J$34:$J$663))</f>
+        <v>84.680472380952381</v>
+      </c>
+      <c r="BQ39" s="6"/>
+      <c r="BR39" s="6">
+        <f t="array" ref="BR39">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BS30)*($E$34:$E$663=BS31)*($G$34:$G$663=BO39),$J$34:$J$663))</f>
+        <v>83.708666666666659</v>
+      </c>
+      <c r="BS39" s="6"/>
+      <c r="BT39" s="6">
+        <f t="array" ref="BT39">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BU30)*($E$34:$E$663=BU31)*($G$34:$G$663=BO39),$J$34:$J$663))</f>
+        <v>86.663540000000012</v>
+      </c>
+      <c r="BU39" s="6"/>
+      <c r="BV39" s="6">
+        <f t="array" ref="BV39">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BW30)*($E$34:$E$663=BW31)*($G$34:$G$663=BO39),$J$34:$J$663))</f>
+        <v>85.754426666666674</v>
+      </c>
+      <c r="BW39" s="6"/>
+      <c r="BX39" s="6">
+        <f t="array" ref="BX39">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BY30)*($E$34:$E$663=BY31)*($G$34:$G$663=BO39),$J$34:$J$663))</f>
+        <v>80.272293333333351</v>
+      </c>
+      <c r="BY39" s="6"/>
+      <c r="BZ39" s="6">
+        <f t="array" ref="BZ39">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CA30)*($E$34:$E$663=CA31)*($G$34:$G$663=BO39),$J$34:$J$663))</f>
+        <v>86.326180000000008</v>
+      </c>
+      <c r="CA39" s="6"/>
+      <c r="CB39" s="6">
+        <f t="array" ref="CB39">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CC30)*($E$34:$E$663=CC31)*($G$34:$G$663=BO39),$J$34:$J$663))</f>
+        <v>86.499846666666656</v>
+      </c>
+      <c r="CC39" s="6"/>
+      <c r="CD39" s="6">
+        <f t="array" ref="CD39">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CE30)*($E$34:$E$663=CE31)*($G$34:$G$663=BO39),$J$34:$J$663))</f>
+        <v>83.538353333333333</v>
+      </c>
+      <c r="CE39" s="6"/>
+    </row>
+    <row r="40" spans="3:83">
       <c r="C40">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2639,8 +3851,94 @@
       <c r="AU40" s="6">
         <v>84.878510849849945</v>
       </c>
-    </row>
-    <row r="41" spans="3:47">
+      <c r="AW40">
+        <v>15</v>
+      </c>
+      <c r="AX40" s="6">
+        <f t="array" ref="AX40">AVERAGE(IF(($F$34:$F$663=AW35)*($G$34:$G$663=AW40),$I$34:$I$663))</f>
+        <v>86.737669523809501</v>
+      </c>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6">
+        <f t="array" ref="AZ40">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BA30)*($E$34:$E$663=BA31)*($G$34:$G$663=AW40),$I$34:$I$663))</f>
+        <v>90.422006666666661</v>
+      </c>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6">
+        <f t="array" ref="BB40">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BC30)*($E$34:$E$663=BC31)*($G$34:$G$663=AW40),$I$34:$I$663))</f>
+        <v>87.987053333333321</v>
+      </c>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6">
+        <f t="array" ref="BD40">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BE30)*($E$34:$E$663=BE31)*($G$34:$G$663=AW40),$I$34:$I$663))</f>
+        <v>86.01936666666667</v>
+      </c>
+      <c r="BE40" s="6"/>
+      <c r="BF40" s="6">
+        <f t="array" ref="BF40">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BG30)*($E$34:$E$663=BG31)*($G$34:$G$663=AW40),$I$34:$I$663))</f>
+        <v>82.851166666666671</v>
+      </c>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="6">
+        <f t="array" ref="BH40">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BI30)*($E$34:$E$663=BI31)*($G$34:$G$663=AW40),$I$34:$I$663))</f>
+        <v>88.768679999999989</v>
+      </c>
+      <c r="BI40" s="6"/>
+      <c r="BJ40" s="6">
+        <f t="array" ref="BJ40">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BK30)*($E$34:$E$663=BK31)*($G$34:$G$663=AW40),$I$34:$I$663))</f>
+        <v>86.929346666666632</v>
+      </c>
+      <c r="BK40" s="6"/>
+      <c r="BL40" s="6">
+        <f t="array" ref="BL40">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BM30)*($E$34:$E$663=BM31)*($G$34:$G$663=AW40),$I$34:$I$663))</f>
+        <v>84.186066666666676</v>
+      </c>
+      <c r="BM40" s="6"/>
+      <c r="BO40">
+        <v>15</v>
+      </c>
+      <c r="BP40" s="6">
+        <f t="array" ref="BP40">AVERAGE(IF(($F$34:$F$663=BO35)*($G$34:$G$663=BO40),$J$34:$J$663))</f>
+        <v>85.40446</v>
+      </c>
+      <c r="BQ40" s="6"/>
+      <c r="BR40" s="6">
+        <f t="array" ref="BR40">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BS30)*($E$34:$E$663=BS31)*($G$34:$G$663=BO40),$J$34:$J$663))</f>
+        <v>85.42316000000001</v>
+      </c>
+      <c r="BS40" s="6"/>
+      <c r="BT40" s="6">
+        <f t="array" ref="BT40">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BU30)*($E$34:$E$663=BU31)*($G$34:$G$663=BO40),$J$34:$J$663))</f>
+        <v>87.42800666666669</v>
+      </c>
+      <c r="BU40" s="6"/>
+      <c r="BV40" s="6">
+        <f t="array" ref="BV40">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BW30)*($E$34:$E$663=BW31)*($G$34:$G$663=BO40),$J$34:$J$663))</f>
+        <v>86.117226666666667</v>
+      </c>
+      <c r="BW40" s="6"/>
+      <c r="BX40" s="6">
+        <f t="array" ref="BX40">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BY30)*($E$34:$E$663=BY31)*($G$34:$G$663=BO40),$J$34:$J$663))</f>
+        <v>80.617593333333332</v>
+      </c>
+      <c r="BY40" s="6"/>
+      <c r="BZ40" s="6">
+        <f t="array" ref="BZ40">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CA30)*($E$34:$E$663=CA31)*($G$34:$G$663=BO40),$J$34:$J$663))</f>
+        <v>87.422679999999986</v>
+      </c>
+      <c r="CA40" s="6"/>
+      <c r="CB40" s="6">
+        <f t="array" ref="CB40">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CC30)*($E$34:$E$663=CC31)*($G$34:$G$663=BO40),$J$34:$J$663))</f>
+        <v>87.01196666666668</v>
+      </c>
+      <c r="CC40" s="6"/>
+      <c r="CD40" s="6">
+        <f t="array" ref="CD40">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CE30)*($E$34:$E$663=CE31)*($G$34:$G$663=BO40),$J$34:$J$663))</f>
+        <v>83.810586666666666</v>
+      </c>
+      <c r="CE40" s="6"/>
+    </row>
+    <row r="41" spans="3:83">
       <c r="C41">
         <v>1E-3</v>
       </c>
@@ -2764,8 +4062,94 @@
       <c r="AU41" s="6">
         <v>84.399809446876489</v>
       </c>
-    </row>
-    <row r="42" spans="3:47">
+      <c r="AW41">
+        <v>20</v>
+      </c>
+      <c r="AX41" s="6">
+        <f t="array" ref="AX41">AVERAGE(IF(($F$34:$F$663=AW35)*($G$34:$G$663=AW41),$I$34:$I$663))</f>
+        <v>85.949496190476182</v>
+      </c>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="6">
+        <f t="array" ref="AZ41">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BA30)*($E$34:$E$663=BA31)*($G$34:$G$663=AW41),$I$34:$I$663))</f>
+        <v>89.775120000000015</v>
+      </c>
+      <c r="BA41" s="6"/>
+      <c r="BB41" s="6">
+        <f t="array" ref="BB41">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BC30)*($E$34:$E$663=BC31)*($G$34:$G$663=AW41),$I$34:$I$663))</f>
+        <v>87.20999333333333</v>
+      </c>
+      <c r="BC41" s="6"/>
+      <c r="BD41" s="6">
+        <f t="array" ref="BD41">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BE30)*($E$34:$E$663=BE31)*($G$34:$G$663=AW41),$I$34:$I$663))</f>
+        <v>85.240666666666655</v>
+      </c>
+      <c r="BE41" s="6"/>
+      <c r="BF41" s="6">
+        <f t="array" ref="BF41">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BG30)*($E$34:$E$663=BG31)*($G$34:$G$663=AW41),$I$34:$I$663))</f>
+        <v>81.958826666666667</v>
+      </c>
+      <c r="BG41" s="6"/>
+      <c r="BH41" s="6">
+        <f t="array" ref="BH41">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BI30)*($E$34:$E$663=BI31)*($G$34:$G$663=AW41),$I$34:$I$663))</f>
+        <v>88.014206666666681</v>
+      </c>
+      <c r="BI41" s="6"/>
+      <c r="BJ41" s="6">
+        <f t="array" ref="BJ41">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BK30)*($E$34:$E$663=BK31)*($G$34:$G$663=AW41),$I$34:$I$663))</f>
+        <v>86.138979999999989</v>
+      </c>
+      <c r="BK41" s="6"/>
+      <c r="BL41" s="6">
+        <f t="array" ref="BL41">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BM30)*($E$34:$E$663=BM31)*($G$34:$G$663=AW41),$I$34:$I$663))</f>
+        <v>83.308680000000024</v>
+      </c>
+      <c r="BM41" s="6"/>
+      <c r="BO41">
+        <v>20</v>
+      </c>
+      <c r="BP41" s="6">
+        <f t="array" ref="BP41">AVERAGE(IF(($F$34:$F$663=BO35)*($G$34:$G$663=BO41),$J$34:$J$663))</f>
+        <v>85.641422857142842</v>
+      </c>
+      <c r="BQ41" s="6"/>
+      <c r="BR41" s="6">
+        <f t="array" ref="BR41">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BS30)*($E$34:$E$663=BS31)*($G$34:$G$663=BO41),$J$34:$J$663))</f>
+        <v>85.926446666666664</v>
+      </c>
+      <c r="BS41" s="6"/>
+      <c r="BT41" s="6">
+        <f t="array" ref="BT41">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BU30)*($E$34:$E$663=BU31)*($G$34:$G$663=BO41),$J$34:$J$663))</f>
+        <v>87.55398666666666</v>
+      </c>
+      <c r="BU41" s="6"/>
+      <c r="BV41" s="6">
+        <f t="array" ref="BV41">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BW30)*($E$34:$E$663=BW31)*($G$34:$G$663=BO41),$J$34:$J$663))</f>
+        <v>86.176086666666649</v>
+      </c>
+      <c r="BW41" s="6"/>
+      <c r="BX41" s="6">
+        <f t="array" ref="BX41">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BY30)*($E$34:$E$663=BY31)*($G$34:$G$663=BO41),$J$34:$J$663))</f>
+        <v>81.161293333333333</v>
+      </c>
+      <c r="BY41" s="6"/>
+      <c r="BZ41" s="6">
+        <f t="array" ref="BZ41">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CA30)*($E$34:$E$663=CA31)*($G$34:$G$663=BO41),$J$34:$J$663))</f>
+        <v>87.62103333333333</v>
+      </c>
+      <c r="CA41" s="6"/>
+      <c r="CB41" s="6">
+        <f t="array" ref="CB41">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CC30)*($E$34:$E$663=CC31)*($G$34:$G$663=BO41),$J$34:$J$663))</f>
+        <v>87.089320000000015</v>
+      </c>
+      <c r="CC41" s="6"/>
+      <c r="CD41" s="6">
+        <f t="array" ref="CD41">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CE30)*($E$34:$E$663=CE31)*($G$34:$G$663=BO41),$J$34:$J$663))</f>
+        <v>83.961793333333347</v>
+      </c>
+      <c r="CE41" s="6"/>
+    </row>
+    <row r="42" spans="3:83">
       <c r="C42">
         <v>2E-3</v>
       </c>
@@ -2838,8 +4222,40 @@
       <c r="AU42" s="6">
         <v>83.855043198213409</v>
       </c>
-    </row>
-    <row r="43" spans="3:47">
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="6"/>
+      <c r="AZ42" s="6"/>
+      <c r="BA42" s="6"/>
+      <c r="BB42" s="6"/>
+      <c r="BC42" s="6"/>
+      <c r="BD42" s="6"/>
+      <c r="BE42" s="6"/>
+      <c r="BF42" s="6"/>
+      <c r="BG42" s="6"/>
+      <c r="BH42" s="6"/>
+      <c r="BI42" s="6"/>
+      <c r="BJ42" s="6"/>
+      <c r="BK42" s="6"/>
+      <c r="BL42" s="6"/>
+      <c r="BM42" s="6"/>
+      <c r="BP42" s="6"/>
+      <c r="BQ42" s="6"/>
+      <c r="BR42" s="6"/>
+      <c r="BS42" s="6"/>
+      <c r="BT42" s="6"/>
+      <c r="BU42" s="6"/>
+      <c r="BV42" s="6"/>
+      <c r="BW42" s="6"/>
+      <c r="BX42" s="6"/>
+      <c r="BY42" s="6"/>
+      <c r="BZ42" s="6"/>
+      <c r="CA42" s="6"/>
+      <c r="CB42" s="6"/>
+      <c r="CC42" s="6"/>
+      <c r="CD42" s="6"/>
+      <c r="CE42" s="6"/>
+    </row>
+    <row r="43" spans="3:83">
       <c r="C43">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2912,8 +4328,40 @@
       <c r="AU43" s="6">
         <v>84.684906295635955</v>
       </c>
-    </row>
-    <row r="44" spans="3:47">
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="6"/>
+      <c r="AZ43" s="6"/>
+      <c r="BA43" s="6"/>
+      <c r="BB43" s="6"/>
+      <c r="BC43" s="6"/>
+      <c r="BD43" s="6"/>
+      <c r="BE43" s="6"/>
+      <c r="BF43" s="6"/>
+      <c r="BG43" s="6"/>
+      <c r="BH43" s="6"/>
+      <c r="BI43" s="6"/>
+      <c r="BJ43" s="6"/>
+      <c r="BK43" s="6"/>
+      <c r="BL43" s="6"/>
+      <c r="BM43" s="6"/>
+      <c r="BP43" s="6"/>
+      <c r="BQ43" s="6"/>
+      <c r="BR43" s="6"/>
+      <c r="BS43" s="6"/>
+      <c r="BT43" s="6"/>
+      <c r="BU43" s="6"/>
+      <c r="BV43" s="6"/>
+      <c r="BW43" s="6"/>
+      <c r="BX43" s="6"/>
+      <c r="BY43" s="6"/>
+      <c r="BZ43" s="6"/>
+      <c r="CA43" s="6"/>
+      <c r="CB43" s="6"/>
+      <c r="CC43" s="6"/>
+      <c r="CD43" s="6"/>
+      <c r="CE43" s="6"/>
+    </row>
+    <row r="44" spans="3:83">
       <c r="C44">
         <v>0</v>
       </c>
@@ -2989,8 +4437,46 @@
       <c r="AU44" s="6">
         <v>85.429122877256646</v>
       </c>
-    </row>
-    <row r="45" spans="3:47">
+      <c r="AW44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX44" s="6"/>
+      <c r="AY44" s="6"/>
+      <c r="AZ44" s="6"/>
+      <c r="BA44" s="6"/>
+      <c r="BB44" s="6"/>
+      <c r="BC44" s="6"/>
+      <c r="BD44" s="6"/>
+      <c r="BE44" s="6"/>
+      <c r="BF44" s="6"/>
+      <c r="BG44" s="6"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="6"/>
+      <c r="BJ44" s="6"/>
+      <c r="BK44" s="6"/>
+      <c r="BL44" s="6"/>
+      <c r="BM44" s="6"/>
+      <c r="BO44" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP44" s="6"/>
+      <c r="BQ44" s="6"/>
+      <c r="BR44" s="6"/>
+      <c r="BS44" s="6"/>
+      <c r="BT44" s="6"/>
+      <c r="BU44" s="6"/>
+      <c r="BV44" s="6"/>
+      <c r="BW44" s="6"/>
+      <c r="BX44" s="6"/>
+      <c r="BY44" s="6"/>
+      <c r="BZ44" s="6"/>
+      <c r="CA44" s="6"/>
+      <c r="CB44" s="6"/>
+      <c r="CC44" s="6"/>
+      <c r="CD44" s="6"/>
+      <c r="CE44" s="6"/>
+    </row>
+    <row r="45" spans="3:83">
       <c r="C45">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3093,8 +4579,94 @@
       <c r="AN45" s="6"/>
       <c r="AO45" s="6"/>
       <c r="AP45" s="6"/>
-    </row>
-    <row r="46" spans="3:47">
+      <c r="AW45">
+        <v>35</v>
+      </c>
+      <c r="AX45" s="6">
+        <f t="array" ref="AX45">AVERAGE(IF(($F$34:$F$663=AW35)*($H$34:$H$663=AW45),$I$34:$I$663))</f>
+        <v>87.438878095238081</v>
+      </c>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6">
+        <f t="array" ref="AZ45">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BA30)*($E$34:$E$663=BA31)*($H$34:$H$663=AW45),$I$34:$I$663))</f>
+        <v>90.945119999999989</v>
+      </c>
+      <c r="BA45" s="6"/>
+      <c r="BB45" s="6">
+        <f t="array" ref="BB45">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BC30)*($E$34:$E$663=BC31)*($H$34:$H$663=AW45),$I$34:$I$663))</f>
+        <v>88.65506000000002</v>
+      </c>
+      <c r="BC45" s="6"/>
+      <c r="BD45" s="6">
+        <f t="array" ref="BD45">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BE30)*($E$34:$E$663=BE31)*($H$34:$H$663=AW45),$I$34:$I$663))</f>
+        <v>86.783519999999996</v>
+      </c>
+      <c r="BE45" s="6"/>
+      <c r="BF45" s="6">
+        <f t="array" ref="BF45">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BG30)*($E$34:$E$663=BG31)*($H$34:$H$663=AW45),$I$34:$I$663))</f>
+        <v>83.67397333333335</v>
+      </c>
+      <c r="BG45" s="6"/>
+      <c r="BH45" s="6">
+        <f t="array" ref="BH45">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BI30)*($E$34:$E$663=BI31)*($H$34:$H$663=AW45),$I$34:$I$663))</f>
+        <v>89.388080000000002</v>
+      </c>
+      <c r="BI45" s="6"/>
+      <c r="BJ45" s="6">
+        <f t="array" ref="BJ45">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BK30)*($E$34:$E$663=BK31)*($H$34:$H$663=AW45),$I$34:$I$663))</f>
+        <v>87.648973333333331</v>
+      </c>
+      <c r="BK45" s="6"/>
+      <c r="BL45" s="6">
+        <f t="array" ref="BL45">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BM30)*($E$34:$E$663=BM31)*($H$34:$H$663=AW45),$I$34:$I$663))</f>
+        <v>84.977419999999981</v>
+      </c>
+      <c r="BM45" s="6"/>
+      <c r="BO45">
+        <v>35</v>
+      </c>
+      <c r="BP45" s="6">
+        <f t="array" ref="BP45">AVERAGE(IF(($F$34:$F$663=BO35)*($H$34:$H$663=BO45),$J$34:$J$663))</f>
+        <v>82.379989523809513</v>
+      </c>
+      <c r="BQ45" s="6"/>
+      <c r="BR45" s="6">
+        <f t="array" ref="BR45">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BS30)*($E$34:$E$663=BS31)*($H$34:$H$663=BO45),$J$34:$J$663))</f>
+        <v>81.609380000000002</v>
+      </c>
+      <c r="BS45" s="6"/>
+      <c r="BT45" s="6">
+        <f t="array" ref="BT45">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BU30)*($E$34:$E$663=BU31)*($H$34:$H$663=BO45),$J$34:$J$663))</f>
+        <v>84.340206666666674</v>
+      </c>
+      <c r="BU45" s="6"/>
+      <c r="BV45" s="6">
+        <f t="array" ref="BV45">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BW30)*($E$34:$E$663=BW31)*($H$34:$H$663=BO45),$J$34:$J$663))</f>
+        <v>83.510613333333339</v>
+      </c>
+      <c r="BW45" s="6"/>
+      <c r="BX45" s="6">
+        <f t="array" ref="BX45">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BY30)*($E$34:$E$663=BY31)*($H$34:$H$663=BO45),$J$34:$J$663))</f>
+        <v>77.69913333333335</v>
+      </c>
+      <c r="BY45" s="6"/>
+      <c r="BZ45" s="6">
+        <f t="array" ref="BZ45">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CA30)*($E$34:$E$663=CA31)*($H$34:$H$663=BO45),$J$34:$J$663))</f>
+        <v>83.968979999999974</v>
+      </c>
+      <c r="CA45" s="6"/>
+      <c r="CB45" s="6">
+        <f t="array" ref="CB45">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CC30)*($E$34:$E$663=CC31)*($H$34:$H$663=BO45),$J$34:$J$663))</f>
+        <v>84.253266666666661</v>
+      </c>
+      <c r="CC45" s="6"/>
+      <c r="CD45" s="6">
+        <f t="array" ref="CD45">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CE30)*($E$34:$E$663=CE31)*($H$34:$H$663=BO45),$J$34:$J$663))</f>
+        <v>81.278346666666692</v>
+      </c>
+      <c r="CE45" s="6"/>
+    </row>
+    <row r="46" spans="3:83">
       <c r="C46">
         <v>1E-3</v>
       </c>
@@ -3200,8 +4772,94 @@
       <c r="AN46" s="6"/>
       <c r="AO46" s="6"/>
       <c r="AP46" s="6"/>
-    </row>
-    <row r="47" spans="3:47">
+      <c r="AW46">
+        <v>45</v>
+      </c>
+      <c r="AX46" s="6">
+        <f t="array" ref="AX46">AVERAGE(IF(($F$34:$F$663=AW35)*($H$34:$H$663=AW46),$I$34:$I$663))</f>
+        <v>86.926986666666664</v>
+      </c>
+      <c r="AY46" s="6"/>
+      <c r="AZ46" s="6">
+        <f t="array" ref="AZ46">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BA30)*($E$34:$E$663=BA31)*($H$34:$H$663=AW46),$I$34:$I$663))</f>
+        <v>90.551246666666671</v>
+      </c>
+      <c r="BA46" s="6"/>
+      <c r="BB46" s="6">
+        <f t="array" ref="BB46">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BC30)*($E$34:$E$663=BC31)*($H$34:$H$663=AW46),$I$34:$I$663))</f>
+        <v>88.154046666666673</v>
+      </c>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6">
+        <f t="array" ref="BD46">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BE30)*($E$34:$E$663=BE31)*($H$34:$H$663=AW46),$I$34:$I$663))</f>
+        <v>86.248826666666687</v>
+      </c>
+      <c r="BE46" s="6"/>
+      <c r="BF46" s="6">
+        <f t="array" ref="BF46">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BG30)*($E$34:$E$663=BG31)*($H$34:$H$663=AW46),$I$34:$I$663))</f>
+        <v>83.097253333333342</v>
+      </c>
+      <c r="BG46" s="6"/>
+      <c r="BH46" s="6">
+        <f t="array" ref="BH46">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BI30)*($E$34:$E$663=BI31)*($H$34:$H$663=AW46),$I$34:$I$663))</f>
+        <v>88.91467333333334</v>
+      </c>
+      <c r="BI46" s="6"/>
+      <c r="BJ46" s="6">
+        <f t="array" ref="BJ46">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BK30)*($E$34:$E$663=BK31)*($H$34:$H$663=AW46),$I$34:$I$663))</f>
+        <v>87.125386666666657</v>
+      </c>
+      <c r="BK46" s="6"/>
+      <c r="BL46" s="6">
+        <f t="array" ref="BL46">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BM30)*($E$34:$E$663=BM31)*($H$34:$H$663=AW46),$I$34:$I$663))</f>
+        <v>84.397473333333338</v>
+      </c>
+      <c r="BM46" s="6"/>
+      <c r="BO46">
+        <v>45</v>
+      </c>
+      <c r="BP46" s="6">
+        <f t="array" ref="BP46">AVERAGE(IF(($F$34:$F$663=BO35)*($H$34:$H$663=BO46),$J$34:$J$663))</f>
+        <v>85.348445714285717</v>
+      </c>
+      <c r="BQ46" s="6"/>
+      <c r="BR46" s="6">
+        <f t="array" ref="BR46">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BS30)*($E$34:$E$663=BS31)*($H$34:$H$663=BO46),$J$34:$J$663))</f>
+        <v>85.229193333333342</v>
+      </c>
+      <c r="BS46" s="6"/>
+      <c r="BT46" s="6">
+        <f t="array" ref="BT46">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BU30)*($E$34:$E$663=BU31)*($H$34:$H$663=BO46),$J$34:$J$663))</f>
+        <v>87.43874000000001</v>
+      </c>
+      <c r="BU46" s="6"/>
+      <c r="BV46" s="6">
+        <f t="array" ref="BV46">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BW30)*($E$34:$E$663=BW31)*($H$34:$H$663=BO46),$J$34:$J$663))</f>
+        <v>86.088379999999987</v>
+      </c>
+      <c r="BW46" s="6"/>
+      <c r="BX46" s="6">
+        <f t="array" ref="BX46">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BY30)*($E$34:$E$663=BY31)*($H$34:$H$663=BO46),$J$34:$J$663))</f>
+        <v>80.589506666666665</v>
+      </c>
+      <c r="BY46" s="6"/>
+      <c r="BZ46" s="6">
+        <f t="array" ref="BZ46">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CA30)*($E$34:$E$663=CA31)*($H$34:$H$663=BO46),$J$34:$J$663))</f>
+        <v>87.395320000000012</v>
+      </c>
+      <c r="CA46" s="6"/>
+      <c r="CB46" s="6">
+        <f t="array" ref="CB46">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CC30)*($E$34:$E$663=CC31)*($H$34:$H$663=BO46),$J$34:$J$663))</f>
+        <v>86.997553333333343</v>
+      </c>
+      <c r="CC46" s="6"/>
+      <c r="CD46" s="6">
+        <f t="array" ref="CD46">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CE30)*($E$34:$E$663=CE31)*($H$34:$H$663=BO46),$J$34:$J$663))</f>
+        <v>83.700426666666672</v>
+      </c>
+      <c r="CE46" s="6"/>
+    </row>
+    <row r="47" spans="3:83">
       <c r="C47">
         <v>2E-3</v>
       </c>
@@ -3304,8 +4962,94 @@
       <c r="AN47" s="6"/>
       <c r="AO47" s="6"/>
       <c r="AP47" s="6"/>
-    </row>
-    <row r="48" spans="3:47">
+      <c r="AW47">
+        <v>60</v>
+      </c>
+      <c r="AX47" s="6">
+        <f t="array" ref="AX47">AVERAGE(IF(($F$34:$F$663=AW35)*($H$34:$H$663=AW47),$I$34:$I$663))</f>
+        <v>86.015236190476159</v>
+      </c>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="6">
+        <f t="array" ref="AZ47">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BA30)*($E$34:$E$663=BA31)*($H$34:$H$663=AW47),$I$34:$I$663))</f>
+        <v>89.875313333333324</v>
+      </c>
+      <c r="BA47" s="6"/>
+      <c r="BB47" s="6">
+        <f t="array" ref="BB47">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BC30)*($E$34:$E$663=BC31)*($H$34:$H$663=AW47),$I$34:$I$663))</f>
+        <v>87.277153333333345</v>
+      </c>
+      <c r="BC47" s="6"/>
+      <c r="BD47" s="6">
+        <f t="array" ref="BD47">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BE30)*($E$34:$E$663=BE31)*($H$34:$H$663=AW47),$I$34:$I$663))</f>
+        <v>85.274453333333341</v>
+      </c>
+      <c r="BE47" s="6"/>
+      <c r="BF47" s="6">
+        <f t="array" ref="BF47">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BG30)*($E$34:$E$663=BG31)*($H$34:$H$663=AW47),$I$34:$I$663))</f>
+        <v>82.025413333333347</v>
+      </c>
+      <c r="BG47" s="6"/>
+      <c r="BH47" s="6">
+        <f t="array" ref="BH47">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BI30)*($E$34:$E$663=BI31)*($H$34:$H$663=AW47),$I$34:$I$663))</f>
+        <v>88.086380000000005</v>
+      </c>
+      <c r="BI47" s="6"/>
+      <c r="BJ47" s="6">
+        <f t="array" ref="BJ47">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BK30)*($E$34:$E$663=BK31)*($H$34:$H$663=AW47),$I$34:$I$663))</f>
+        <v>86.191559999999996</v>
+      </c>
+      <c r="BK47" s="6"/>
+      <c r="BL47" s="6">
+        <f t="array" ref="BL47">AVERAGE(IF(($F$34:$F$663=AW35)*($D$34:$D$663=BM30)*($E$34:$E$663=BM31)*($H$34:$H$663=AW47),$I$34:$I$663))</f>
+        <v>83.376379999999997</v>
+      </c>
+      <c r="BM47" s="6"/>
+      <c r="BO47">
+        <v>60</v>
+      </c>
+      <c r="BP47" s="6">
+        <f t="array" ref="BP47">AVERAGE(IF(($F$34:$F$663=BO35)*($H$34:$H$663=BO47),$J$34:$J$663))</f>
+        <v>87.997920000000008</v>
+      </c>
+      <c r="BQ47" s="6"/>
+      <c r="BR47" s="6">
+        <f t="array" ref="BR47">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BS30)*($E$34:$E$663=BS31)*($H$34:$H$663=BO47),$J$34:$J$663))</f>
+        <v>88.219700000000003</v>
+      </c>
+      <c r="BS47" s="6"/>
+      <c r="BT47" s="6">
+        <f t="array" ref="BT47">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BU30)*($E$34:$E$663=BU31)*($H$34:$H$663=BO47),$J$34:$J$663))</f>
+        <v>89.866586666666677</v>
+      </c>
+      <c r="BU47" s="6"/>
+      <c r="BV47" s="6">
+        <f t="array" ref="BV47">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BW30)*($E$34:$E$663=BW31)*($H$34:$H$663=BO47),$J$34:$J$663))</f>
+        <v>88.448746666666651</v>
+      </c>
+      <c r="BW47" s="6"/>
+      <c r="BX47" s="6">
+        <f t="array" ref="BX47">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=BY30)*($E$34:$E$663=BY31)*($H$34:$H$663=BO47),$J$34:$J$663))</f>
+        <v>83.762540000000001</v>
+      </c>
+      <c r="BY47" s="6"/>
+      <c r="BZ47" s="6">
+        <f t="array" ref="BZ47">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CA30)*($E$34:$E$663=CA31)*($H$34:$H$663=BO47),$J$34:$J$663))</f>
+        <v>90.005593333333323</v>
+      </c>
+      <c r="CA47" s="6"/>
+      <c r="CB47" s="6">
+        <f t="array" ref="CB47">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CC30)*($E$34:$E$663=CC31)*($H$34:$H$663=BO47),$J$34:$J$663))</f>
+        <v>89.350313333333332</v>
+      </c>
+      <c r="CC47" s="6"/>
+      <c r="CD47" s="6">
+        <f t="array" ref="CD47">AVERAGE(IF(($F$34:$F$663=BO35)*($D$34:$D$663=CE30)*($E$34:$E$663=CE31)*($H$34:$H$663=BO47),$J$34:$J$663))</f>
+        <v>86.331960000000009</v>
+      </c>
+      <c r="CE47" s="6"/>
+    </row>
+    <row r="48" spans="3:83">
       <c r="C48">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -24446,11 +26190,11 @@
         <v>86.652799999999999</v>
       </c>
       <c r="K610">
-        <f t="shared" ref="K610:K673" si="18">2*I610*J610/(I610+J610)</f>
+        <f t="shared" ref="K610:K663" si="18">2*I610*J610/(I610+J610)</f>
         <v>83.870865862925712</v>
       </c>
       <c r="L610" t="str">
-        <f t="shared" ref="L610:L673" si="19">IF(MOD(ROW(K610), 5)=4,AVERAGE(K610:K614),"")</f>
+        <f t="shared" ref="L610:L663" si="19">IF(MOD(ROW(K610), 5)=4,AVERAGE(K610:K614),"")</f>
         <v/>
       </c>
     </row>
@@ -26414,8 +28158,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="BM13" r:id="rId1"/>
+    <hyperlink ref="BM14" r:id="rId2"/>
+    <hyperlink ref="BM15:BM24" r:id="rId3" display="\\"/>
+  </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.0629921259842521" bottom="1.0629921259842521" header="0.78740157480314965" footer="0.78740157480314965"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -26423,7 +28172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CH124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BC92" sqref="BC92"/>
     </sheetView>
   </sheetViews>
@@ -26751,7 +28500,7 @@
         <v>2.2129400000000001</v>
       </c>
       <c r="AF5">
-        <f>(2*$Y5+1)*(2*$Y5+1)/($Z5*$AA5)</f>
+        <f t="shared" ref="AF5:AF36" si="0">(2*$Y5+1)*(2*$Y5+1)/($Z5*$AA5)</f>
         <v>6.25</v>
       </c>
       <c r="AI5">
@@ -26779,7 +28528,7 @@
         <v>4.2717499999999999</v>
       </c>
       <c r="AQ5">
-        <f>(2*$AJ5+1)*(2*$AJ5+1)/($AK5*$AL5)</f>
+        <f t="shared" ref="AQ5:AQ36" si="1">(2*$AJ5+1)*(2*$AJ5+1)/($AK5*$AL5)</f>
         <v>6.25</v>
       </c>
       <c r="AT5">
@@ -26965,7 +28714,7 @@
         <v>2.2304900000000001</v>
       </c>
       <c r="AF6">
-        <f>(2*$Y6+1)*(2*$Y6+1)/($Z6*$AA6)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="AI6">
@@ -26993,7 +28742,7 @@
         <v>4.2107200000000002</v>
       </c>
       <c r="AQ6">
-        <f>(2*$AJ6+1)*(2*$AJ6+1)/($AK6*$AL6)</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="AT6">
@@ -27179,7 +28928,7 @@
         <v>2.2048999999999999</v>
       </c>
       <c r="AF7">
-        <f>(2*$Y7+1)*(2*$Y7+1)/($Z7*$AA7)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="AI7">
@@ -27207,7 +28956,7 @@
         <v>4.1601800000000004</v>
       </c>
       <c r="AQ7">
-        <f>(2*$AJ7+1)*(2*$AJ7+1)/($AK7*$AL7)</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="AT7">
@@ -27393,7 +29142,7 @@
         <v>2.3817900000000001</v>
       </c>
       <c r="AF8">
-        <f>(2*$Y8+1)*(2*$Y8+1)/($Z8*$AA8)</f>
+        <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
       <c r="AI8">
@@ -27421,7 +29170,7 @@
         <v>4.7919299999999998</v>
       </c>
       <c r="AQ8">
-        <f>(2*$AJ8+1)*(2*$AJ8+1)/($AK8*$AL8)</f>
+        <f t="shared" si="1"/>
         <v>20.25</v>
       </c>
       <c r="AR8" t="s">
@@ -27610,7 +29359,7 @@
         <v>2.1253000000000002</v>
       </c>
       <c r="AF9">
-        <f>(2*$Y9+1)*(2*$Y9+1)/($Z9*$AA9)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AI9">
@@ -27638,7 +29387,7 @@
         <v>4.0585699999999996</v>
       </c>
       <c r="AQ9">
-        <f>(2*$AJ9+1)*(2*$AJ9+1)/($AK9*$AL9)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AT9">
@@ -27824,7 +29573,7 @@
         <v>2.37514</v>
       </c>
       <c r="AF10">
-        <f>(2*$Y10+1)*(2*$Y10+1)/($Z10*$AA10)</f>
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
       <c r="AI10">
@@ -27852,7 +29601,7 @@
         <v>4.7340099999999996</v>
       </c>
       <c r="AQ10">
-        <f>(2*$AJ10+1)*(2*$AJ10+1)/($AK10*$AL10)</f>
+        <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
       <c r="AT10">
@@ -28038,7 +29787,7 @@
         <v>2.3788299999999998</v>
       </c>
       <c r="AF11">
-        <f>(2*$Y11+1)*(2*$Y11+1)/($Z11*$AA11)</f>
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
       <c r="AI11">
@@ -28066,7 +29815,7 @@
         <v>4.6681400000000002</v>
       </c>
       <c r="AQ11">
-        <f>(2*$AJ11+1)*(2*$AJ11+1)/($AK11*$AL11)</f>
+        <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
       <c r="AT11">
@@ -28234,7 +29983,7 @@
         <v>2.4830700000000001</v>
       </c>
       <c r="AF12">
-        <f>(2*$Y12+1)*(2*$Y12+1)/($Z12*$AA12)</f>
+        <f t="shared" si="0"/>
         <v>42.25</v>
       </c>
       <c r="AI12">
@@ -28262,7 +30011,7 @@
         <v>5.2835299999999998</v>
       </c>
       <c r="AQ12">
-        <f>(2*$AJ12+1)*(2*$AJ12+1)/($AK12*$AL12)</f>
+        <f t="shared" si="1"/>
         <v>42.25</v>
       </c>
       <c r="AT12">
@@ -28433,7 +30182,7 @@
         <v>2.56393</v>
       </c>
       <c r="AF13">
-        <f>(2*$Y13+1)*(2*$Y13+1)/($Z13*$AA13)</f>
+        <f t="shared" si="0"/>
         <v>72.25</v>
       </c>
       <c r="AI13">
@@ -28461,7 +30210,7 @@
         <v>5.7723300000000002</v>
       </c>
       <c r="AQ13">
-        <f>(2*$AJ13+1)*(2*$AJ13+1)/($AK13*$AL13)</f>
+        <f t="shared" si="1"/>
         <v>72.25</v>
       </c>
       <c r="AR13" t="s">
@@ -28632,7 +30381,7 @@
         <v>2.33643</v>
       </c>
       <c r="AF14">
-        <f>(2*$Y14+1)*(2*$Y14+1)/($Z14*$AA14)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="AI14">
@@ -28660,7 +30409,7 @@
         <v>4.5893300000000004</v>
       </c>
       <c r="AQ14">
-        <f>(2*$AJ14+1)*(2*$AJ14+1)/($AK14*$AL14)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="AT14">
@@ -28828,7 +30577,7 @@
         <v>2.4889100000000002</v>
       </c>
       <c r="AF15">
-        <f>(2*$Y15+1)*(2*$Y15+1)/($Z15*$AA15)</f>
+        <f t="shared" si="0"/>
         <v>84.5</v>
       </c>
       <c r="AI15">
@@ -28856,7 +30605,7 @@
         <v>5.22288</v>
       </c>
       <c r="AQ15">
-        <f>(2*$AJ15+1)*(2*$AJ15+1)/($AK15*$AL15)</f>
+        <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
       <c r="AT15">
@@ -29027,7 +30776,7 @@
         <v>2.4851299999999998</v>
       </c>
       <c r="AF16">
-        <f>(2*$Y16+1)*(2*$Y16+1)/($Z16*$AA16)</f>
+        <f t="shared" si="0"/>
         <v>84.5</v>
       </c>
       <c r="AI16">
@@ -29055,7 +30804,7 @@
         <v>5.16594</v>
       </c>
       <c r="AQ16">
-        <f>(2*$AJ16+1)*(2*$AJ16+1)/($AK16*$AL16)</f>
+        <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
       <c r="AT16">
@@ -29223,7 +30972,7 @@
         <v>2.57491</v>
       </c>
       <c r="AF17">
-        <f>(2*$Y17+1)*(2*$Y17+1)/($Z17*$AA17)</f>
+        <f t="shared" si="0"/>
         <v>144.5</v>
       </c>
       <c r="AI17">
@@ -29251,7 +31000,7 @@
         <v>5.7058299999999997</v>
       </c>
       <c r="AQ17">
-        <f>(2*$AJ17+1)*(2*$AJ17+1)/($AK17*$AL17)</f>
+        <f t="shared" si="1"/>
         <v>144.5</v>
       </c>
       <c r="AT17">
@@ -29419,7 +31168,7 @@
         <v>2.5695600000000001</v>
       </c>
       <c r="AF18">
-        <f>(2*$Y18+1)*(2*$Y18+1)/($Z18*$AA18)</f>
+        <f t="shared" si="0"/>
         <v>144.5</v>
       </c>
       <c r="AI18">
@@ -29447,7 +31196,7 @@
         <v>5.6483600000000003</v>
       </c>
       <c r="AQ18">
-        <f>(2*$AJ18+1)*(2*$AJ18+1)/($AK18*$AL18)</f>
+        <f t="shared" si="1"/>
         <v>144.5</v>
       </c>
       <c r="AR18" t="s">
@@ -29618,7 +31367,7 @@
         <v>2.4664000000000001</v>
       </c>
       <c r="AF19">
-        <f>(2*$Y19+1)*(2*$Y19+1)/($Z19*$AA19)</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="AI19">
@@ -29646,7 +31395,7 @@
         <v>5.0894000000000004</v>
       </c>
       <c r="AQ19">
-        <f>(2*$AJ19+1)*(2*$AJ19+1)/($AK19*$AL19)</f>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="AR19" t="s">
@@ -29817,7 +31566,7 @@
         <v>2.5566</v>
       </c>
       <c r="AF20">
-        <f>(2*$Y20+1)*(2*$Y20+1)/($Z20*$AA20)</f>
+        <f t="shared" si="0"/>
         <v>289</v>
       </c>
       <c r="AG20" t="s">
@@ -29848,7 +31597,7 @@
         <v>5.5700500000000002</v>
       </c>
       <c r="AQ20">
-        <f>(2*$AJ20+1)*(2*$AJ20+1)/($AK20*$AL20)</f>
+        <f t="shared" si="1"/>
         <v>289</v>
       </c>
       <c r="AT20">
@@ -30019,7 +31768,7 @@
         <v>5.3068099999999996</v>
       </c>
       <c r="AF21">
-        <f>(2*$Y21+1)*(2*$Y21+1)/($Z21*$AA21)</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="AI21">
@@ -30047,7 +31796,7 @@
         <v>7.0457000000000001</v>
       </c>
       <c r="AQ21">
-        <f>(2*$AJ21+1)*(2*$AJ21+1)/($AK21*$AL21)</f>
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
       <c r="AT21">
@@ -30215,7 +31964,7 @@
         <v>5.3213999999999997</v>
       </c>
       <c r="AF22">
-        <f>(2*$Y22+1)*(2*$Y22+1)/($Z22*$AA22)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="AI22">
@@ -30243,7 +31992,7 @@
         <v>6.5672499999999996</v>
       </c>
       <c r="AQ22">
-        <f>(2*$AJ22+1)*(2*$AJ22+1)/($AK22*$AL22)</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="AT22">
@@ -30411,7 +32160,7 @@
         <v>4.8365400000000003</v>
       </c>
       <c r="AF23">
-        <f>(2*$Y23+1)*(2*$Y23+1)/($Z23*$AA23)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="AI23">
@@ -30439,7 +32188,7 @@
         <v>6.97262</v>
       </c>
       <c r="AQ23">
-        <f>(2*$AJ23+1)*(2*$AJ23+1)/($AK23*$AL23)</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="AT23">
@@ -30607,7 +32356,7 @@
         <v>3.8314900000000001</v>
       </c>
       <c r="AF24">
-        <f>(2*$Y24+1)*(2*$Y24+1)/($Z24*$AA24)</f>
+        <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
       <c r="AI24">
@@ -30635,7 +32384,7 @@
         <v>5.9458900000000003</v>
       </c>
       <c r="AQ24">
-        <f>(2*$AJ24+1)*(2*$AJ24+1)/($AK24*$AL24)</f>
+        <f t="shared" si="1"/>
         <v>20.25</v>
       </c>
       <c r="AT24">
@@ -30803,7 +32552,7 @@
         <v>4.9438800000000001</v>
       </c>
       <c r="AF25">
-        <f>(2*$Y25+1)*(2*$Y25+1)/($Z25*$AA25)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AI25">
@@ -30831,7 +32580,7 @@
         <v>6.6167299999999996</v>
       </c>
       <c r="AQ25">
-        <f>(2*$AJ25+1)*(2*$AJ25+1)/($AK25*$AL25)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AT25">
@@ -30999,7 +32748,7 @@
         <v>3.7054499999999999</v>
       </c>
       <c r="AF26">
-        <f>(2*$Y26+1)*(2*$Y26+1)/($Z26*$AA26)</f>
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
       <c r="AI26">
@@ -31027,7 +32776,7 @@
         <v>6.05288</v>
       </c>
       <c r="AQ26">
-        <f>(2*$AJ26+1)*(2*$AJ26+1)/($AK26*$AL26)</f>
+        <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
       <c r="AT26">
@@ -31195,7 +32944,7 @@
         <v>3.95797</v>
       </c>
       <c r="AF27">
-        <f>(2*$Y27+1)*(2*$Y27+1)/($Z27*$AA27)</f>
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
       <c r="AI27">
@@ -31223,7 +32972,7 @@
         <v>5.7356699999999998</v>
       </c>
       <c r="AQ27">
-        <f>(2*$AJ27+1)*(2*$AJ27+1)/($AK27*$AL27)</f>
+        <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
       <c r="AT27">
@@ -31391,7 +33140,7 @@
         <v>3.4509300000000001</v>
       </c>
       <c r="AF28">
-        <f>(2*$Y28+1)*(2*$Y28+1)/($Z28*$AA28)</f>
+        <f t="shared" si="0"/>
         <v>42.25</v>
       </c>
       <c r="AI28">
@@ -31419,7 +33168,7 @@
         <v>5.9685699999999997</v>
       </c>
       <c r="AQ28">
-        <f>(2*$AJ28+1)*(2*$AJ28+1)/($AK28*$AL28)</f>
+        <f t="shared" si="1"/>
         <v>42.25</v>
       </c>
       <c r="AT28">
@@ -31587,7 +33336,7 @@
         <v>3.3420700000000001</v>
       </c>
       <c r="AF29">
-        <f>(2*$Y29+1)*(2*$Y29+1)/($Z29*$AA29)</f>
+        <f t="shared" si="0"/>
         <v>72.25</v>
       </c>
       <c r="AI29">
@@ -31615,7 +33364,7 @@
         <v>6.2744499999999999</v>
       </c>
       <c r="AQ29">
-        <f>(2*$AJ29+1)*(2*$AJ29+1)/($AK29*$AL29)</f>
+        <f t="shared" si="1"/>
         <v>72.25</v>
       </c>
       <c r="AT29">
@@ -31783,7 +33532,7 @@
         <v>3.8994800000000001</v>
       </c>
       <c r="AF30">
-        <f>(2*$Y30+1)*(2*$Y30+1)/($Z30*$AA30)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="AI30">
@@ -31811,7 +33560,7 @@
         <v>5.9096099999999998</v>
       </c>
       <c r="AQ30">
-        <f>(2*$AJ30+1)*(2*$AJ30+1)/($AK30*$AL30)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="AT30">
@@ -31982,7 +33731,7 @@
         <v>3.8280500000000002</v>
       </c>
       <c r="AF31">
-        <f>(2*$Y31+1)*(2*$Y31+1)/($Z31*$AA31)</f>
+        <f t="shared" si="0"/>
         <v>84.5</v>
       </c>
       <c r="AI31">
@@ -32010,7 +33759,7 @@
         <v>6.3053299999999997</v>
       </c>
       <c r="AQ31">
-        <f>(2*$AJ31+1)*(2*$AJ31+1)/($AK31*$AL31)</f>
+        <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
       <c r="AT31">
@@ -32178,7 +33927,7 @@
         <v>3.3629199999999999</v>
       </c>
       <c r="AF32">
-        <f>(2*$Y32+1)*(2*$Y32+1)/($Z32*$AA32)</f>
+        <f t="shared" si="0"/>
         <v>84.5</v>
       </c>
       <c r="AI32">
@@ -32206,7 +33955,7 @@
         <v>5.7871499999999996</v>
       </c>
       <c r="AQ32">
-        <f>(2*$AJ32+1)*(2*$AJ32+1)/($AK32*$AL32)</f>
+        <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
       <c r="AT32">
@@ -32374,7 +34123,7 @@
         <v>3.8421799999999999</v>
       </c>
       <c r="AF33">
-        <f>(2*$Y33+1)*(2*$Y33+1)/($Z33*$AA33)</f>
+        <f t="shared" si="0"/>
         <v>144.5</v>
       </c>
       <c r="AI33">
@@ -32402,7 +34151,7 @@
         <v>6.71347</v>
       </c>
       <c r="AQ33">
-        <f>(2*$AJ33+1)*(2*$AJ33+1)/($AK33*$AL33)</f>
+        <f t="shared" si="1"/>
         <v>144.5</v>
       </c>
       <c r="AT33">
@@ -32570,7 +34319,7 @@
         <v>3.28172</v>
       </c>
       <c r="AF34">
-        <f>(2*$Y34+1)*(2*$Y34+1)/($Z34*$AA34)</f>
+        <f t="shared" si="0"/>
         <v>144.5</v>
       </c>
       <c r="AI34">
@@ -32598,7 +34347,7 @@
         <v>6.1071900000000001</v>
       </c>
       <c r="AQ34">
-        <f>(2*$AJ34+1)*(2*$AJ34+1)/($AK34*$AL34)</f>
+        <f t="shared" si="1"/>
         <v>144.5</v>
       </c>
       <c r="AT34">
@@ -32766,7 +34515,7 @@
         <v>3.7867700000000002</v>
       </c>
       <c r="AF35">
-        <f>(2*$Y35+1)*(2*$Y35+1)/($Z35*$AA35)</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="AI35">
@@ -32794,7 +34543,7 @@
         <v>6.1670199999999999</v>
       </c>
       <c r="AQ35">
-        <f>(2*$AJ35+1)*(2*$AJ35+1)/($AK35*$AL35)</f>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="AT35">
@@ -32962,7 +34711,7 @@
         <v>3.8056299999999998</v>
       </c>
       <c r="AF36">
-        <f>(2*$Y36+1)*(2*$Y36+1)/($Z36*$AA36)</f>
+        <f t="shared" si="0"/>
         <v>289</v>
       </c>
       <c r="AI36">
@@ -32990,7 +34739,7 @@
         <v>6.5723799999999999</v>
       </c>
       <c r="AQ36">
-        <f>(2*$AJ36+1)*(2*$AJ36+1)/($AK36*$AL36)</f>
+        <f t="shared" si="1"/>
         <v>289</v>
       </c>
       <c r="AT36">
@@ -33158,7 +34907,7 @@
         <v>8.3100400000000008</v>
       </c>
       <c r="AF37">
-        <f>(2*$Y37+1)*(2*$Y37+1)/($Z37*$AA37)</f>
+        <f t="shared" ref="AF37:AF68" si="2">(2*$Y37+1)*(2*$Y37+1)/($Z37*$AA37)</f>
         <v>6.25</v>
       </c>
       <c r="AI37">
@@ -33186,7 +34935,7 @@
         <v>9.8965399999999999</v>
       </c>
       <c r="AQ37">
-        <f>(2*$AJ37+1)*(2*$AJ37+1)/($AK37*$AL37)</f>
+        <f t="shared" ref="AQ37:AQ68" si="3">(2*$AJ37+1)*(2*$AJ37+1)/($AK37*$AL37)</f>
         <v>6.25</v>
       </c>
       <c r="AT37">
@@ -33354,7 +35103,7 @@
         <v>8.3137600000000003</v>
       </c>
       <c r="AF38">
-        <f>(2*$Y38+1)*(2*$Y38+1)/($Z38*$AA38)</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="AI38">
@@ -33382,7 +35131,7 @@
         <v>9.2576300000000007</v>
       </c>
       <c r="AQ38">
-        <f>(2*$AJ38+1)*(2*$AJ38+1)/($AK38*$AL38)</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="AT38">
@@ -33550,7 +35299,7 @@
         <v>7.6567999999999996</v>
       </c>
       <c r="AF39">
-        <f>(2*$Y39+1)*(2*$Y39+1)/($Z39*$AA39)</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="AI39">
@@ -33578,7 +35327,7 @@
         <v>9.8406099999999999</v>
       </c>
       <c r="AQ39">
-        <f>(2*$AJ39+1)*(2*$AJ39+1)/($AK39*$AL39)</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="AT39">
@@ -33746,7 +35495,7 @@
         <v>5.3140200000000002</v>
       </c>
       <c r="AF40">
-        <f>(2*$Y40+1)*(2*$Y40+1)/($Z40*$AA40)</f>
+        <f t="shared" si="2"/>
         <v>20.25</v>
       </c>
       <c r="AI40">
@@ -33774,7 +35523,7 @@
         <v>7.3088699999999998</v>
       </c>
       <c r="AQ40">
-        <f>(2*$AJ40+1)*(2*$AJ40+1)/($AK40*$AL40)</f>
+        <f t="shared" si="3"/>
         <v>20.25</v>
       </c>
       <c r="AT40">
@@ -33942,7 +35691,7 @@
         <v>7.8759399999999999</v>
       </c>
       <c r="AF41">
-        <f>(2*$Y41+1)*(2*$Y41+1)/($Z41*$AA41)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="AI41">
@@ -33970,7 +35719,7 @@
         <v>9.4288399999999992</v>
       </c>
       <c r="AQ41">
-        <f>(2*$AJ41+1)*(2*$AJ41+1)/($AK41*$AL41)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AT41">
@@ -34138,7 +35887,7 @@
         <v>5.1061899999999998</v>
       </c>
       <c r="AF42">
-        <f>(2*$Y42+1)*(2*$Y42+1)/($Z42*$AA42)</f>
+        <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
       <c r="AI42">
@@ -34166,7 +35915,7 @@
         <v>7.88049</v>
       </c>
       <c r="AQ42">
-        <f>(2*$AJ42+1)*(2*$AJ42+1)/($AK42*$AL42)</f>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
       <c r="AT42">
@@ -34334,7 +36083,7 @@
         <v>5.8903999999999996</v>
       </c>
       <c r="AF43">
-        <f>(2*$Y43+1)*(2*$Y43+1)/($Z43*$AA43)</f>
+        <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
       <c r="AI43">
@@ -34362,7 +36111,7 @@
         <v>7.03721</v>
       </c>
       <c r="AQ43">
-        <f>(2*$AJ43+1)*(2*$AJ43+1)/($AK43*$AL43)</f>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
       <c r="AT43">
@@ -34530,7 +36279,7 @@
         <v>4.5121700000000002</v>
       </c>
       <c r="AF44">
-        <f>(2*$Y44+1)*(2*$Y44+1)/($Z44*$AA44)</f>
+        <f t="shared" si="2"/>
         <v>42.25</v>
       </c>
       <c r="AI44">
@@ -34558,7 +36307,7 @@
         <v>6.92638</v>
       </c>
       <c r="AQ44">
-        <f>(2*$AJ44+1)*(2*$AJ44+1)/($AK44*$AL44)</f>
+        <f t="shared" si="3"/>
         <v>42.25</v>
       </c>
       <c r="AT44">
@@ -34726,7 +36475,7 @@
         <v>4.2621099999999998</v>
       </c>
       <c r="AF45">
-        <f>(2*$Y45+1)*(2*$Y45+1)/($Z45*$AA45)</f>
+        <f t="shared" si="2"/>
         <v>72.25</v>
       </c>
       <c r="AI45">
@@ -34754,7 +36503,7 @@
         <v>7.0984499999999997</v>
       </c>
       <c r="AQ45">
-        <f>(2*$AJ45+1)*(2*$AJ45+1)/($AK45*$AL45)</f>
+        <f t="shared" si="3"/>
         <v>72.25</v>
       </c>
       <c r="AT45">
@@ -34904,7 +36653,7 @@
         <v>5.8211000000000004</v>
       </c>
       <c r="AF46">
-        <f>(2*$Y46+1)*(2*$Y46+1)/($Z46*$AA46)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="AI46">
@@ -34932,7 +36681,7 @@
         <v>7.7378</v>
       </c>
       <c r="AQ46">
-        <f>(2*$AJ46+1)*(2*$AJ46+1)/($AK46*$AL46)</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="AT46">
@@ -35082,7 +36831,7 @@
         <v>5.5438200000000002</v>
       </c>
       <c r="AF47">
-        <f>(2*$Y47+1)*(2*$Y47+1)/($Z47*$AA47)</f>
+        <f t="shared" si="2"/>
         <v>84.5</v>
       </c>
       <c r="AI47">
@@ -35110,7 +36859,7 @@
         <v>7.9202000000000004</v>
       </c>
       <c r="AQ47">
-        <f>(2*$AJ47+1)*(2*$AJ47+1)/($AK47*$AL47)</f>
+        <f t="shared" si="3"/>
         <v>84.5</v>
       </c>
       <c r="AT47">
@@ -35260,7 +37009,7 @@
         <v>4.3767300000000002</v>
       </c>
       <c r="AF48">
-        <f>(2*$Y48+1)*(2*$Y48+1)/($Z48*$AA48)</f>
+        <f t="shared" si="2"/>
         <v>84.5</v>
       </c>
       <c r="AI48">
@@ -35288,7 +37037,7 @@
         <v>6.7133599999999998</v>
       </c>
       <c r="AQ48">
-        <f>(2*$AJ48+1)*(2*$AJ48+1)/($AK48*$AL48)</f>
+        <f t="shared" si="3"/>
         <v>84.5</v>
       </c>
       <c r="AT48">
@@ -35438,7 +37187,7 @@
         <v>5.4931000000000001</v>
       </c>
       <c r="AF49">
-        <f>(2*$Y49+1)*(2*$Y49+1)/($Z49*$AA49)</f>
+        <f t="shared" si="2"/>
         <v>144.5</v>
       </c>
       <c r="AI49">
@@ -35466,7 +37215,7 @@
         <v>8.2604500000000005</v>
       </c>
       <c r="AQ49">
-        <f>(2*$AJ49+1)*(2*$AJ49+1)/($AK49*$AL49)</f>
+        <f t="shared" si="3"/>
         <v>144.5</v>
       </c>
       <c r="AT49">
@@ -35580,7 +37329,7 @@
         <v>4.1714099999999998</v>
       </c>
       <c r="AF50">
-        <f>(2*$Y50+1)*(2*$Y50+1)/($Z50*$AA50)</f>
+        <f t="shared" si="2"/>
         <v>144.5</v>
       </c>
       <c r="AI50">
@@ -35608,7 +37357,7 @@
         <v>6.9145799999999999</v>
       </c>
       <c r="AQ50">
-        <f>(2*$AJ50+1)*(2*$AJ50+1)/($AK50*$AL50)</f>
+        <f t="shared" si="3"/>
         <v>144.5</v>
       </c>
       <c r="AT50">
@@ -35728,7 +37477,7 @@
         <v>5.4900799999999998</v>
       </c>
       <c r="AF51">
-        <f>(2*$Y51+1)*(2*$Y51+1)/($Z51*$AA51)</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="AG51" t="s">
@@ -35759,7 +37508,7 @@
         <v>7.78</v>
       </c>
       <c r="AQ51">
-        <f>(2*$AJ51+1)*(2*$AJ51+1)/($AK51*$AL51)</f>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
       <c r="AT51">
@@ -35873,7 +37622,7 @@
         <v>5.4398200000000001</v>
       </c>
       <c r="AF52">
-        <f>(2*$Y52+1)*(2*$Y52+1)/($Z52*$AA52)</f>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="AI52">
@@ -35901,7 +37650,7 @@
         <v>8.1125000000000007</v>
       </c>
       <c r="AQ52">
-        <f>(2*$AJ52+1)*(2*$AJ52+1)/($AK52*$AL52)</f>
+        <f t="shared" si="3"/>
         <v>289</v>
       </c>
       <c r="AT52">
@@ -36015,7 +37764,7 @@
         <v>13.9656</v>
       </c>
       <c r="AF53">
-        <f>(2*$Y53+1)*(2*$Y53+1)/($Z53*$AA53)</f>
+        <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
       <c r="AI53">
@@ -36043,7 +37792,7 @@
         <v>15.2745</v>
       </c>
       <c r="AQ53">
-        <f>(2*$AJ53+1)*(2*$AJ53+1)/($AK53*$AL53)</f>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
       <c r="AT53">
@@ -36157,7 +37906,7 @@
         <v>13.796799999999999</v>
       </c>
       <c r="AF54">
-        <f>(2*$Y54+1)*(2*$Y54+1)/($Z54*$AA54)</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="AI54">
@@ -36185,7 +37934,7 @@
         <v>14.128500000000001</v>
       </c>
       <c r="AQ54">
-        <f>(2*$AJ54+1)*(2*$AJ54+1)/($AK54*$AL54)</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="AT54">
@@ -36299,7 +38048,7 @@
         <v>12.7704</v>
       </c>
       <c r="AF55">
-        <f>(2*$Y55+1)*(2*$Y55+1)/($Z55*$AA55)</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="AI55">
@@ -36327,7 +38076,7 @@
         <v>15.0854</v>
       </c>
       <c r="AQ55">
-        <f>(2*$AJ55+1)*(2*$AJ55+1)/($AK55*$AL55)</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="AT55">
@@ -36441,7 +38190,7 @@
         <v>8.3748900000000006</v>
       </c>
       <c r="AF56">
-        <f>(2*$Y56+1)*(2*$Y56+1)/($Z56*$AA56)</f>
+        <f t="shared" si="2"/>
         <v>20.25</v>
       </c>
       <c r="AI56">
@@ -36469,7 +38218,7 @@
         <v>10.129899999999999</v>
       </c>
       <c r="AQ56">
-        <f>(2*$AJ56+1)*(2*$AJ56+1)/($AK56*$AL56)</f>
+        <f t="shared" si="3"/>
         <v>20.25</v>
       </c>
       <c r="AT56">
@@ -36583,7 +38332,7 @@
         <v>12.929</v>
       </c>
       <c r="AF57">
-        <f>(2*$Y57+1)*(2*$Y57+1)/($Z57*$AA57)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="AI57">
@@ -36611,7 +38360,7 @@
         <v>14.264099999999999</v>
       </c>
       <c r="AQ57">
-        <f>(2*$AJ57+1)*(2*$AJ57+1)/($AK57*$AL57)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AT57">
@@ -36725,7 +38474,7 @@
         <v>7.9732500000000002</v>
       </c>
       <c r="AF58">
-        <f>(2*$Y58+1)*(2*$Y58+1)/($Z58*$AA58)</f>
+        <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
       <c r="AI58">
@@ -36753,7 +38502,7 @@
         <v>10.9498</v>
       </c>
       <c r="AQ58">
-        <f>(2*$AJ58+1)*(2*$AJ58+1)/($AK58*$AL58)</f>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
       <c r="AT58">
@@ -36867,7 +38616,7 @@
         <v>9.1700599999999994</v>
       </c>
       <c r="AF59">
-        <f>(2*$Y59+1)*(2*$Y59+1)/($Z59*$AA59)</f>
+        <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
       <c r="AI59">
@@ -36895,7 +38644,7 @@
         <v>9.6981000000000002</v>
       </c>
       <c r="AQ59">
-        <f>(2*$AJ59+1)*(2*$AJ59+1)/($AK59*$AL59)</f>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
       <c r="AT59">
@@ -37009,7 +38758,7 @@
         <v>6.8455199999999996</v>
       </c>
       <c r="AF60">
-        <f>(2*$Y60+1)*(2*$Y60+1)/($Z60*$AA60)</f>
+        <f t="shared" si="2"/>
         <v>42.25</v>
       </c>
       <c r="AI60">
@@ -37037,7 +38786,7 @@
         <v>9.0389099999999996</v>
       </c>
       <c r="AQ60">
-        <f>(2*$AJ60+1)*(2*$AJ60+1)/($AK60*$AL60)</f>
+        <f t="shared" si="3"/>
         <v>42.25</v>
       </c>
       <c r="AT60">
@@ -37157,7 +38906,7 @@
         <v>6.3443399999999999</v>
       </c>
       <c r="AF61">
-        <f>(2*$Y61+1)*(2*$Y61+1)/($Z61*$AA61)</f>
+        <f t="shared" si="2"/>
         <v>72.25</v>
       </c>
       <c r="AI61">
@@ -37185,7 +38934,7 @@
         <v>8.9656800000000008</v>
       </c>
       <c r="AQ61">
-        <f>(2*$AJ61+1)*(2*$AJ61+1)/($AK61*$AL61)</f>
+        <f t="shared" si="3"/>
         <v>72.25</v>
       </c>
       <c r="AT61">
@@ -37299,7 +39048,7 @@
         <v>8.9617799999999992</v>
       </c>
       <c r="AF62">
-        <f>(2*$Y62+1)*(2*$Y62+1)/($Z62*$AA62)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="AI62">
@@ -37327,7 +39076,7 @@
         <v>10.694000000000001</v>
       </c>
       <c r="AQ62">
-        <f>(2*$AJ62+1)*(2*$AJ62+1)/($AK62*$AL62)</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="AT62">
@@ -37441,7 +39190,7 @@
         <v>8.3255999999999997</v>
       </c>
       <c r="AF63">
-        <f>(2*$Y63+1)*(2*$Y63+1)/($Z63*$AA63)</f>
+        <f t="shared" si="2"/>
         <v>84.5</v>
       </c>
       <c r="AI63">
@@ -37469,7 +39218,7 @@
         <v>10.497299999999999</v>
       </c>
       <c r="AQ63">
-        <f>(2*$AJ63+1)*(2*$AJ63+1)/($AK63*$AL63)</f>
+        <f t="shared" si="3"/>
         <v>84.5</v>
       </c>
       <c r="AT63">
@@ -37583,7 +39332,7 @@
         <v>6.5978300000000001</v>
       </c>
       <c r="AF64">
-        <f>(2*$Y64+1)*(2*$Y64+1)/($Z64*$AA64)</f>
+        <f t="shared" si="2"/>
         <v>84.5</v>
       </c>
       <c r="AI64">
@@ -37611,7 +39360,7 @@
         <v>8.74099</v>
       </c>
       <c r="AQ64">
-        <f>(2*$AJ64+1)*(2*$AJ64+1)/($AK64*$AL64)</f>
+        <f t="shared" si="3"/>
         <v>84.5</v>
       </c>
       <c r="AT64">
@@ -37725,7 +39474,7 @@
         <v>8.1184499999999993</v>
       </c>
       <c r="AF65">
-        <f>(2*$Y65+1)*(2*$Y65+1)/($Z65*$AA65)</f>
+        <f t="shared" si="2"/>
         <v>144.5</v>
       </c>
       <c r="AI65">
@@ -37753,7 +39502,7 @@
         <v>10.676500000000001</v>
       </c>
       <c r="AQ65">
-        <f>(2*$AJ65+1)*(2*$AJ65+1)/($AK65*$AL65)</f>
+        <f t="shared" si="3"/>
         <v>144.5</v>
       </c>
       <c r="AT65">
@@ -37867,7 +39616,7 @@
         <v>6.1794500000000001</v>
       </c>
       <c r="AF66">
-        <f>(2*$Y66+1)*(2*$Y66+1)/($Z66*$AA66)</f>
+        <f t="shared" si="2"/>
         <v>144.5</v>
       </c>
       <c r="AI66">
@@ -37895,7 +39644,7 @@
         <v>8.7324800000000007</v>
       </c>
       <c r="AQ66">
-        <f>(2*$AJ66+1)*(2*$AJ66+1)/($AK66*$AL66)</f>
+        <f t="shared" si="3"/>
         <v>144.5</v>
       </c>
       <c r="AT66">
@@ -38009,7 +39758,7 @@
         <v>8.1810899999999993</v>
       </c>
       <c r="AF67">
-        <f>(2*$Y67+1)*(2*$Y67+1)/($Z67*$AA67)</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="AI67">
@@ -38037,7 +39786,7 @@
         <v>10.2895</v>
       </c>
       <c r="AQ67">
-        <f>(2*$AJ67+1)*(2*$AJ67+1)/($AK67*$AL67)</f>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
       <c r="AT67">
@@ -38151,7 +39900,7 @@
         <v>7.9944600000000001</v>
       </c>
       <c r="AF68">
-        <f>(2*$Y68+1)*(2*$Y68+1)/($Z68*$AA68)</f>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="AI68">
@@ -38179,7 +39928,7 @@
         <v>10.479799999999999</v>
       </c>
       <c r="AQ68">
-        <f>(2*$AJ68+1)*(2*$AJ68+1)/($AK68*$AL68)</f>
+        <f t="shared" si="3"/>
         <v>289</v>
       </c>
       <c r="AT68">
@@ -38293,7 +40042,7 @@
         <v>27.4163</v>
       </c>
       <c r="AF69">
-        <f>(2*$Y69+1)*(2*$Y69+1)/($Z69*$AA69)</f>
+        <f t="shared" ref="AF69:AF84" si="4">(2*$Y69+1)*(2*$Y69+1)/($Z69*$AA69)</f>
         <v>6.25</v>
       </c>
       <c r="AI69">
@@ -38321,7 +40070,7 @@
         <v>28.082899999999999</v>
       </c>
       <c r="AQ69">
-        <f>(2*$AJ69+1)*(2*$AJ69+1)/($AK69*$AL69)</f>
+        <f t="shared" ref="AQ69:AQ84" si="5">(2*$AJ69+1)*(2*$AJ69+1)/($AK69*$AL69)</f>
         <v>6.25</v>
       </c>
       <c r="AT69">
@@ -38435,7 +40184,7 @@
         <v>26.493500000000001</v>
       </c>
       <c r="AF70">
-        <f>(2*$Y70+1)*(2*$Y70+1)/($Z70*$AA70)</f>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="AI70">
@@ -38463,7 +40212,7 @@
         <v>25.4512</v>
       </c>
       <c r="AQ70">
-        <f>(2*$AJ70+1)*(2*$AJ70+1)/($AK70*$AL70)</f>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="AT70">
@@ -38583,7 +40332,7 @@
         <v>24.686299999999999</v>
       </c>
       <c r="AF71">
-        <f>(2*$Y71+1)*(2*$Y71+1)/($Z71*$AA71)</f>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="AI71">
@@ -38611,7 +40360,7 @@
         <v>27.206299999999999</v>
       </c>
       <c r="AQ71">
-        <f>(2*$AJ71+1)*(2*$AJ71+1)/($AK71*$AL71)</f>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="AT71">
@@ -38725,7 +40474,7 @@
         <v>16.177099999999999</v>
       </c>
       <c r="AF72">
-        <f>(2*$Y72+1)*(2*$Y72+1)/($Z72*$AA72)</f>
+        <f t="shared" si="4"/>
         <v>20.25</v>
       </c>
       <c r="AI72">
@@ -38753,7 +40502,7 @@
         <v>17.253299999999999</v>
       </c>
       <c r="AQ72">
-        <f>(2*$AJ72+1)*(2*$AJ72+1)/($AK72*$AL72)</f>
+        <f t="shared" si="5"/>
         <v>20.25</v>
       </c>
       <c r="AT72">
@@ -38867,7 +40616,7 @@
         <v>24.185500000000001</v>
       </c>
       <c r="AF73">
-        <f>(2*$Y73+1)*(2*$Y73+1)/($Z73*$AA73)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="AG73" t="s">
@@ -38898,7 +40647,7 @@
         <v>24.985600000000002</v>
       </c>
       <c r="AQ73">
-        <f>(2*$AJ73+1)*(2*$AJ73+1)/($AK73*$AL73)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AT73">
@@ -39012,7 +40761,7 @@
         <v>14.9627</v>
       </c>
       <c r="AF74">
-        <f>(2*$Y74+1)*(2*$Y74+1)/($Z74*$AA74)</f>
+        <f t="shared" si="4"/>
         <v>40.5</v>
       </c>
       <c r="AI74">
@@ -39040,7 +40789,7 @@
         <v>17.302199999999999</v>
       </c>
       <c r="AQ74">
-        <f>(2*$AJ74+1)*(2*$AJ74+1)/($AK74*$AL74)</f>
+        <f t="shared" si="5"/>
         <v>40.5</v>
       </c>
       <c r="AT74">
@@ -39154,7 +40903,7 @@
         <v>16.118400000000001</v>
       </c>
       <c r="AF75">
-        <f>(2*$Y75+1)*(2*$Y75+1)/($Z75*$AA75)</f>
+        <f t="shared" si="4"/>
         <v>40.5</v>
       </c>
       <c r="AI75">
@@ -39182,7 +40931,7 @@
         <v>16.096699999999998</v>
       </c>
       <c r="AQ75">
-        <f>(2*$AJ75+1)*(2*$AJ75+1)/($AK75*$AL75)</f>
+        <f t="shared" si="5"/>
         <v>40.5</v>
       </c>
       <c r="AT75">
@@ -39296,7 +41045,7 @@
         <v>12.791</v>
       </c>
       <c r="AF76">
-        <f>(2*$Y76+1)*(2*$Y76+1)/($Z76*$AA76)</f>
+        <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
       <c r="AI76">
@@ -39324,7 +41073,7 @@
         <v>14.311999999999999</v>
       </c>
       <c r="AQ76">
-        <f>(2*$AJ76+1)*(2*$AJ76+1)/($AK76*$AL76)</f>
+        <f t="shared" si="5"/>
         <v>42.25</v>
       </c>
       <c r="AT76">
@@ -39438,7 +41187,7 @@
         <v>11.563599999999999</v>
       </c>
       <c r="AF77">
-        <f>(2*$Y77+1)*(2*$Y77+1)/($Z77*$AA77)</f>
+        <f t="shared" si="4"/>
         <v>72.25</v>
       </c>
       <c r="AI77">
@@ -39466,7 +41215,7 @@
         <v>13.514799999999999</v>
       </c>
       <c r="AQ77">
-        <f>(2*$AJ77+1)*(2*$AJ77+1)/($AK77*$AL77)</f>
+        <f t="shared" si="5"/>
         <v>72.25</v>
       </c>
       <c r="AT77">
@@ -39580,7 +41329,7 @@
         <v>15.157999999999999</v>
       </c>
       <c r="AF78">
-        <f>(2*$Y78+1)*(2*$Y78+1)/($Z78*$AA78)</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="AI78">
@@ -39608,7 +41357,7 @@
         <v>16.371200000000002</v>
       </c>
       <c r="AQ78">
-        <f>(2*$AJ78+1)*(2*$AJ78+1)/($AK78*$AL78)</f>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="AT78">
@@ -39722,7 +41471,7 @@
         <v>13.740500000000001</v>
       </c>
       <c r="AF79">
-        <f>(2*$Y79+1)*(2*$Y79+1)/($Z79*$AA79)</f>
+        <f t="shared" si="4"/>
         <v>84.5</v>
       </c>
       <c r="AG79" t="s">
@@ -39753,7 +41502,7 @@
         <v>15.316000000000001</v>
       </c>
       <c r="AQ79">
-        <f>(2*$AJ79+1)*(2*$AJ79+1)/($AK79*$AL79)</f>
+        <f t="shared" si="5"/>
         <v>84.5</v>
       </c>
       <c r="AT79">
@@ -39867,7 +41616,7 @@
         <v>12.0006</v>
       </c>
       <c r="AF80">
-        <f>(2*$Y80+1)*(2*$Y80+1)/($Z80*$AA80)</f>
+        <f t="shared" si="4"/>
         <v>84.5</v>
       </c>
       <c r="AI80">
@@ -39895,7 +41644,7 @@
         <v>13.555400000000001</v>
       </c>
       <c r="AQ80">
-        <f>(2*$AJ80+1)*(2*$AJ80+1)/($AK80*$AL80)</f>
+        <f t="shared" si="5"/>
         <v>84.5</v>
       </c>
       <c r="AT80">
@@ -40009,7 +41758,7 @@
         <v>12.9427</v>
       </c>
       <c r="AF81">
-        <f>(2*$Y81+1)*(2*$Y81+1)/($Z81*$AA81)</f>
+        <f t="shared" si="4"/>
         <v>144.5</v>
       </c>
       <c r="AI81">
@@ -40037,7 +41786,7 @@
         <v>14.9079</v>
       </c>
       <c r="AQ81">
-        <f>(2*$AJ81+1)*(2*$AJ81+1)/($AK81*$AL81)</f>
+        <f t="shared" si="5"/>
         <v>144.5</v>
       </c>
       <c r="AT81">
@@ -40151,7 +41900,7 @@
         <v>11.0322</v>
       </c>
       <c r="AF82">
-        <f>(2*$Y82+1)*(2*$Y82+1)/($Z82*$AA82)</f>
+        <f t="shared" si="4"/>
         <v>144.5</v>
       </c>
       <c r="AI82">
@@ -40179,7 +41928,7 @@
         <v>12.996700000000001</v>
       </c>
       <c r="AQ82">
-        <f>(2*$AJ82+1)*(2*$AJ82+1)/($AK82*$AL82)</f>
+        <f t="shared" si="5"/>
         <v>144.5</v>
       </c>
       <c r="AT82">
@@ -40293,7 +42042,7 @@
         <v>13.081099999999999</v>
       </c>
       <c r="AF83">
-        <f>(2*$Y83+1)*(2*$Y83+1)/($Z83*$AA83)</f>
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
       <c r="AI83">
@@ -40321,7 +42070,7 @@
         <v>14.6694</v>
       </c>
       <c r="AQ83">
-        <f>(2*$AJ83+1)*(2*$AJ83+1)/($AK83*$AL83)</f>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="AT83">
@@ -40435,7 +42184,7 @@
         <v>12.465</v>
       </c>
       <c r="AF84">
-        <f>(2*$Y84+1)*(2*$Y84+1)/($Z84*$AA84)</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="AI84">
@@ -40463,7 +42212,7 @@
         <v>14.4299</v>
       </c>
       <c r="AQ84">
-        <f>(2*$AJ84+1)*(2*$AJ84+1)/($AK84*$AL84)</f>
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
       <c r="AT84">
